--- a/output/Total_time_range_data/山西省/忻州市_学习考察.xlsx
+++ b/output/Total_time_range_data/山西省/忻州市_学习考察.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,2014 +436,2205 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>province</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>city</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>topic</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>content</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A2" t="n">
+        <v>22</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>忻州市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>忻州市</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>五台县考察团赴山西医科大学对接洽谈校地合作</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2022-07-04</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>http://www.sxxz.gov.cn/zwyw/qxdt/202207/t20220704_3775535.shtml</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>['近日，五台县考察团赴山西医科大学考察学习、交流对接，并就县校全方位深度战略合作进行洽谈。山西医科大学党委副书记王宏伟出席座谈会。', '五台县委组织部负责人围绕五台县域资源禀赋、区位条件、人文历史、中药材产业等，介绍了五台县特殊的地理落差、温差、时差、腐殖质酸性土壤等适宜中药材生长的环境条件及台党参的独特资源优势，强调了科技和人才对推动高附加值中药材产业开发的重要意义。希望通过科学选种、试点种植、品牌推广中药材，为五台县域经济发展蹚出一条新路，推动乡村振兴战略实施，促进五台人民增收致富。', '王宏伟详细介绍了山西医科大学药学专业发展情况，强调了科技博士服务团为校地合作发挥的桥梁作用，指出了五台县在忻州加快融入全省发展大局、全方位推动我省高质量发展中的地位和发挥的作用。就深化县校合作，王宏伟表示，山西医科大学将进一步发挥医学和药学专业优势，不断提高学校专业人才培养质量，为地方经济发展提供人才支撑；充分发挥科技博士服务团的桥梁纽带作用，深入调查台党参等中药材分布特点、种植规模、品牌潜力等情况，为道地中药材高质量发展建言献策，为五台县经济社会发展牵线搭桥、作出贡献；不断强化社会服务职能，与地方政府深化更高层次、更深领域交流，有力促进县域中药材产业发展，深入推进产教融合，实现互促互进、共同发展。', '下一步，五台县将通过开展专场校园招聘、产教融合推进就业等形式，吸引更多优秀的高校毕业生来五台县创业就业。']</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A3" t="n">
+        <v>22</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>忻州市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>忻州市</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>黑龙江省人大常委会调研组来我市考察学习</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2022-07-08</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>http://www.sxxz.gov.cn/zwyw/xzyw/202207/t20220708_3777275.shtml</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>['7月6日，黑龙江省人大常委会党组成员、副主任李显刚一行9人来我市就电动车立法工作进行考察学习。省人大监察和司法委员会副主任委员赵贵义陪同考察，市人大常委会主任王珍陪同并主持座谈会，市政府副市长、市公安局局长史红波及市人大常委会秘书长李强出席，市人大、市交警支队等有关单位负责人参加相关活动。', '李显刚一行先后到市车管所、交警支队听取有关情况介绍，详细了解电动车管理情况。在座谈会上，他听取了各相关部门负责人的工作情况介绍后，对我市的电动车立法管理工作给予高度评价，认为忻州市立法早、管理好，已逐步进入规范化管理，在实践中积累了不少成功经验，值得学习借鉴。', '王珍对黑龙江省人大调研组来我市考察表示热烈欢迎。他说，忻州市根据有关法律、法规的规定，结合实际，制定了《忻州市电动车管理条例》，为加强电动车管理、维护道路交通秩序，预防和减少道路交通事故，保障人民群众生命财产安全起到了重要作用。他强调，要把这次黑龙江人大调研组来忻考察作为一次互帮互学、共同促进的良机，进一步提升立法工作成效，把深入贯彻落实中央人大工作会议精神体现在具体工作实践中，为不断提升社会治理效能贡献人大力量。']</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A4" t="n">
+        <v>22</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>忻州市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>忻州市</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>忻州市二二一年巩固提升全国文明城市创建成果工作综述</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2022-01-13</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>http://www.sxxz.gov.cn/ztjj/gjxzmljy/ztbd/202201/t20220113_3723958.shtml</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>['年以来，我市以全国文明城市巩固提升为龙头，践行“我为群众办实事”，全面开展系列巩固提升整治活动，为忻州全方位推动高质量发展注入了文明力量、赋予了新动能。', '强化机制建设，完善制度保障。自2020年11月获评全国文明城市后，我市及时开展文明城市创建对标“回头看”工作，巩固创文成果，促进转型升级。出台印发了《忻州市2021年全国文明城市巩固提升重点工作任务》《忻州市创建全国文明城市常态长效机制的实施细则》《忻州市创建全国文明城市动态管理措施（负面清单）责任分解》等文件，定期召开忻州市全国文明城市巩固提升工作联席会议，实行周例会、月督查通报等机制，对2021年度文明城市常态化提升工作提出具体任务和要求。此外还实施了《忻州市文明行为促进条例》《忻州市公共场所禁止随地吐痰的实施细则》等，切实推动文明礼仪行为规范化、制度化。', '月获评全国文明城市后，我市及时开展文明城市创建对标“回头看”工作，巩固创文成果，促进转型升级。出台印发了《忻州市', '年全国文明城市巩固提升重点工作任务》《忻州市创建全国文明城市常态长效机制的实施细则》《忻州市创建全国文明城市动态管理措施（负面清单）责任分解》等文件，定期召开忻州市全国文明城市巩固提升工作联席会议，实行周例会、月督查通报等机制，对', '年度文明城市常态化提升工作提出具体任务和要求。此外还实施了《忻州市文明行为促进条例》《忻州市公共场所禁止随地吐痰的实施细则》等，切实推动文明礼仪行为规范化、制度化。', '量化工作指标，细化任务分解。2021年1月，结合全国文明城市年度工作要求，对照2020年《全国文明城市测评体系》《操作手册》，向95个单位分解印发了第一版《忻州市2021年创建全国文明城市任务书》。6月，根据中央文明办最新会议精神，将《全国文明城市测评体系（2021版）》中新增和有较大变化的指标在忻州市创建全国文明城市总指挥部第二次联席会议上下发，修订完善了《忻州市2021年创建全国文明城市任务书》第二版，第一时间将本年度所有资料申报任务上传至“忻州市创文智慧系统”，确保创文资料申报工作做实、做细。', '版）》中新增和有较大变化的指标在忻州市创建全国文明城市总指挥部第二次联席会议上下发，修订完善了《忻州市', '年创建全国文明城市任务书》第二版，第一时间将本年度所有资料申报任务上传至“忻州市创文智慧系统”，确保创文资料申报工作做实、做细。', '坚持城乡统筹，传播文明新风。我市组织召开新时代文明实践中心建设工作学习交流会，全面推进新时代文明实践中心（所、站）建设工作。截至目前，全市14个县（市、区）新时代文明实践中心全部挂牌并建立工作机构，基层精神文明创建工作得到进一步加强，形成了以城带乡、城乡同创的精神文明创建格局。同时，充分依托新时代文明实践中心（所、站）阵地，深入开展党史学习教育、孝老敬亲、文明祭祀等活动，有效破除陈规陋习，文明风尚逐渐深入人心。', '个县（市、区）新时代文明实践中心全部挂牌并建立工作机构，基层精神文明创建工作得到进一步加强，形成了以城带乡、城乡同创的精神文明创建格局。同时，充分依托新时代文明实践中心（所、站）阵地，深入开展党史学习教育、孝老敬亲、文明祭祀等活动，有效破除陈规陋习，文明风尚逐渐深入人心。', '集中整治攻坚，巩固创文成果。全市召开2021年全国文明城市巩固提升暨国家卫生城市复审暗访反馈问题整改推进会、2021年全国文明城市集中提升会，协调推进本年度创文巩固工作，对忻州市全国文明城市集中提升“十大行动”进行安排部署，细化《忻州市城区部分主次干道、背街小巷、交通路口常态化整治活动的工作方案》，组织市、区两级68个单位开展了为期一个月的包点创建集中行动，进一步增强了创建实效，提升了文明创建质量水平。', '年全国文明城市集中提升会，协调推进本年度创文巩固工作，对忻州市全国文明城市集中提升“十大行动”进行安排部署，细化《忻州市城区部分主次干道、背街小巷、交通路口常态化整治活动的工作方案》，组织市、区两级', '个单位开展了为期一个月的包点创建集中行动，进一步增强了创建实效，提升了文明创建质量水平。', '注重宣传引导，营造浓厚氛围。印发社会主义核心价值观等13类公益广告2.5万张，《市民文明手册》《新时代好少年典型事迹》等5万余册；广泛推选道德模范、身边好人、新时代好少年、文明家庭等文明典型，打造“忻州好人一条街” “新时代好少年一条街”，在全社会形成“找模范，推模范，学模范”的良好氛围；积极同市电视台、忻州日报社、市新闻中心对接沟通，针对性地开设专题专栏，对各类典型人物事迹进行集中宣传，形成了崇德向善、见贤思齐的良好氛围，凝聚了发展正能量。', '万余册；广泛推选道德模范、身边好人、新时代好少年、文明家庭等文明典型，打造“忻州好人一条街” “新时代好少年一条街”，在全社会形成“找模范，推模范，学模范”的良好氛围；积极同市电视台、忻州日报社、市新闻中心对接沟通，针对性地开设专题专栏，对各类典型人物事迹进行集中宣传，形成了崇德向善、见贤思齐的良好氛围，凝聚了发展正能量。', '开展实践活动，突出文化引领。积极组织“文明健康 绿色生活”“文明交通 绿色出行”“世界急救日”“两新组织文明单位创建”“世界低碳日”等主题宣传实践活动17场，发放各类倡议书6000余份，取得了良好的宣传实效。此外，结合党史学习教育，围绕“庆祝建党100周年”，开展“我为群众办实事”实践活动，以中华传统节日（清明节、端午节、中秋节等）为切入点，突出社会主义核心价值观宣传教育，推动节日习俗创造性转化、创新性发展，使传统节日成为宣传社会主义核心价值观和传播优秀民族文化的重要阵地。', '周年”，开展“我为群众办实事”实践活动，以中华传统节日（清明节、端午节、中秋节等）为切入点，突出社会主义核心价值观宣传教育，推动节日习俗创造性转化、创新性发展，使传统节日成为宣传社会主义核心价值观和传播优秀民族文化的重要阵地。', '深化志愿服务，培育文明风尚。印发《关于公布2020年度忻州市“最美志愿者、疫情防控最美志愿者、最美志愿服务组织、最佳志愿服务项目、最美志愿服务社区、志愿服务先进工作者”先进典型名单的通知》，推选各类志愿服务先进典型87个；组织举行忻州市2021年“弘扬雷锋精神 守护文明忻州”学雷锋志愿服务活动月启动仪式，为先进典型代表颁发荣誉证书和奖牌；组织召开忻州市志愿服务工作学习交流会，对全市获得2020年度省级志愿服务荣誉的10个先进典型进行表彰。印发《关于组织开展2021年宣传推选学雷锋志愿服务先进典型活动的通知》《关于公布忻州市2021年度“最美志愿者、最佳志愿服务项目、最美志愿服务组织、最美志愿服务社区、志愿服务先进工作者”先进典型名单的通知》，推选各类志愿服务先进典型74个，并择优向省文明办推荐志愿服务先进典型8个，有效提升了志愿服务活动的关注度和社会影响力。', '年度忻州市“最美志愿者、疫情防控最美志愿者、最美志愿服务组织、最佳志愿服务项目、最美志愿服务社区、志愿服务先进工作者”先进典型名单的通知》，推选各类志愿服务先进典型', '年“弘扬雷锋精神 守护文明忻州”学雷锋志愿服务活动月启动仪式，为先进典型代表颁发荣誉证书和奖牌；组织召开忻州市志愿服务工作学习交流会，对全市获得', '年度“最美志愿者、最佳志愿服务项目、最美志愿服务组织、最美志愿服务社区、志愿服务先进工作者”先进典型名单的通知》，推选各类志愿服务先进典型', '加强学习交流，强化督查促进。为开拓创文工作思路，更有效地解决好创文工作中遇到的困难和问题，2021年4月，市创文办赴安徽宣城、浙江湖州等地学习文明城市创建工作先进经验，并向市委提交了考察学习报告。6月，赴晋城参加省文明办召开的文明城市创建工作培训会，与省内兄弟市交流创建经验，学习新形势下的文明城市创建工作要求，修订完善了《忻州市创建全国文明城市常态长效机制的实施细则》，建立了创建全国文明城市工作“常务专班”，全力推动创文工作向纵深发展。此外，通过模拟测评、督导组检查等方式找问题、寻不足，印发督查通报17期，使各个实地创建点位特别是老旧小区、背街小巷、新时代文明实践中心（所、站）创建工作有了较大幅度提升。', '月，市创文办赴安徽宣城、浙江湖州等地学习文明城市创建工作先进经验，并向市委提交了考察学习报告。', '月，赴晋城参加省文明办召开的文明城市创建工作培训会，与省内兄弟市交流创建经验，学习新形势下的文明城市创建工作要求，修订完善了《忻州市创建全国文明城市常态长效机制的实施细则》，建立了创建全国文明城市工作“常务专班”，全力推动创文工作向纵深发展。此外，通过模拟测评、督导组检查等方式找问题、寻不足，印发督查通报', '期，使各个实地创建点位特别是老旧小区、背街小巷、新时代文明实践中心（所、站）创建工作有了较大幅度提升。']</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A5" t="n">
+        <v>22</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>忻州市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>忻州市</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>忻州市委常委会召开会议</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2022-01-17</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>http://www.sxxz.gov.cn/zwyw/xzyw/202201/t20220117_3724781.shtml</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>['日，市委常委会召开会议，传达学习贯彻习近平总书记在省部级主要领导干部学习贯彻党的十九届六中全会精神专题研讨班开班式上的重要讲话，听取全市', '年食品安全工作情况汇报，通报市党政代表团赴太原市、雄安新区对接工作情况，研究食品安全、省委巡视整改、市委常委班子党史学习教育专题民主生活会对照检查材料、太忻经济一体化发展等工作，安排部署当前工作。市委书记朱晓东主持会议。', '会议指出，习近平总书记在省部级主要领导干部学习贯彻党的十九届六中全会精神专题研讨班开班式上的重要讲话，高屋建瓴、视野宏大、内涵丰富、思想深刻，具有很强的政治性、理论性、指导性，对继续把党史总结、学习、教育、宣传引向深入，增加历史自信、增进团结统一、增强斗争精神，动员全党全国各族人民坚定信心、勇毅前行，在新时代新征程上赢得更加伟大的胜利和荣光，具有十分重要的意义。各级各部门和各级领导干部要深入学习习近平总书记重要讲话精神，深刻认识“两个确立”的决定性意义，进一步增强“四个意识”、坚定“四个自信”、做到“两个维护”，坚决把思想和行动统一到讲话精神上来，统一到党中央决策部署上来。要继续深入研读和领会党的十九届六中全会决议，更好把握和运用党百年奋斗历史经验，正确把握社会主要矛盾和中心任务、更加重视掌握战略策略问题，推动党史学习教育常态化长效化，弘扬伟大建党精神，解放思想、真抓实干，以全方位推动高质量发展的实际成效迎接党的二十大胜利召开。', '会议强调，要坚持以人民为中心的发展思想，认真学习贯彻习近平总书记关于食品安全工作的重要指示精神，认真贯彻落实党中央、国务院和省委、省政府决策部署，全面落实“四个最严”要求，建立完善“党政主抓、部门主管、企业主体”的责任体系，加大对重点环节、重点品种、重点区域专项整治，严厉打击食品安全违法犯罪行为，做实做细食品安全各项工作，不断提升食品安全治理体系和治理能力现代化水平，真正守牢食品安全底线。要在加强食品安全监管上下功夫，落实监管责任，抓在日常，抓在细处，及时发现问题解决问题整治问题，在全社会形成抓食品安全的氛围和合力。', '会议要求，要不断提高政治站位，以高度负责的政治自觉、思想自觉和行动自觉，以最坚决的态度、最有力的举措、最严格的标准，切实做好巡视整改各项工作。要对照反馈问题逐项梳理，找准问题症结，明确部门责任，进一步完善整改方案和清单，同时要抓好建章立制工作。要加强对全市整改工作的统筹协调，按照《整改工作方案》和“三清单”明确的任务要求，强化闭环管理，压实压紧责任，点对点、硬碰硬，紧盯时限、紧抓快干，对短期内能马上整改到位的，立行立改、即知即改；对需要从制度层面解决的问题，督促有关部门加强顶层设计，拿出具体方案，明确整改目标、时间和责任人，确保整改到位。', '会议指出，这次市党政代表团赴太原市、雄安新区学习考察、对接交流，让我们看到了自身差距、不足和短板，学到了先进经验，增强了紧迫感和责任感，激发了干事创业的决心和争先进位的斗志。下一步要进一步解放思想、拓展思路，深入对标找差距，对标先进找短板，聚焦靶心再发力，真正把所看到的所学到的变成推动太忻一体化经济区建设的务实举措，实实在在落实到各项具体工作中去。要在作风建设上下功夫、求突破，以良好的作风推动太忻一体化经济区建设，对接服务雄安新区。要把握机遇、乘势而上，加强与太原市、雄安新区的对接，持续推进与太原市、雄安新区合作的具体事项，推进重大合作项目落地落实，努力开创互利共赢、共同发展新局面。', '会议原则通过忻州市太忻经济一体化发展领导小组组成人员名单和《忻州市太忻经济一体化发展领导小组工作规则》《太忻经济一体化发展忻州区项目建设“冬季专项行动”实施方案》。会议指出，省第十二次党代会明确提出要重点建设太忻一体化经济区，打造山西中部城市群的“北引擎”，引领带动山西向东对接服务雄安新区、主动融入京津冀协同发展大格局。高标准、高起点推动太忻一体化经济区建设，给忻州发展带来重大战略机遇，我们要坚决扛实重大责任，健全工作机制，建立一体化发展的政策体系，做好各项前期工作，推动太忻一体化经济区建设强势起步。要抓好项目建设冬季专项行动，抓紧谋划一批储备一批重点项目、办结一批重点项目前期手续、审批一批新建重点项目、落地一批招商引资项目，明确相关部门责任，从“项目谋划”“要件办理”“集中审批”三个阶段全面发力，确保在2022年施工期到来之前，项目前期各项工作落实到位。', '会议就当前工作提出要求，要持续引深党的十九届六中全会、省委十二届二次全体会议暨省委经济工作会议、市委五届二次全会暨市委经济工作会议精神的学习宣传贯彻；要认真盘点2021年工作，科学谋划2022年工作安排，确保实现首季开门红；要坚决守住疫情防控忻州阵地，结合当前实际，制定春节期间疫情防控具体工作方案，从严从细从实落实疫情防控各项措施；要认真梳理研究数据流量谷有关具体事宜；要扎实开展火灾、燃气等领域安全隐患排查整治工作，常态化开展道路交通安全工作，引深打击私挖盗采和整治煤矿违规生产专项行动；要深入研究我市人才政策，做到系统集成管用有效；要严格落实八项规定精神，紧盯春节重要节点纠治“四风”；要兜牢民生底线，确保群众温暖过冬；要加大对拖欠农民工工资行为的治理力度，切实维护农民工合法权益；要做好省“两会”期间的应急值守工作。', '年工作安排，确保实现首季开门红；要坚决守住疫情防控忻州阵地，结合当前实际，制定春节期间疫情防控具体工作方案，从严从细从实落实疫情防控各项措施；要认真梳理研究数据流量谷有关具体事宜；要扎实开展火灾、燃气等领域安全隐患排查整治工作，常态化开展道路交通安全工作，引深打击私挖盗采和整治煤矿违规生产专项行动；要深入研究我市人才政策，做到系统集成管用有效；要严格落实八项规定精神，紧盯春节重要节点纠治“四风”；要兜牢民生底线，确保群众温暖过冬；要加大对拖欠农民工工资行为的治理力度，切实维护农民工合法权益；要做好省“两会”期间的应急值守工作。']</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A6" t="n">
+        <v>22</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>忻州市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>忻州市</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>山西盘点年人才工作十件大事</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2020-12-28</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>http://www.sxxz.gov.cn/zwyw/szfyw/202012/t20201228_3589361.shtml</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>['2020年，全省人才工作围绕落实省委“四为四高两同步”总体思路和要求，深入实施人才强省“四优工程”，引才、育才、用才的新政策、新举措不断出台，人才工作和人才队伍建设取得新进展新成效。时值岁末，我省相关部门对一年来人才工作大事进行盘点，重温那些建设人才强省、优化创新生态的精彩瞬间。', '1.召开省委人才工作领导小组（扩大）会议。5月26日，首次采取扩大会议方式召开省委人才工作领导小组会议，部署推进党管人才领导体制和工作格局不断健全。', '2.出台山西人才新政“12条”。5月，《山西省建设人才强省优化创新生态的若干举措》（即人才新政“12条”）印发，重点围绕压实党管人才政治责任、精准引育急需紧缺人才、激发企业引才育才动力、扩大事业单位用人自主权、完善人才评价激励机制、全面提升人才服务水平等方面，提出12条改革创新举措，着力破解人才工作存在的体制性、机制性、政策性、制度性问题，得到社会各界高度关注和好评。', '3.“一事一议”精准支持高层次人才。5月，《山西省“一事一议”支持人才发展实施办法》印发，明确在平台建设、经费支持、子女入学、家属就业等方面为引进和自主培养的高层次人才提供精准支持。7月，召开山西省“一事一议”支持人才发展委员会第一次会议，支持山西传媒学院引进“中国戏曲电视主持第一人”白燕升团队。', '4.高层次专业化人才引进取得新突破。引进浙江大学党委副书记郑强担任太原理工大学党委书记；引进北京大学副校长王仰麟担任山西大学党委书记；参加中央人才工作协调小组专家咨询服务活动山西行的35名院士专家受聘为“山西省人民政府特聘专家”；山西农业大学柔性聘请7位院士等高层次人才担任学术院长。', '5.首次组团赴省外高校招才引智。10月19日至20日，在省委书记楼阳生同志亲率高规格党政代表团赴北京大学、清华大学学习考察之际，山西省人才引进暨选调生政策宣介活动在两校成功举办；12月18日至19日，山西省面向长三角地区高校人才引进暨选调生政策宣介活动在上海成功举办。省委常委、组织部长曲孝丽同志出席上述活动并作主旨演讲，真诚邀约广大优秀青年学子一起逐梦新时代、共建新山西。', '6.启动“十四五”院士后备人选培养计划。11月，评审产生我省“十四五”院士后备人选13名。有关部门和用人单位将在经费保障、项目申报立项、团队支撑、平台依托、交流渠道等方面给予特殊支持。', '7.加强领导干部科研诚信建设。聚焦打造一流创新生态，11月，出台《山西省加强领导干部科研诚信建设的若干举措》，推动建立长效机制，引导广大科研工作者大力弘扬新时代科学家精神，自觉加强学风和作风建设。', '8.高质量承办全国性品牌人才活动。8月11日至13日，承办我国第一次围绕扶贫主题举办的全国性职业技能竞赛——全国扶贫职业技能大赛。11月30日至12月5日，首次承办中央人才工作协调小组专家咨询服务活动山西行，是近年来规模最大、涉及专业领域最广的一次；院士专家聚焦我省“十四五”专项规划编制、打造一流创新生态、战略性新兴产业发展等9个方面把脉问诊、建言献策、贡献智慧，取得了明显成效。', '9.人才服务水平进一步提升。全面梳理省级人才政策，建立人才政策清单和人才服务事项清单，实现省级人才政策“一单通”、“一站式”查询。省直有关部门、企事业单位、社会组织等29个单位，共同组建山西省人才服务联盟，整合提供出入境和居留、安居落户、配偶安置、子女入学、医疗健身、旅游疗养、交通出行、工商税务、法务金融等20项优惠政策和便捷服务。省级人才公寓改造项目启动，太原、长治等市新开工建设人才公寓。全省各级人才工作部门深入基层集中开展“送政策送服务助转型促发展”活动，解读人才政策，现场答疑解惑，提高了政策知晓度和政策兑现力度。', '10.首次开展全省性人才宣传服务月活动。11月4日，全省“才聚三晋，晋展其才”人才宣传服务月启动，省市县联动开展服务基层、人才引进、政策宣介、典型宣传、交流服务、研修培训等7大类105项重点活动，营造了重视人才、尊重人才、优待人才、服务人才的浓厚氛围。（陈俊琦）']</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A7" t="n">
+        <v>22</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>忻州市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>忻州市</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>朱晓东率团赴江苏上海招商考察学习</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2021-05-21</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>http://www.sxxz.gov.cn/zwyw/xzyw/202105/t20210521_3635331.shtml</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>['5月16日至18日，市长朱晓东率团赴江苏、上海考察，学习借鉴先进经验和成功做法，开展招商引资，就前期达成合作意向的项目进行深度对接，推动项目尽快落地。市领导范建民、郭宝厚一同考察。市直相关单位和忻州经济开发区负责同志参加。', '在江苏无锡，朱晓东一行考察了集萃智能集成电路设计技术研究所有限公司。该公司成立于2019年，涉及集成电路芯片及系统产品的研发、集成电路设计及相关软件的技术咨询服务、集成电路及系统的测试、芯片封装测试及生产等。朱晓东说，忻州市委市政府正致力于在城区东部打造以半导体等产业为重点的新兴产业集聚区，目前位于开发区的半导体产业园基础设施完善，中科晶电、华晶恒基、北纬38度等企业已入驻园内发展，我们将学习借鉴集萃智能的先进经验和模式，进一步提升运营和管理水平。同时希望集萃智能集成电路设计技术研究所能够对忻州当前半导体产业给予支持和指导，对未来发展走向提供咨询和评估。', '在江阴、常熟、张家港等地，考察团先后考察了天华纱业、金博得科技、金辰针纺织、众智纺织品等纱线、织造、印染、制衣企业，详细了解企业的发展历程、技术研发、生产工艺、产业前景等，就之前已达成合作意向的众智创新智能纺织产业园项目落地忻州进行深入对接。朱晓东要求我市有关部门要以企业为重，积极协调推动，部门联动协作，尽心竭力搞好服务和保障，形成常态化对接机制，合力推动项目尽快落地。特别是忻州经济开发区要着眼长远，强化要素保障，做精做细工作，及早搞好企业生产用水用电、污水处理等规划。', '上海宝藤生物医药科技股份有限公司位于上海自由贸易试验区，从事药物及医药中间体的研发，医疗器械的研发，生物医药、医疗器械专业领域内的技术开发、咨询、转让和服务等。考察团与企业高层围绕双方合作在忻州构建创新诊断公共服务平台、医药创新成果转化公共服务平台、医疗产业化公共服务平台，打造“三位一体”智能医疗创新产业生态进行了深入交流，并达成初步合作意向。', '考察中朱晓东说，忻州是山西省地域面积最大的市，是唯一横跨省域的市，全市公路、铁路、航空立体交通纵横交错，正在形成节点枢纽，发展潜力、后发优势愈来愈凸显。忻州市认真贯彻习近平总书记视察山西重要讲话重要指示，深入落实省委“四为四高两同步”总体思路和要求，坚持“产业第一、项目至上、企业为重、服务为本”理念，紧紧围绕“336”战略布局，聚焦“六新”产业、打造“8+6”产业集群，目前半导体产业园、新松机器人智能装备产业园等重大项目正在忻州加快建设。朱晓东诚挚邀请企业家们多关注忻州、支持忻州，多来忻州参观考察、洽谈合作、共谋发展，忻州各级将千方百计创造条件，在政策、资金、人才、环境等方面提供全方位的优质服务和保障，为企业家打造优良营商环境。']</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A8" t="n">
+        <v>22</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>忻州市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>忻州市</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>我市党政代表团到雄安新区学习考察张国华主持座谈会并讲话朱晓东讲话李建国田金昌介绍情况</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2022-01-16</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>http://www.0350tv.cn/demand/2022-01/16/cms95419article.shtml</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>['2022年01月15日忻州新闻——我市党政代表团到雄安新区学习考察 张国华主持座谈会并讲话 朱晓东讲话 李建国 田金昌介绍情况']</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A9" t="n">
+        <v>22</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>忻州市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>忻州市</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>金湘军率团在湖南学习考察</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2024-06-04</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>http://www.sxxz.gov.cn/zwyw/szfyw/202406/t20240611_3985769.shtml</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>['5月31日至6月2日，省委副书记、省长金湘军率我省代表团参加第十三届中部博览会，并在湖南学习考察，进一步深化晋湘两省交流合作。其间，省政府与中南大学签约战略合作协议。湖南省委常委、长沙市委书记吴桂英，中南大学校长、中国工程院院士李建成，中国工程院院士田红旗，副省长汤志平参加有关活动。', '在湘期间，金湘军一行考察了三一集团有限公司、中联智慧产业城、国家网络安全产业园区、马栏山视频文创园、中南大学铁道校区，了解制造业智能化数字化绿色化发展、国家新一代自主安全计算系统产业集群建设、数字视频产业链基地建设、轨道交通安全国家重点实验室自主创新等情况，实地察看湖南省以科技创新引领产业创新的成果展示，与企业家、科技工作者深入交流。他说，近年来，湖南深入贯彻习近平总书记考察湖南重要讲话和指示精神，锚定“三高四新”美好蓝图，推动经济社会高质量发展取得新突破，成绩令人振奋。当前，山西全省上下正在深入学习贯彻习近平总书记在新时代推动中部地区崛起座谈会上的重要讲话精神和对山西工作的重要讲话重要指示精神，牢牢把握在国家构建新发展格局中的战略定位，因地制宜培育发展新质生产力，以先进制造业为主攻方向，着力打造高端装备制造等省级重点产业链，建设中部地区先进制造业基地，构建体现山西特色优势的现代化产业体系，加快推动高质量发展、深化全方位转型。希望晋湘两地企业、高校及科研院所围绕项目投资、产业协作、科技创新、文化新业态发展等方面深化交流合作，实现共赢发展。', '6月2日，省政府与中南大学在长沙签约战略合作协议。根据协议，省校双方将在决策咨询、科技创新与成果转化、人才交流培养、高水平大学建设等领域开展全方位合作。', '考察中，金湘军强调，推动中部地区崛起是以习近平同志为核心的党中央作出的重大战略决策。全省各级各部门要深刻领会党中央战略意图，切实紧抓重大机遇，始终紧扣发展定位，扛牢主体责任，主动对接其他区域发展战略，加强区域内省际合作，着力推进各项重点工作任务落地落实，在合力推动中国式现代化建设、谱写中部地区崛起新篇章中彰显山西作为。（张巨峰）']</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A10" t="n">
+        <v>22</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>忻州市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>忻州市</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>以更加开放姿态拥抱粤港澳大湾区携手谱写晋粤全面战略合作新篇章</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2024-04-16</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>http://www.sxxz.gov.cn/zwyw/szfyw/202404/t20240416_3968580.shtml</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>['4月15日晚间，广东省委副书记、省长王伟中，省委副书记、省长金湘军察看“山西之夜”特色产品展区。（阮洋摄）', '4月13日至16日，在第135届中国进出口商品交易会（以下简称“广交会”）开幕之际，省政府代表团在广东学习考察并举办以“相‘粤’珠江，共‘晋’未来”为主题的“山西之夜”，深入贯彻习近平总书记对山西工作的重要讲话重要指示精神，主动对接建设粤港澳大湾区重大国家战略，学习借鉴广东先进经验，加快打造内陆地区对外开放新高地，携手谱写晋粤全面战略合作新篇章。广东省委副书记、省长王伟中，省委副书记、省长金湘军参加活动，并签署全面战略合作框架协议。广东省委副书记、深圳市委书记孟凡利参加有关活动。', '受省委书记黄坤明委托，王伟中代表广东省委、省政府，对山西省代表团来粤考察表示欢迎，对山西长期以来给予广东的大力支持表示感谢。他说，当前，广东正全面贯彻党的二十大精神和习近平总书记视察广东重要讲话、重要指示精神，认真落实省委“1310”具体部署，把坚持高质量发展作为新时代的硬道理，加快产业科技互促双强、培育发展新质生产力，奋力在推进中国式现代化建设中走在前列。广东与山西合作基础扎实、空间广阔、未来可期。希望进一步加强粤港澳大湾区建设与中部地区崛起等重大战略对接，加强产业创新协作和能源、文旅、康养、就业等领域交流合作，加强合作机制建设，拓展协同发展新空间，共同为强国建设、民族复兴伟业作出更大贡献。', '受省委书记唐登杰委托，金湘军代表省委、省政府向广东长期以来给予山西的大力支持表示感谢，对广东推动高质量发展和现代化建设取得的重大成就表示祝贺。他说，当前，全省上下深入贯彻习近平总书记在新时代推动中部地区崛起座谈会上的重要讲话精神，积极培育和发展新质生产力，加快建设“三区三地”，努力在新时代推动中部地区崛起中奋勇争先。晋粤两省人缘相亲、商缘相连，希望双方在打造开放平台、培育发展新质生产力等多方面加强交流合作，取得更多丰硕成果。我们要认真学习借鉴广东先进经验，深度对接粤港澳大湾区，推动晋粤全面战略合作行稳致远，更好谱写中国式现代化山西篇章。', '15日晚间，夜幕下的珠江畔，地标建筑广州塔灯光璀璨、流光溢彩，“山西之夜”在此精彩举办。金湘军、王伟中分别致辞，部分外国驻华使节，粤港澳大湾区及珠三角地区重点企业、商协会、国际组织代表等300余名海内外嘉宾济济一堂，在充满晋风晋韵的活动中感受山西悠久历史、灿烂文化和发展成果，共同度过难忘时光。作为我省塑造对外开放形象的新名片，本次“山西之夜”设重点产业链、特色专业镇、中华老字号、名优特产品、非遗及山西精品等展区，全省42家企业230余种产品参展，通过嘉宾致辞、晋粤故事汇、宣传推介、特色美食展示、文艺展演等形式，全方位多角度展示新时代表里山河的魅力风采。现场，山西籍歌唱家阎维文讲述“晋粤故事”并演唱《人说山西好风光》。高福、王淏、李文静分别代表家乡朔州、太原、大同作宣传推介。', '在粤期间，省政府代表团在深圳、广州等地考察学习，实地感受习近平新时代中国特色社会主义思想在南粤大地的火热实践，先后来到腾讯计算机系统有限公司、前海深港现代服务业合作区、中国科学院深圳先进技术研究院、广汽埃安新能源汽车股份有限公司和广汽研究院、亿航智能设备（广州）有限公司，了解数字经济发展、制度创新和现代服务业集聚发展、科创平台建设、制造业高端化智能化绿色化、低空经济发展等情况，并实地参观了广交会展馆，察看能源装备参展企业、跨境电商山西展厅，推介投资机遇，促进务实合作，更好推动对外开放和新质生产力发展。', '广东省领导陈建文、张虎，广州市市长孙志洋、深圳市市长覃伟中，副省长汤志平参加有关活动。（张巨峰）']</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A11" t="n">
+        <v>22</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>忻州市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>忻州市</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>朱晓东带队赴北京广州拜访沟通学习考察对接项目</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>http://www.sxxz.gov.cn/zwyw/xzyw/202308/t20230829_3901823.shtml</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>['8月24日至27日，市委书记朱晓东带队赴北京广州，拜访沟通学习，考察对接项目。市委副书记、五台山风景名胜区党工委书记、管委会主任刘卓良，市委常委、组织部部长张敏，副市长、太忻经济一体化发展忻州区运营中心党委书记、主任王建峰，市委宣传部和市卫健、商务、工信、住建部门负责同志，五寨县和宁武县负责同志等参加相关活动。', '期间，朱晓东带队拜访国家中医药管理局，与国家卫生健康委党组成员、国家中医药管理局党组书记、局长余艳红等就推动医养结合需要进一步支持事项进行沟通交流，积极争取支持；走进中央主流媒体重点新闻网站新华网超级编辑部考察学习，了解思客、睿思、元宇宙、数字人、溯源中国、创意工场等新华网融媒科创产品，与新华网党委书记、董事长储学军，新华网总裁申江婴等深入交流对接；赴侨鑫集团考察从都国际庄园、汇景新城、汇悦台等温泉康养基地和高品质社区项目，与侨鑫集团董事长周泽荣、从都国际庄园总裁翟俊根等会谈交流；赴百度网络公司考察体验无人化测试中的自动驾驶车，参观全息数字人、文心大模型等智能应用场景，与百度网络总编辑李小鸣等畅谈智能场景落地结合点；赴泛华控股集团总部，与董事长杨天举等交流数实融合做大小杂粮产业、助力实现乡村振兴的工程化项目化思路举措。', '座谈交流中，朱晓东衷心感谢国家中医药管理局近三十载矢志不渝帮扶五寨，感谢新华网等主流媒体对忻州的关心支持，感谢企业家们对忻州的持续关注，并介绍了忻州当前的发展机遇、发展态势及发展蓝图。朱晓东说，忻州是山西省地域面积最大的市，是唯一横跨省域东西的市，是唯一同时拥有黄河、长城、太行三大板块旅游资源的市，内外长城在忻州交汇，黄河与长城在忻州握手。忻州山水相融、资源富集、生态优良，忻州遍地是宝、处处是景。忻州坚持生产、生活、生态融合发展，聚焦黄河流域生态保护和高质量发展、京津冀协同发展、雄安新区建设、山西中部城市群高质量发展等重大战略部署，大力推进“南融、东进、西引、北联”，着力打造优势互补、协同开放的发展高地。正在稳步推进中的雄忻、集大原高铁开通后，忻州更将成为区域发展节点枢纽，区位优势、交通优势、后发优势愈来愈凸显。', '朱晓东说，推动文旅康养产业融合发展、农业“特”“优”发展，忻州有得天独厚的条件。忻州的黄金纬度、适宜温度、独特温泉、有机旱作小杂粮、五台山芦芽山老牛湾雁门关等资源，为打造有特色、有魅力、有品质，生产生活性价比最优的精品城市奠定了基础，为养身、养心、养性、养老等全方位康养创造了条件，为集聚更多高品质多业态产业提供了支撑。忻州各级干部按照省委“66831”工作体系要求，始终坚持“负责任、动脑筋、讲良心”的工作要求，全力在“产业、开放、创新、城市、改革、市场、安全”七大能级跃升上下功夫求实效，久久为功打造有力度有温度的法治化营商环境，为专业的人做专业的事全力做好服务保障工作。针对各沟通对接内容，朱晓东要求忻州各级各有关部门要专班对接，全力加快忻州中医药事业产业发展相关规划编制和中医助力康养产业发展事项落地落实。要学习借鉴成熟模式，用最新的传播技术和最好平台，更好展示忻州康养资源，更好讲述忻州发展故事，让传播忻州的内容更广泛更生动，不断提高忻州对外推介的公信力、引导力、影响力和传播力。要围绕文旅康养产业发展、特色专业镇公共服务平台建设、重点产业链打造、工业互联网建设、智慧城市建设、乡村振兴战略实施等，切实找准数字经济、数字产业与忻州市情实际的契合点、切入点、突破点，真正做到吃进数据、产出信息，以精准数据分析支撑建立数字经济高质量发展新模式。忻州发展需要人才的支撑，需要务实企业的助力，要将上级相关部门、大企业大集团的专业人才资源优势和忻州生产生活性价比优势有机结合，在共同打造领域广泛、功能丰富的“小基地”上创新突破，让更多的部门机构企业发现忻州、了解忻州、带动忻州，实现共赢发展。', '参与沟通对接的部门机构企业负责人对忻州推进高质量发展工作给予充分肯定，对忻州需要高位推动支持的事项作出积极回应，对参与忻州未来发展更有信心。他们希望以中医药事业和产业的高质量发展，为高品质文旅康养产业融合发展提供支撑，实现忻州康养业态和品质的不断升华；希望将合作事项落实在具体点位上，不断增强数据应用的深度和广度，持续拓展产业链要素范围，助力转型升级，助力加快打造国际知名文化旅游康养目的地，共同将忻州的资源禀赋优势转化为产业发展胜势。']</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A12" t="n">
+        <v>22</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>忻州市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>忻州市</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>忻州市财政局坚持源头管控办好民生实事</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2024-04-11</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>http://www.sxxz.gov.cn/zwyw/bmdt/202404/t20240411_3967626.shtml</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>['忻州市财政局始终树牢过紧日子思想，认真落实“大钱大方 小钱小气”理财理念，把勤俭办事作为长期坚持方针，切实贯彻到预算安排、内部管理、队伍建设等各项工作的全过程，锚定改革发展大事要事和利民惠民实事好事，坚持源头管控、严格预算执行、强化财政统筹、硬化纪律约束，多措并举、组合出击，最大限度节约财政资金，集中财力保重点、惠民生、促发展，以党政机关的紧日子保障广大群众过上好日子。', '市财政局始终树牢过紧日子思想，认真落实“大钱大方 小钱小气”理财理念，把勤俭办事作为长期坚持方针，切实贯彻到预算安排、内部管理、队伍建设等各项工作的全过程，锚定改革发展大事要事和利民惠民实事好事，坚持源头管控、严格预算执行、强化财政统筹、硬化纪律约束，多措并举、组合出击，最大限度节约财政资金，集中财力保重点、惠民生、促发展，以党政机关的紧日子保障广大群众过上好日子。', '坚持源头管控，树牢过紧日子思想。深入贯彻落实全国、全省财政工作会议精神，严格落实市委市政府有关要求，坚持勤俭节约、精打细算，从严从紧编制部门预算，严控预算追加。强化“三公”经费“双控”管理，严格“三公”经费执行，确保“三公”经费支出范围、标准及审批程序规范，支付方式符合财政资金管理要求。2023年初，全市“三公”经费预算1.37亿元，比上年减少213万元，全年实际支出1.17亿元，实现了预算安排不超上年预算、年度预算执行不超当年预算的任务目标。大力压减一般性支出，2023年全年各级财政共计压减一般性支出9911万元，节约下来的资金全部用于重点领域、民生支出需求。', '强化财政统筹，提升过紧日子质效。面对财政收支紧平衡压力，全面提升财政资源、资金、资产统筹能力，深入实施“资产盘活年 绩效提升年”专项行动。“资产盘活年”专项行动在摸清市本级国有资产底数的基础上，稳步、有序、有效盘活行政事业单位及国有企业低效无效资产，提高国有资产使用效益。“绩效提升年”专项行动对预算绩效管理重点领域、重点环节、重点方式作出新的安排，明确了3方面10项具体任务，选择五台山机场补贴、行政办公区物业服务费、城市道路绿化养护为试点，探索制定成本定额标准和财政支出标准；选择城市管理、住建、交通3个领域推进分行业分领域指标体系和标准体系建设；对低于序时进度20个百分点、资金额度大于1000万元的项目实施财政重点跟踪监控；对财政重点绩效评价和部门绩效自评为“中”“差”的政策和项目，压减10%或取消下一年度预算安排等，切实推动预算绩效管理提质增效。同时，深入推动预算评审管理，深入先进地市考察学习交流，制定出台了《忻州市预算评审管理实施暂行办法》，持续优化评审方式，提升评审工作能力，2023年全年共实施评审项目243项，评审工程总造价34.55亿元，审定30.29亿元，审减4.26亿元，审减率12.34%，着力提升财政资金使用效益，三管齐下护航政府投资效益。', '严肃财经纪律，强化过紧日子约束。严肃机关内部支出管理，认真落实“三重一大”集体决策制度，严格重大资金支出管理。同时，持续保持财会监督高压态势，研究制定《关于进一步加强财会监督的工作方案》，明确2024年度财会监督工作计划与工作机制，聚焦抓实收入做大财力基础，稳经济落实减税降费及惠农惠民“一卡通”各类补助资金，党政机关过紧日子，加强基层“三保”，防范化解金融债务风险等重点工作，有序组织开展各项监督检查，深入开展“严肃财经纪律 提升财政管理效能”专项行动，严肃查处违反财经纪律行为，持续加大监督检查督导力度，充分发挥震慑作用。']</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A13" t="n">
+        <v>22</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>忻州市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>忻州市</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>服务重大国家战略携手共赢美好未来高站位宽视野实举措深度融入京津冀</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2024-02-28</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>http://www.sxxz.gov.cn/zwyw/szfyw/202402/t20240228_3954715.shtml</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>['在京津冀协同发展重大国家战略实施10周年的重要时刻，2月26日至27日，山西省赴京津冀学习考察团先后在北京、天津、河北学习考察，并分别召开工作座谈会，深入贯彻习近平总书记关于京津冀协同发展的重要论述精神，把握国家支持山西省与京津冀地区加强协作实现联动发展重大机遇，学习借鉴三省市推动高质量发展和现代化建设的好经验好做法，以更加积极主动的姿态加快融入京津冀协同发展，共同谱写合作交流新篇章。天津市委书记陈敏尔，市委副书记、市长张工，北京市委副书记、市长殷勇，河北省委副书记、省长王正谱，山西省委副书记、省长金湘军分别参加有关活动及座谈交流。', '工作座谈会上，北京、天津、河北三省市负责同志充分肯定山西各方面工作。指出，三晋大地是华夏文明发祥地之一。近年来，山西省坚决落实习近平总书记对山西工作的重要讲话重要指示精神，聚焦“三区三地”建设，推动能源革命、产业升级、民生保障、生态环保等各项事业取得新成就。京津冀协同发展是习近平总书记亲自谋划、亲自部署、亲自推动的重大国家战略，也为进一步深化京津冀与山西合作带来了机遇、指明了方向。京津冀与山西地缘相近、人缘相亲、渊源深厚，合作基础扎实、前景广阔。要进一步发挥各自优势，密切交流交往，加强互学互鉴，深化各领域务实合作，更好探索发展新质生产力的新路径，共同为推进中国式现代化贡献力量。', '受省委书记唐登杰委托，金湘军代表省委、省政府对京津冀三地经济社会发展取得的重大成就表示祝贺，对长期以来给予山西发展的大力支持表示感谢。他说，近年来，北京、天津、河北在以习近平同志为核心的党中央坚强领导下，高质量发展成果丰硕，创造的好经验好做法值得我们学习借鉴。山西毗邻京津冀，加强协作实现联动发展，是服务重大国家战略、加快转型发展的题中之义。当前，全省上下正深入贯彻习近平总书记对山西工作的重要讲话重要指示精神，久久为功推动高质量发展，深化全方位转型。山西与京津冀合作基础坚实、潜力巨大、前景广阔。希望在能源绿色发展、产业升级、生态环保、教育科技人才、交通基础设施、文旅康养、对外开放等领域加强高水平务实合作，以协同联动发展新成效为全国发展大局作出更大贡献。', '在北京期间，学习考察团参观了中关村国家自主创新示范区展示中心，实地察看区块链、人工智能、智能制造、氢能储能等前沿科技成果，了解京晋科技合作情况。在天津期间，学习考察团参观了国家会展中心（天津）、天津软件园河西园、哈电国际工程（天津）有限责任公司。其间，省政府与天津市政府签署了战略合作框架协议。在河北期间，学习考察团走进雄安规划展示中心、容东片区城市建设现场、雄安科创中心、东西轴线调度中心，了解雄安新区规划建设、科技创新等情况，零距离感受雄安新区“千年大计、国家大事”由宏伟蓝图变美好现实的生动实践。', '北京市领导夏林茂、于英杰，天津市领导刘桂平、王力军、朱鹏，河北省领导赵大春，省领导吴伟、卢东亮，京津冀及我省相关部门单位负责同志参加有关活动。（张巨峰）']</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A14" t="n">
+        <v>22</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>忻州市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>忻州市</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>山西党政代表团召开赴安徽陕西学习考察小结会</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>2023-07-24</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>http://www.sxxz.gov.cn/zwyw/szfyw/202307/t20230724_3891171.shtml</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>['7月21日下午，在圆满结束赴安徽、陕西的学习考察后，山西党政代表团在西安召开小结会。省委书记蓝佛安主持会议并讲话。他强调，要深入贯彻习近平总书记关于“三新一高”的重要论述精神，全面落实习近平总书记考察调研山西重要讲话重要指示精神，认真学习皖陕两省宝贵经验，进一步解放思想、锐意创新，深化改革、扩大开放，狠抓各项工作落实，加快推动高质量发展和现代化建设，朝着“两个基本实现”目标奋勇前进。省委副书记、省长金湘军讲话，省领导李凤岐、卢东亮、韦韬、汤志平、赵红严、杨勤荣、熊继军出席会议。', '蓝佛安指出，组织山西党政代表团赴安徽、陕西学习考察，是深入贯彻习近平总书记关于“三新一高”的重要论述精神的重要安排，是学习借鉴兄弟省份先进经验的具体行动，是新时代新征程上推动山西高质量发展和现代化建设的务实举措。四天时间里，我们先后踏上八皖之乡和三秦大地，考察了近20家知名企业、创新基地、科研院所、示范园区等，切身体会到两省“干部敢为、地方敢闯、企业敢干、群众敢首创”的浓厚氛围，学习到两省矢志推动科技创新的前瞻布局、持续加快产业转型的坚定决心、做大做强开放平台的宏阔手笔、始终坚持生态优先的战略定力，进一步深化了我省与皖陕两省的全方位交流合作，可以说是一次解放思想之旅、学习取经之旅、交流合作之旅、共谋发展之旅。', '蓝佛安强调，这次学习考察，大家一路走、一路学、一路交流，进一步开阔了视野、看到了差距、取到了真经、强化了合作，实现了预期目的。我们既要坚定发展信心、笃定转型定力，进一步提升山西在新发展格局中的地位和作用，更要虚怀若谷学习借鉴他山之石，取人之长、补己之短，不断提升推动高质量发展的能力和水平。下一步，要切实做好成果转化运用的“后半篇文章”，奋力开创全省各项事业发展新局面。一是心动更需要行动，切实把解放思想落实到转型发展的生动实践上。坚决扛牢高质量发展首要任务和转型发展重大使命，学习皖陕两省登高望远的战略眼光、敢为人先的创新意识、勇攀高峰的进取精神，勇于解放思想，打开发展视野，激活改革意识、创新精神、开放思维、市场理念，大胆试、放手干，努力创造更多走在前列的“山西经验”“山西模式”，在服从服务国家大局中实现自身高质量发展。二是真经要变成真招，切实把学习借鉴的好经验好做法运用好。以虚怀若谷的态度用好“他山之石”，学习借鉴皖陕两省在扩大开放、招商引资、营商环境优化、科技成果转化、先进制造业发展、文旅融合发展、城市夜经济、高效智慧农业、生态环境治理等方面的创新实践和有益探索，推动各项工作开创新局面、见到新气象。三是合意要变成合作，切实把会谈交流的成果转化为实实在在的项目。深入研究对接皖陕两省战略需求，聚焦制造业产业转移、科技成果转化利用等方向，更加深入地参与区域省际协作，实现优势互补、合作共赢。用足用好我省区位、能源、资源、算力、要素成本、基础产业配套等比较优势，最大限度吸引东部地区和皖陕两省先进要素、创新资源和新兴产业落户山西。跟进落实我省与陕西省战略合作框架协议，共同推进黄河流域生态保护和高质量发展重要实验区、黄河文化保护传承弘扬核心区建设，确保相关合作事项全部落地。四是朋友要越走越近，切实把各领域各层级交流合作常态化机制化。加强与皖陕两省党政领导干部的交流互访、密切互动，建立健全省际间会商协商对接、部门衔接落实等常态化工作推进机制，共同研究推动重大合作事项和项目。推动我省与皖陕两省企业、商会及社会各界人士常来常往，更好发挥桥梁纽带作用，构建全方位多渠道交流合作格局，形成全社会参与、共同促进区域合作的浓厚氛围。蓝佛安重点围绕融入京津冀协同发展、交通大通道建设、加强科技创新、制造业振兴升级、文旅康养深度融合、环境保护和生态治理、通航产业发展、地热资源开发利用、现代高效农业、充分发挥比较优势等方面，要求加强谋划、深入研究，充分借鉴他山之石，尽快形成可操作、可落实的行动方案和具体举措。要求全省党员干部进一步提振精神状态，提升能力素质，强化担当作为，推动高质量发展不断取得新突破。', '金湘军指出，通过这次考察，我们学到了皖陕两省在科技创新、产业升级、开放发展和亲商爱商等方面的先进理念及做法，进一步找准拓展了合作共赢空间，要充分借鉴经验，立足山西禀赋优势，只争朝夕、久久为功推动党中央及省委决策部署落地见效。要突出科技创新核心位置，深入实施高等教育百亿工程，培育开放创新生态，主动融入京津冀协同发展，打造内陆地区对外开放新高地。要突出先进制造业主攻方向，抓好“三个要件一个重点”，用足链长制、专业镇、开发区等平台，构建现代化产业体系。要突出能源安全保障责任，坚持清洁高效低碳绿色方向，加快能源领域“五大基地”建设和“五个一体化”融合发展，纵深推进能源革命。要突出文化资源丰厚优势，做足做好文旅康养深度融合这篇大文章，打造国际知名文化旅游目的地。要突出“三农”重中之重地位，落实最严格耕地保护制度，坚定实施“特优”战略，学习借鉴“千万工程”经验，全面推动乡村振兴。', '会上，太原市、长治市、省发改委、省工信厅、省文旅厅主要负责同志分别作了交流发言。大家结合学习考察和工作实际，找差距、谈认识、谋举措、话未来，进一步坚定了加快推动高质量发展和现代化建设的信心和决心。大家一致表示，这次学习考察主题鲜明、内容丰富、安排紧凑，人人带着问题来、带着收获走，真正是不虚此行。要紧密结合本地区本部门工作实际，对标找差补短板、争先进位创一流，切实把学习考察成果转化为推动事业发展的实际行动和具体成效。（杨文俊）']</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A15" t="n">
+        <v>22</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>忻州市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>忻州市</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>市委常委会扩大会议召开传达省党政代表团皖陕学习考察精神安排部署全市贯彻落实工作</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>2023-07-26</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>http://www.0350tv.cn/demand/2023-07/26/cms117265article.shtml</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>['市委常委会(扩大)会议召开 传达省党政代表团皖陕学习考察精神安排部署全市贯彻落实工作', '2023年07月25日忻州新闻——市委常委会(扩大)会议召开 传达省党政代表团皖陕学习考察精神安排部署全市贯彻落实工作 朱晓东主持并讲话 李建国 刘卓良出席']</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A16" t="n">
+        <v>22</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>忻州市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>忻州市</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>金湘军主持召开省政府党组扩大会议暨主题教育领导小组会议</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>2023-07-27</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>http://www.sxxz.gov.cn/zwyw/szfyw/202307/t20230727_3892270.shtml</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>['7月25日，省长、省政府党组主题教育领导小组组长金湘军主持召开省政府党组扩大会议暨主题教育领导小组会议，深入学习贯彻习近平总书记关于党的建设的重要思想和近期重要讲话精神，学习研究“浦江经验”内容，落实省委要求，切实把主题教育激发出的热情干劲转化为推动高质量发展的实际成效。省政府党组班子成员结合思想和工作实际作交流研讨。', '会议指出，要把学习贯彻习近平总书记关于党的建设的重要思想作为主题教育重要内容，坚持不懈强化理论武装，进一步完善理论学习长效机制，引导全省政府系统党员干部掌握好马克思主义看家本领和履职必备专业能力。要在人才引育上下功夫，创新人才政策体系，营造良好人才环境，发挥科创平台引才聚才作用，吸引聚集更多国内外各类人才来晋创新创业。要加强政府自身建设，发挥“头雁效应”，严格执行民主集中制，在守纪律讲规矩、履行管党治党政治责任等方面立标杆、作表率。', '会议强调，要坚持把发展经济的着力点放在实体经济上，统筹推进传统产业改造升级和新兴产业培育壮大，用好产业链“链长制”、特色专业镇、开发区等抓手平台，加快构建现代化产业体系。要进一步发挥科技创新关键作用，深入实施科教兴省、人才强省、创新驱动发展战略，扎实推进高等教育高质量发展“百亿工程”，积极承接京津冀等重点区域科技成果转移转化，促进创新链、产业链、资金链、人才链深度融合。要坚持以学促干，从党的创新理论中汲取奋进之力、激发奋斗之志，切实推动经济稳中向好、完成既定目标，切实推动民生持续改善、社会大局稳定。', '会议指出，要进一步增强做好新时代信访工作的责任感使命感，自觉学习践行“浦江经验”，深入推进领导带头下访，及时解决包案信访事项，提高源头治理信访问题的能力水平，完善矛盾纠纷排查化解机制，实心实意办事，化解信访难题。', '会议强调，主题教育开展以来，省政府党组班子高度重视整改整治工作，严格对标对表、推进重点举措，总体上进展顺利、氛围浓厚，整改整治工作取得阶段性成效。下一步，要进一步把握工作要求、提升工作质量，以更高的政治站位、更实的工作作风、更强的推动措施，高标准高质量抓好整改整治工作。', '会议通报了省党政代表团赴安徽、陕西学习考察情况，对融入京津冀协同发展、交通大通道建设、加强科技创新、制造业振兴升级、文旅康养深度融合、环境保护和生态治理、通航产业发展、地热资源开发利用、现代高效农业、充分发挥比较优势等相关事宜进行了安排部署，进一步找准差距、明确方向、细化举措，切实做好成果转化运用的“后半篇文章”，奋力推动高质量发展不断取得新突破。']</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A17" t="n">
+        <v>22</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>忻州市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>忻州市</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>锚定目标不动摇振奋精神抓落实推动经济实现质的有效提升和量的合理增长</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>2023-07-25</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>http://www.sxxz.gov.cn/zwyw/szfyw/202307/t20230725_3891697.shtml</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>['7月24日，省长金湘军主持召开市长例会暨上半年全省经济运行分析会议，深入分析研判当前经济运行情况，安排部署下半年重点工作。省委常委、常务副省长吴伟，副省长汤志平、赵红严、杨勤荣、熊继军就分管领域工作进行具体部署。', '会议听取了省政府经济运行分析联席会议领导组办公室关于上半年全省经济运行情况的汇报。省有关部门、11市和转型综改示范区汇报了各自经济运行情况。', '金湘军指出，今年以来，在省委坚强领导下，全省上下深入学习贯彻习近平新时代中国特色社会主义思想和党的二十大精神，认真贯彻习近平总书记考察调研山西重要讲话重要指示精神，全面落实党中央、国务院决策部署，坚持稳中求进工作总基调，突出抓好稳增长、稳就业、稳物价工作，全省经济保持持续恢复向好态势。做好下半年经济工作，要深入贯彻中央政治局会议精神，完整、准确、全面贯彻新发展理念，全面辩证长远分析把握形势，坚定信心决心，锚定目标不动摇，振奋精神抓落实，推动经济实现质的有效提升和量的合理增长。', '金湘军要求，一要在推动工业经济平稳健康发展上加力加效。加快传统产业改造升级，加大消费品工业发展支持力度，用好产业链链长制和专业镇“两大抓手”，促进企业技术创新，推动数字经济与先进制造业、现代服务业深度融合，着力建设现代化产业体系。二要在扩大有效投资上加力加效。更好发挥政府投资带动作用，加快专项债券发行和使用，强化资金、用地等要素保障，抓好重大项目建设。延续、优化、完善并落实好减税降费政策，大力支持实体经济和中小微企业发展。切实优化民营企业发展环境，建立健全与企业的常态化沟通交流机制，进一步放宽市场准入，激发民间投资活力。三要在抓好消费和进出口上加力加效。提振汽车、电子产品、家居等大宗消费，推动体育休闲、文化旅游等服务消费，打造“旅游满意在山西”品牌。支持重点企业拓展海外市场，积极培育外贸经营主体。四要在深化能源革命上加力加效。科学均衡组织生产，加快释放煤炭先进产能，坚决完成能源保供任务，保障迎峰度夏能源电力供应，全面抓好能源革命试点任务落实，推进抽水蓄能等项目建设，全力办好太原能源低碳发展论坛。五要在推动农业增产增收上加力加效。加强耕地保护和质量提升，狠抓秋粮田间管理，确保全年粮食丰收，打造农产品精深加工产业集群，加快乡村e镇建设，促进农业特优发展，坚决抓好国考、省考问题整改，巩固拓展脱贫攻坚成果，全面推进乡村振兴。六要在推进生态环保治理上加力加效。大力推进“一泓清水入黄河”工程，打好蓝天、碧水、净土保卫战，开展重点城市治理攻坚行动，保持打击生态环境违法行为高压态势。七要在保障和改善民生上加力加效。把稳就业提高到战略高度通盘考虑，兜牢兜实基层“三保”底线，扩大中等收入群体，推进民生实事、民生政策落实，做好安全生产、防汛抗旱等工作，切实防范化解重点领域风险，维护社会大局稳定。', '金湘军强调，各级各部门各单位要结合开展主题教育，扎实做好山西党政代表团赴安徽、陕西学习考察成果转化运用的“后半篇文章”，树立有解优解思维，健全联动互动机制，强化对表对标意识，在以学促干中形成狠抓落实的工作局面，以新气象新作为推动高质量发展取得新成效，为扎实推进中国式现代化山西实践作出新的更大贡献。（张巨峰）']</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A18" t="n">
+        <v>22</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>忻州市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>忻州市</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>山西党政代表团赴陕西学习考察签订两省推动黄河流域生态保护和高质量发展战略合作框架协议</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>2023-07-24</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>http://www.sxxz.gov.cn/zwyw/szfyw/202307/t20230724_3891168.shtml</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>['山西党政代表团赴陕西学习考察 签订两省推动黄河流域生态保护和高质量发展战略合作框架协议-山西忻州', '山西党政代表团赴陕西学习考察 签订两省推动黄河流域生态保护和高质量发展战略合作框架协议', '7月20日，山西党政代表团在中国西部科技创新港考察汇聚创新资源、培育创新生态情况。山西日报记者史晓波摄', '7月21日，山西省·陕西省工作交流座谈会在西安市举行，签订两省推动黄河流域生态保护和高质量发展战略合作框架协议。山西日报记者史晓波摄', '为深入贯彻习近平总书记关于“三新一高”的重要论述精神，深入落实黄河流域生态保护和高质量发展重大国家战略，进一步做好新时代晋陕合作“大文章”，7月20日至21日，山西党政代表团赴陕西学习考察，并召开山西省·陕西省工作交流座谈会，签订两省推动黄河流域生态保护和高质量发展战略合作框架协议。山西省委书记、省人大常委会主任蓝佛安，陕西省委书记、省人大常委会主任赵一德，山西省委副书记、省长金湘军，陕西省委副书记、省长赵刚出席座谈会并参加考察。', '黄河流域生态保护和高质量发展，是习近平总书记亲自谋划、亲自部署、亲自推动的重大国家战略。晋陕两省同处黄河中游，黄河干流在两省间奔流七百余公里，共同抓好大保护、协同推进大治理是双方共同的政治责任和历史使命。此次山西党政代表团赴陕，一方面是学习考察陕西在科技创新、产业转型、现代农业、文旅融合等方面的先进经验，另一方面是加强与陕西省的工作联动，共同推动黄河流域生态保护和高质量发展走深走实。在陕期间，山西党政代表团先后来到西安市和西咸新区、杨凌农业高新技术产业示范区等地，深入秦创原综合服务中心、商汤智能科技公司、西部科技创新港、隆基乐叶光伏科技公司，学习借鉴陕西打造创新平台、深化科技管理体制改革、推动科技成果转化等方面的亮点做法；走进沣西新城总部经济园综合能源供应站、陕西煤业化工技术研究院，深入了解能源综合利用和现代煤化工产业发展情况；来到中欧班列（西安）集结中心，学习考察打造现代综合交通运输体系、推进自贸区建设、助推高水平对外开放的经验做法；考察文旅业态创新和城市夜经济发展情况；深入杨凌渭河生态公园、先正达集团技术中心试验基地、杨凌智慧农业示范园、杨凌耕地保护与质量提升创新中心，实地感受和学习陕西治渭兴水、保护生态、加强农业科技创新的经验做法。', '21日下午，山西省·陕西省工作交流座谈会在西安市举行。赵一德代表陕西省委、省政府对山西党政代表团的到来表示欢迎，向山西长期以来对陕西的大力支持表示感谢。他说，党的十八大以来，习近平总书记高度重视陕西和山西两省工作，在主持中国—中亚峰会前夕，专门听取陕西省委和省政府工作汇报，前往陕西途中专门到山西考察，为两省推动高质量发展、推进现代化建设进一步指明了前进方向。近年来，山西深入学习贯彻习近平总书记考察调研山西重要讲话重要指示精神，坚决扛起能源革命、黄河保护、文化传承等重大使命，蹚出了资源型地区经济转型综改、产业多元支撑的新路子，成就令人钦佩，经验值得学习。当前，陕西正深入学习贯彻习近平总书记历次来陕重要讲话重要指示精神，努力在西部地区发挥示范作用，奋力谱写中国式现代化建设的陕西新篇章。陕西和山西山水祖脉相依、文化根脉相亲、红色血脉相融、交通动脉相连，希望围绕构建新发展格局、高质量共建“一带一路”、黄河流域生态保护和高质量发展、关中平原城市群建设、汾渭平原大气污染治理、“三北”工程黄河“几字弯”攻坚战等重大任务，共同推进生态大保护、能源大转型、科技大创新、产业大升级、内陆大开放、区域大协同、文旅大融合，携手为强国建设、民族复兴作出新贡献。', '蓝佛安向陕西长期以来对山西的支持帮助表示感谢。他说，党的十八大以来，习近平总书记先后四次莅晋考察调研，对做好山西工作作出重要指示、寄予殷切期望，为我省高质量发展和现代化建设提供了根本遵循、指明了前进方向。当前，全省上下牢记领袖殷殷嘱托，加快“三区三地”建设，正朝着“两个基本实现”目标阔步前进。近年来，陕西省深入学习贯彻习近平总书记对陕西工作的重要指示要求，聚焦在西部地区发挥示范作用的战略定位，推动经济社会发展面貌焕然一新，探索出很多宝贵经验，值得山西学习借鉴。晋陕两省隔河相望、山水相依、人文相亲，历史上交流往来源远流长、经久不断，目前正呈现出党政互动、经贸互利、人文互惠的良好局面。面向以中国式现代化全面推进中华民族伟大复兴的宏阔征程，两省在融入和服务新发展格局上承担着许多共同任务、面临着许多共同课题。希望以此次学习考察特别是签署框架协议为契机，进一步做好新时代晋陕合作“大文章”，携手把习近平总书记为两省擘画的宏伟蓝图变成美好现实。一是在黄河流域生态保护治理上深化合作。建立健全两省间经常性会商协商、部门衔接落实等机制，合力推进晋陕大峡谷、汾渭平原等生态环境保护，共同谋划实施好黄河古贤水利枢纽工程，持续优化沿黄地区产业结构和空间布局，推动左右两岸“一泓清水入黄河”。二是在产业转型升级上深化合作。在推进制造业振兴升级、深化能源革命、发展现代高效农业上加强合作，加强园区产业对接，推进数字产业协同发展，携手建设“5G+智慧矿山”，共同做好乡村产业“土特产”文章。三是在文旅融合发展上深化合作。围绕推动中华优秀传统文化创造性转化、创新性发展，联合布局跨省域经典旅游线路，携手打造更多文旅、文创、文博产业的优质项目和知名品牌。四是在教育、科技、人才支撑上深化合作。加强科创平台、学科建设、人才培养等方面深层次交流，共同推进科技创新和成果转化，以智力和人才优势培育新的竞争优势。五是在扩大高水平对外开放上深化合作。学好陕西自贸试验区经验，加快构建高标准市场体系，用好“一带一路”开放平台，推动交通互联互通、信息共享共用，共同融入全国统一大市场，更好服务新发展格局。', '座谈会上，金湘军、赵刚分别介绍了晋陕两省经济社会发展情况，共同签署了两省推动黄河流域生态保护和高质量发展战略合作框架协议。根据协议，晋陕两省将深入学习贯彻习近平生态文明思想和习近平总书记关于黄河流域生态保护和高质量发展重要论述，按照优势互补、协同联动、互利共赢、共同发展的原则，以生态保护、水利建设、能源革命、资源型经济转型、交通基础设施、文化旅游等领域为重点全方位深化合作，共同抓好大保护、协同推进大治理，携手推动黄河流域生态保护和高质量发展不断取得新突破。', '山西省领导李凤岐、卢东亮、韦韬、汤志平、赵红严、杨勤荣、熊继军，陕西省领导方红卫、蒿慧杰、王琳、樊维斌、徐明非、钟洪江、张晓光，西安交通大学党委书记卢建军参加有关活动。省直有关部门、部分省管国有企业、有关开发区主要负责同志，各市市委书记等山西党政代表团成员参加。（杨文俊）']</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A19" t="n">
+        <v>22</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>忻州市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>忻州市</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>太忻经济一体化发展太原区运营中心考察组来忻调研</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>2023-03-10</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>http://www.sxxz.gov.cn/zwyw/xzyw/202303/t20230310_3846433.shtml</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>['3月7日，省太忻经济一体化发展促进中心副主任、太原区运营中心常务副主任杨俊民带队来我市考察调研，并召开座谈会。省太忻经济一体化发展促进中心副主任、市政府党组成员、忻州区运营中心常务副主任王建峰主持座谈会并讲话。', '会上，太原区、忻州区运营中心相关负责人分别介绍了大盂产业新城和秀容新城规划建设情况；与会人员围绕全方位协同发展作了交流发言。', '杨俊民指出，建设太忻一体化经济区是省委、省政府在服从服务国家战略中谋划山西发展，推动形成“一群两区三圈”城乡区域发展新布局的重大举措。忻州与太原抢抓机遇积极互动，共谋发展大局，太忻一体化经济区的美好蓝图正在一步步变为现实。忻州市高质量打造秀容新城，将与大盂产业新城形成南北呼应之势，太原将与忻州一道创优工作机制，努力打造太忻融合的重要载体。', '王建峰表示，太忻经济一体化发展太原区运营中心考察组一行来忻考察，与忻州深化合作、互动交流，机会难得，意义重大。各相关部门要以此次考察座谈为契机，持续深化两市协同联动、区域合作的认识，与太原区广泛交流对接、学习考察，共同助力区域协同发展，奋力推动太忻一体化经济区实现高质量发展。', '会前，考察组一行先后在忻州洁晋发电有限公司、山西金宇科林科技有限公司等处进行实地调研。']</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A20" t="n">
+        <v>22</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>忻州市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>忻州市</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>王建峰带队赴杭州西湖区考察学习</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>2023-04-18</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>http://www.sxxz.gov.cn/zwyw/xzyw/202304/t20230418_3861889.shtml</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>['近日，省太忻经济一体化发展促进中心副主任、市政府党组成员、忻州区运营中心常务副主任王建峰带队赴浙江省杭州市西湖区考察学习数字经济、园区运营、产城融合、商业街区打造等工作。', '考察学习期间，王建峰一行先后参观考察了西湖大学、西湖投资集团、蚂蚁集团、颐高集团、浙江吉利控股集团等高校、企业项目运行情况。在杭州市西湖区文三数字街区、杭州城市大脑、浙江大学国家大学科技园、云栖小镇展厅、象山艺术小镇等地，详细了解西湖区园区运行管理体制机制、城市规划建设情况，听取了西湖区科技成果转化、产业布局以及产城融合项目在生态治理、城市风貌打造、文旅产业发展方面的经验介绍。', '王建峰强调，太忻经济一体化发展战略是省委作出的重大战略部署，忻州的区位、交通运输、资源、产业、环境等优势正在不断凸显，政策、资金及要素保障都在向忻州倾斜。要着眼未来发展、强化前瞻思维、加强战略合作，真诚合作、务实合作，共同推动各类优质项目在忻州早日结出丰硕成果。相关部门要加强沟通对接，以清晰的时间节点和明确的工作目标，全力推进合作项目早日落地见效。']</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A21" t="n">
+        <v>22</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>忻州市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>忻州市</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>朱晓东率团赴上海对接考察</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>2022-08-29</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>http://www.sxxz.gov.cn/zwyw/xzyw/202208/t20220829_3791651.shtml</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>['8月22日至24日，市委书记朱晓东率团赴上海对接考察，访企业、进高校，谋项目、话未来，点对点“叩门招商”，走出去“精准引才”，与各企业、高校深入开展交流，学习借鉴先进经验与成功做法，就前期达成合作意向的项目进行深度对接，推动项目尽快落地，并诚邀各方来忻投资兴业、干事创业，努力为忻州全方位推动高质量发展注入强劲动能。市领导张敏、张宇光、罗志宏、耿鹏鹏、王建峰参加。', '宝武集团作为以钢铁制造为基、新材料等多元协同的世界级钢铁航母企业，与忻州有着良好合作基础。朱晓东一行详细了解企业在科技创新、产品研发、节能降耗、管理运营、行业优势等方面的经验与做法，就具体项目合作事宜交换意见、深入交流。新城控股集团是一家集住宅地产和商业地产为一体的全国综合性地产集团，长期坚持“住宅+商业”双轮驱动战略。考察中，朱晓东一行了解集团发展历程、企业文化和地产业务等情况，希望集团始终秉持先进理念、拓展丰富业态、融入城市文化元素，携手将忻州建设成为有特色、有魅力、有品质，市场主体和人民群众生产生活性价比最优的精品城市。华东师范大学是新中国成立后新组建的第一所社会主义师范大学，人才荟萃、资源丰富。同济大学是一所特色鲜明、在海内外有较大影响力的综合性、研究型、国际化大学，历史悠久、声誉卓著。朱晓东一行学习考察校史馆，听取两所学校的历史沿革和发展情况介绍。朱晓东表示，市校合作有坚实的合作基础和广阔的发展空间，希望双方在人才培养、科技创新、成果转化、高等教育等方面建立健全长效合作机制，不断拓展合作范围，创新合作形式，深化合作内容，实现合作共赢。', '在企业对接考察期间，朱晓东分别与宝武集团总经理、党委副书记胡望明，新城控股集团副总裁杨年进举行工作会谈，并代表忻州市委、市政府感谢企业给予忻州经济社会发展的大力支持。他说，作为横跨省际东西、全省国土面积最大的地级市，忻州是山西唯一拥有“黄河、长城、太行”三大旅游资源的城市，是资源富区、人文大区、旅游热区、发展新区。忻州历史底蕴深厚，产业基础雄厚，交通区位优越，能源保障有力，环境优美宜居。特别是山西省第十二次党代会作出打造山西中部城市群发展“北引擎”、建设太忻一体化经济区的重大部署，忻州迎来千载难逢的重大历史机遇。当前太忻经济一体化发展战略已经进入国家区域发展布局视野，政策、资金及要素保障都在向太原和忻州倾斜。忻州的区位、交通、资源、产业、环境等优势正在不断凸显，态势好、形象好、口碑好的局面不断巩固拓展。希望企业能够聚焦地方资源禀赋和特色优势，把忻州作为战略布局的重点区域，继续发挥品牌影响力和龙头带动作用，借助资源、资金、技术、品牌、人才等方面的综合优势，努力形成更深层次、更高水平的合作新格局。忻州市委、市政府将始终秉承“负责任、动脑筋、讲良心”的工作要求，坚持“专业的人干专业的事”的理念，提供全方位、集成式、全周期的服务保障，强化专班推进，深化对接沟通，以更加务实的作风、更加积极的行动、更加优质的服务，全力推进项目建设，共同擘画忻州发展新蓝图。', '在高校学习考察期间，朱晓东分别与华东师范大学党委书记梅兵、同济大学常务副校长吕培明举行工作会谈，并代表忻州市委、市政府感谢高校多年来的人才培养和输送工作。朱晓东表示，随着建设太忻一体化经济区战略的深入实施，希望高校进一步深化战略合作，在规划建设、科技创新、工艺发展、数字经济、职业教育等方面提供智力支撑，在做强智库决策咨询、人才深入交流、生源基地合作共建、干部培训锻炼、参与科技服务博士团等方面打造合作亮点，为忻州全方位推动高质量发展注入新鲜血液。忻州市委、市政府将用最大的诚意、最好的资源、最优的环境，为专家、学者、优秀学员开展调研、实习实训、创业就业等提供便利条件和各类保障。']</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A22" t="n">
+        <v>22</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>忻州市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>忻州市</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>定襄加快产业转型升级提升经济发展质量</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>2023-06-12</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>http://www.sxxz.gov.cn/zwyw/qxdt/202306/t20230612_3878814.shtml</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>['5月中下旬，定襄县委、县政府围绕专业镇建设，赴我国经济发展最活跃、开放程度最高、创新能力最强的区域之一江浙地区进行考察学习，开展“双招双引”活动。', '在明确“12356”发展思路后，定襄县持续在提品质、延链条、创品牌、强支撑上精准发力，着力将定襄法兰产业打造成千亿级产业集群，力争实现“一镇带一方、一方促全盘”的链条式集群发展。', '钢材企业、锻造企业，阀门产业、紧固件产业、模具产业，数智赋能、园区承载……整产业链的考察学习和全供应链的“双招双引”，就是利用专业镇建设这一“金字招牌”，在产业链上下游进行延链、强链、补链，在互通中共享、在合作中互赢，为积极承载产业转移奠定坚实基础。', '早在年初的县委经济工作会议和《县政府工作报告》中，该县就对加快产业转型升级、提升经济发展质量提出了明确的路径和举措。', '在定襄法兰专业镇强势起步的带动下，该县坚定把同步推进产业转型、数字转型作为加快推动高质量发展的主攻方向，不断推进产业结构优化、产业形态重塑、产业能级提升。', '一方面是加快传统产业转型升级，通过完善和落实链长制、链主制，加快传统产业高端化、智能化、绿色化改造，持续推动工艺技术进步，实现规模、质量、效益同步提升。另一方面是加快战略性新兴产业融合集群发展，实施全产业链培育工程，持续推进新能源、节能环保、特种金属材料等五大产业集群化、规模化发展。同时，加快数字经济发展步伐，按照数字产业化、产业数字化、数据价值化、治理数字化“四化”协同的思路，以数智赋能锻造产业整体跃迁。', '“只有充分发挥‘链主’‘链核’和上下游配套企业的‘光合作用’，才能全方位提升产业链整体稳定性和竞争力。”在江浙考察学习期间，考察团对产业发展有了更加深刻的理解和认识。', '“构建‘支柱+新兴+未来’产业体系，重点推动支柱产业巩固发展优势、提升产业能级，新兴产业集群融合发展、扩大产业规模，未来产业前瞻赛道布局、培育新的引领产业，总体形成梯次递进、接力有序的现代产业体系。”有了相比之下的发展紧迫感，就有了谋划前行的发展责任感。', '下一步，定襄县将加大产业园区的开发、招商、孵化、运营力度，有效提升锻造产业智能制造创新服务基地、省校合作基地高质量运营水平，探索发展产业立体综合体，有效整合、集聚小微企业和家庭作坊，让资产变资源，实现合作效益最大化，为培育壮大新兴产业和推动关联产业发展奠定坚实基础。']</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A23" t="n">
+        <v>22</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>忻州市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>忻州市</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>山西党政代表团赴安徽学习考察</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>2023-07-20</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>http://www.sxxz.gov.cn/zwyw/szfyw/202307/t20230720_3890217.shtml</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>['7月18日，山西党政代表团在科大讯飞公司考察人工智能产品研发和行业应用落地情况。山西日报记者史晓波摄', '为深入贯彻习近平总书记关于“三新一高”的重要论述精神，向安徽学习加强科技创新、扩大对外开放、优化营商环境、促进制造业高质量发展等方面的经验做法，更好服务和融入新发展格局，推动转型发展和现代化建设再上新台阶，7月18日至19日，山西党政代表团赴安徽学习考察，并召开山西省·安徽省工作交流座谈会，进一步深化两省务实合作，共同谱写晋皖两地交流合作新篇章。山西省委书记、省人大常委会主任蓝佛安，安徽省委书记、省人大常委会主任韩俊，山西省委副书记、省长金湘军，安徽省委副书记、省长王清宪出席座谈会并参加考察。', '近年来，安徽省聚焦打造科技创新策源地、新兴产业聚集地、改革开放新高地和经济社会发展全面绿色转型区战略目标，积极主动融入长三角一体化发展，在优化营商环境、强化科技创新、开展招商引资、发展新兴产业等方面形成了很多亮点做法。在皖期间，山西党政代表团先后到合肥、芜湖学习观摩考察，一路上广泛交流、深入思考、主动对接，为山西高质量发展取真经、谈合作、谋突破。在科大讯飞公司、科大国盾量子技术公司、安徽创新馆和中国视谷，代表团深入了解人工智能、量子通信等前沿技术和高新产业发展情况，学习安徽在高能级创新平台集聚、科技大市场培育、科创成果转化应用等方面的理念经验，对安徽创新型省份建设成效表示钦佩。在国轩高科公司、奇瑞生产基地和中电科钻石飞机公司，代表团实地感受安徽高端制造业蓬勃发展的强劲势头，学习了解安徽围绕产业链部署创新链、围绕创新链布局产业链、承接长三角一体化产业转移的经验做法，并就有关项目进行了交流对接。', '19日下午，山西省·安徽省工作交流座谈会在合肥市举行。韩俊在交流会讲话中首先代表安徽省委、省政府对山西党政代表团的到来表示热烈欢迎。他说，近年来，山西认真贯彻落实习近平总书记“走出一条产业优、质量高、效益好、可持续的发展新路”重要要求，在煤炭先进产能建设、新能源装机规模、电力市场化改革等方面走在全国前列，为中部地区高质量发展提供了宝贵经验。当前，安徽认真学习贯彻习近平总书记关于安徽工作的重要讲话重要指示精神，充分发挥创新活跃强劲、制造特色鲜明、生态资源良好、内陆腹地广阔等优势，抢抓长三角一体化发展战略机遇，全力做好“产业+科技+人才+金融”大文章，推动思想大解放、环境大优化、能力大提升、作风大转变、任务大落实，全面推进科技强省、制造强省、农业强省、人才强省、教育强省、文化强省建设，正在走出一条新时代质量更高、效益更好、结构更优、活力更足、优势充分释放的发展新路。希望两省加强能源领域合作，加强新材料、高端装备制造、节能环保等战略性新兴产业合作，在文化旅游领域联合打造精品旅游线路和旅游产品，推动重点旅游城市联合开展宣传推介活动，共同推动皖晋两省高质量发展。', '蓝佛安在讲话中向安徽长期以来对山西的支持帮助表示感谢。他说，党的十八大以来，习近平总书记先后四次莅晋考察调研，发表重要讲话、作出重要指示，为山西高质量发展和现代化建设提供了根本遵循、指明了前进方向。当前，全省上下正在牢记领袖殷殷嘱托，锚定“两个基本实现”奋斗目标，加快建设“三区三地”，奋力推动习近平总书记为山西擘画的宏伟蓝图变成美好现实。近年来，安徽省认真学习贯彻习近平总书记关于安徽工作的重要讲话重要指示精神，聚焦打造“三地一区”战略目标，抢抓长三角一体化发展战略机遇，推动各项事业发展取得显著成就，探索出很多宝贵经验，值得我们学习借鉴。历史上，晋皖两省同为华夏文明重要发祥地和重要革命老区，双方合作有渊源、有基础。进入新时代，晋皖两省一个位于黄河中游、毗邻京津冀，一个地处长江腹地、面向长三角，共享中部地区高质量发展和“一带一路”倡议机遇，共担服务和融入新发展格局的时代使命，深化合作、携手共赢具有广阔前景。希望以此次学习考察为契机，推动双方全面战略合作结出更加丰硕的成果，共同为强国建设、民族复兴做出新的更大贡献。一是聚焦科技创新和成果转化加强互动、深化合作。建立健全政产学研长效联系机制，携手推动两地科创平台加强合作，联合开展关键核心技术攻关和科技成果落地转化，共同促进创新链产业链要素链精准对接、深度融合，合力塑造发展新动能新优势。二是聚焦营商环境和对外开放加强互动、深化合作。交流借鉴在高标准市场体系建设、激发经营主体活力等方面的经验做法，在扩大制度型开放、创新招商引资和招才引智机制等方面加强交流合作，共同加快融入全国统一大市场。三是聚焦新兴产业和文旅康养加强互动、深化合作。聚焦新技术、新装备、新产品、新材料、新能源、新业态等，发挥各自优势，创新合作方式，完善产业生态，共同书写好新兴产业合作交流大文章。积极探索建立客源互换、市场共建、利益共享的区域合作新模式，打造互为重要的旅游目的地和客源地，构建优势互补、互利共赢新格局。', '山西省领导李凤岐、卢东亮、韦韬、汤志平、赵红严、杨勤荣、熊继军，安徽省领导虞爱华、张韵声、单向前参加有关活动。省直有关部门、部分省管国有企业、有关开发区主要负责同志，各市市委书记等山西党政代表团成员参加。（杨文俊）']</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A24" t="n">
+        <v>22</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>忻州市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>忻州市</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>耿鹏鹏带队赴太原市考察学习</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>2022-08-15</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>http://www.sxxz.gov.cn/zwyw/xzyw/202208/t20220815_3787920.shtml</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>['8月10日，副市长耿鹏鹏带队赴太原市就太忻一体化经济区规划建设、生态修复治理、生活垃圾处理等工作考察学习。市城建指挥部、生态环境局、住建局、规划和自然资源局、交通运输局、城管局等部门负责人一同考察学习。', '耿鹏鹏一行先后来到太原市太忻大道一标段、六标段和两市连接处石岭关、太原科创驱动中心、太原环晋再生能源有限公司、太原市不动产登记中心、太原市集中供热调度中心、汾河四期生态治理项目等地，边看边学边思考，围绕太忻一体化经济区忻州启动区基础设施建设、城市品质提升、集中供热、生活垃圾处理、生态修复治理等工作进行了深入交流。', '耿鹏鹏指出，通过考察学习，我们开阔了眼界、拓展了思路，更加坚定了全方位推动忻州高质量发展的信心和决心。各相关部门要认真落实两市党政班子考察对接成果，进一步加强在太忻一体化经济区建设规划设计、基础设施互联互通、生态环境联保共治、垃圾无害化处理等方面的沟通对接，积极学习借鉴好经验、好做法，推动建设有特色、有魅力、有品质，市场主体和人民群众生产生活性价比最优的精品城市，以优异成绩迎接党的二十大胜利召开。']</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A25" t="n">
+        <v>22</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>忻州市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>忻州市</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>市政府召开南融太原基础设施规划专题会议</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>2022-07-18</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>http://www.sxxz.gov.cn/zwyw/xzyw/202207/t20220718_3780128.shtml</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>['7月15日，市政府召开“南融”太原基础设施规划专题会议，副市长耿鹏鹏主持会议并讲话。市规划和自然资源局、市住建局、市交通运输局、太忻经济一体化发展忻州区运营中心、忻州公路分局及相关规划设计单位负责人参加会议。', '耿鹏鹏对规划设计单位高效率的工作给予充分肯定。他强调，各级各部门要进一步统一思想，深入落实太原市党政代表团赴忻州市学习考察对接座谈会议精神，按照市委安排部署，立足高起点建设太忻一体化经济区定位，以一体化发展为目标导向，进一步优化细化方案。要切实增强大局意识、全局观念，与太原区发展规划充分衔接，结合忻州城市总体规划，深入研究论证，提高规划的战略性、前瞻性、科学性。要立足当前，兼顾长远，坚持整体谋划、分步实施，完善规划方案。要坚持集约节约原则，结合功能定位，完善现有基础设施，进一步谋划项目，为忻州“南融”太原提供有力支撑。']</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A26" t="n">
+        <v>22</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>忻州市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>忻州市</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>习近平的山海情</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>2022-07-25</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>http://www.sxxz.gov.cn/zwyw/gwyyw/202207/t20220725_3781756.shtml</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>['1997年4月，时任福建省委副书记的习近平，在担任福建省对口帮扶宁夏领导小组组长不久，亲赴西海固进行扶贫考察，为闽宁结亲、山海共融按下“快进键”。', '从东海之滨，到西北山塬，习近平跨越2000多公里的“山海情”隽永绵延。25年来，在习近平亲自谋划、亲自推动下，闽宁协作开辟了东西部协作的新机制，走出了变“输血”为“造血”的扶贫路，创造了具有中国特色反贫困治理的成功范例，带动两地干部群众在共同富裕道路上接续奋斗。', '盛夏时节，闽宁镇福宁村。村民谢兴昌正在山海小院的直播间里一板一眼地练习着网络直播带货。', '这个小院除了直播销售宁夏特色产品外，还有一间闽宁协作成果展示馆。自去年6月免费开放以来，谢兴昌已在这里为近2000人讲述了闽宁镇的发展故事。', '谢兴昌在“山海小院”展览馆里讲述闽宁镇近年来的发展变化（2022年5月12日摄）。新华社记者 冯开华 摄', '“苦瘠甲天下”的西海固，直到上世纪八九十年代，“三日不举火，十年不制衣”还是当地百姓生活的常态。', '1997年4月，习近平第一次来到西海固山区，连续多天调研5县。走进西海固老乡冯秀花家的窑洞，习近平深感痛心，他后来回忆说：“我才真正体会到什么叫家徒四壁。一家子既没有桌椅板凳，也没有铺盖。家里唯一的‘财产’是挂在房梁上的一撮发菜，就靠卖这么一点发菜来买油盐酱醋。”', '在西海固的调研，让习近平下定决心推进对口帮扶。在银川郊区考察时，习近平对东西部协作共建移民村的做法很感兴趣，提出要“让移民迁得出、稳得住、致得富”。', '当时，42岁的谢兴昌刚刚从西海固山沟里“跑出来”，正在苦苦“找出路”。1997年7月15日这一天，在闽宁村奠基仪式上听到习近平的贺信，谢兴昌欣喜万分，返回西吉县动员大山沟里的乡亲们搬迁。', '在福建工作期间，习近平先后5次出席闽宁对口扶贫协作联席会议，亲自调研、科学谋划、全力推动，提出的“优势互补、互利互惠、长期协作、共同发展”指导原则，以及“联席推进、结对帮扶、产业带动、互学互助、社会参与”的合作机制，为闽宁协作搭建了四梁八柱。', '到中央工作后，习近平又分别在2008年、2016年、2020年三次踏访西海固，为西海固的脱贫和发展倾注了大量心血。', '2008年4月8日，时任中共中央政治局常委、国家副主席的习近平在宁夏考察时，来到固原市原州区深沟村调研，鼓励当地要有发展的思路和意识，带动村民富起来。', '一席话点醒时任深沟村党支部书记马正刚。此后，他带领村民们成立农机合作社，在周边乡镇承包农田建设工程。十多年过去，如今的深沟村已经变为美丽的深沟社区。后来在宁夏脱贫攻坚中发挥重要作用的村党组织带头人和致富带头人“双带工程”，正源于此。', '2016年7月18日至20日，习近平总书记再次来到宁夏，赴闽宁镇考察。这里是19年前他亲自提议福建和宁夏共同建设的生态移民点。年过花甲的谢兴昌见到了习近平总书记，他拉着总书记的手说：“共产党的恩情，三天三夜也说不完。”', '“闽宁镇探索出了一条康庄大道，我们要把这个宝贵经验向全国推广。”看到闽宁镇的可喜变化，习近平总书记倍感欣慰。', '2020年6月8日至10日，习近平总书记第四次来到宁夏。脱贫攻坚战即将收官，他又开始为宁夏谋划如何走好乡村振兴新征程。', '顶着烈日，习近平总书记来到黄河边的稻渔空间乡村生态观光园，沿着田埂走进稻田深处，了解农业合作社带动农民增收致富情况。', '“不能把农民土地拿走了，干得红红火火的，却跟农民没关系。要共同致富。”习近平总书记的话语暖到农民的心窝子里。', '“总书记时时刻刻惦记着我们农民！”现场聆听习近平总书记讲话的村民孙玉珍热泪盈眶，她家里13亩地流转给观光园，又在观光园打工拿工资，比自己种地的收入多三倍。', '随后，在贺兰山下的一片葡萄园，习近平总书记详细询问葡萄种植、葡萄酒销售和村民收入情况，他指出：“宁夏要把发展葡萄酒产业同加强黄河滩区治理、加强生态恢复结合起来，提高技术水平，增加文化内涵，加强宣传推介，打造自己的知名品牌，提高附加值和综合效益。”', '游客在宁夏志辉源石酒庄参观游玩（2020年7月22日摄，无人机照片）。新华社记者 冯开华 摄', '习近平总书记的话语深深触动了福建商人陈德启。他持续15年在闽宁镇一片荒滩上种葡萄，解决了3000多名西海固移民就业。', '2016年7月20日，东西部扶贫协作座谈会上，习近平总书记打了一个非常形象的比方：“这就像六盘山是当年红军长征要翻越的最后一座高山一样，让全国现有5000多万贫困人口全部脱贫，是我们打赢脱贫攻坚战必须翻越的最后一座高山。”', '人心齐，泰山移。正是在习近平开创的闽宁经验示范下，来自东部发达地区的资金、技术、人才、理念源源不断输入西部，促进贫困地区提升“造血”能力，实现互利共赢、共同发展。大家合力拔穷根、携手奔小康，充分体现了中国共产党领导和我国社会主义制度的显著优势。', '25年过去，8000多人的闽宁村已经成长为6万多人的闽宁镇。昔日尘土飞扬的“干沙滩”已换装为绿树成荫、良田万顷的“金沙滩”，年人均可支配收入从500元增至1.6万元。', '这是宁夏银川市永宁县闽宁镇新镇建设全景（2019年9月3日摄，无人机照片）。新华社记者 王鹏 摄', '如今，宁夏已相继“孵化”出160多个闽宁示范村，建设了闽宁镇、石狮镇、惠安村、南苑村、团结村等一批生态移民示范村镇。', '宁夏干部群众说起“山海情”，无不感激习近平提出的闽宁帮扶举措的开创性、务实性、精准性——每年召开对口扶贫协作联席会议，建立“点对点”“一对一”的市县结对帮扶机制，闽宁互派干部挂职锻炼……', '住上小楼的谢兴昌，5个子女已成家。“希望通过图片展示和我的讲解，让年轻一代了解闽宁镇的过去和现在，饮水思源。”他说。', '在宁夏，有一群福建人被亲切唤作“宁夏菇爷”。国家菌草工程技术研究中心首席科学家林占熺就是其中一位。', '林占熺是菌草技术的开创者。1997年4月，林占熺被习近平点将，带着团队和六箱菌草种从福建直奔西海固的彭阳县。', '“1997年4月，在银川召开的闽宁对口扶贫协作第二次联席会议上，菌草技术被列为闽宁对口扶贫协作项目。习近平同志亲自在联席会议纪要上签字。”林占熺回忆。', '宁夏的自然环境和气候条件与福建大不相同，要用发源于福建的菌草技术“以草代木”栽培食用菌，难度可想而知。', '林占熺指导村民建半地下室菇棚、利用废弃的窑洞栽培食用菌。那时，他经常住在菇棚里，以便夜间起来检查温度变化。', '半年后，用作物秸秆栽培香菇、平菇、双孢蘑菇等食用菌取得成功，参加食用菌生产的示范农户当年收入翻了一番多。', '林占熺（中）在宁夏银川市永宁县闽宁镇农户刘昌富的大棚里查看菌草生长情况（2021年3月29日摄）。新华社记者 王鹏 摄', '54岁的闽宁镇园艺村村民刘昌富回想起20多年前，他在林占熺手把手指导下，在自家院子里盖菇棚、种菌草的情景。“头一年就挣了7000多元，当时哪见过这么多钱！”', '2000年7月5日，时任福建省省长的习近平出席了在省政府举办的、专门为林占熺授奖的颁奖会。他指出，菌草技术的优势在全国相当突出，要继续让它在扶贫致富方面发挥重要作用。', '至2021年底，宁夏全区食用菌总产值1.93亿元，菇农户均每年增收2万多元。菌草成为当地百姓脱贫的重要产业之一。', '2016年7月，习近平总书记在宁夏考察时强调：“要因地制宜，把培育产业作为推动脱贫攻坚的根本出路。”', '早在上世纪80年代，习近平在厦门工作期间就曾探索闽宁产业合作。当时厦门同安县经济落后，但水资源很好，当地想办啤酒厂增加产值。习近平得知后，明确提出将宁夏的啤酒花引入同安。啤酒厂于1988年投产后，年产2000吨，税收200万元。', '“现在，发展乡村产业，不像过去就是种几亩地、养几头猪，有条件的要通过全产业链拓展产业增值增效空间，创造更多就业增收机会。”从脱贫攻坚到乡村振兴，习近平总书记不断推动东西部协作转型升级。', '闽宁镇福建援宁干部李辉钦将习近平总书记的话铭记于心。2021年，他线下和农产品加工企业挨家谈合作，线上在直播间卖力带货，枸杞、葡萄酒、滩羊等宁夏农产品在他手里成为一件件“万单爆品”。', '“总书记的话给我很大启发，宁夏的农产品不能局限于闽宁两地间‘献爱心’式的消费扶贫，要走向更广阔的市场。”李辉钦说。', '如今闽宁协作发展起多少产业？宁夏人如数家珍——葡萄种植酿造、畜牧加工业、劳务输出、新能源、电商……目前，已有6700多家福建企业入驻宁夏，每年有5万多宁夏人在福建务工，深度互嵌的闽宁产业协作成为宁夏高质量发展的硬核支撑。', '习近平总书记对脱贫攻坚的物质与精神辩证关系有着深邃思考：“我在福建宁德工作时就讲‘弱鸟先飞’，就是说贫困地区、贫困群众首先要有‘飞’的意识和‘先飞’的行动”“摆脱贫困首要并不是摆脱物质的贫困，而是摆脱意识和思路的贫困”。', '无论是产业、理念还是精神，闽宁协作从来都不是单方面的援助。25年前第一次来到宁夏，习近平就对互学互助提出要求：“一定要静下心来，要耐得住寂寞，要把东部的经验带过来，把西部的精神带回去。”', '“闽宁协作就是一所没有围墙的大学。”这是福建、宁夏干部群众的共同感受。近年来，无论是福建援宁工作队赴任，还是福建代表团在宁夏考察学习，六盘山红军长征纪念馆都是重要一站。', '位于宁夏固原市隆德县境内的六盘山红军长征纪念亭（2018年8月29日摄，无人机照片）。新华社记者 王鹏 摄', '“要发扬毛主席在《清平乐·六盘山》中所抒发的‘不到长城非好汉’的革命精神，勇于担当、主动作为，勇于斗争、善于斗争。”2020年6月，习近平总书记考察宁夏时殷殷嘱托。', '“黄土高原的粗犷锤炼了我们，西海固人民的坚韧教育了我们，在宁夏深刻感悟‘不到长城非好汉’的革命精神是我们一生的宝贵财富。”福建省第五批援宁工作队领队周秀光说。', '这是在宁夏固原市西吉县吉强镇龙王坝村拍摄的梯田（2020年9月10日，无人机照片）。新华社记者 冯开华 摄', '2021年2月25日，人民大会堂，全国脱贫攻坚总结表彰大会上，时任闽宁镇党委书记张文接过闽宁镇荣获的“全国脱贫攻坚楷模”荣誉奖牌时，习近平总书记以8个字深情勉励：“一以贯之，刮目相看！”', '随后不久，2021年4月8日，全国东西部协作和中央单位定点帮扶工作推进会在宁夏银川召开。会上传达学习了习近平总书记对深化东西部协作和定点帮扶工作的重要指示。习近平总书记对东西部协作有着更加长远的谋划——', '“要完善东西部结对帮扶关系，拓展帮扶领域，健全帮扶机制，优化帮扶方式，加强产业合作、资源互补、劳务对接、人才交流，动员全社会参与，形成区域协调发展、协同发展、共同发展的良好局面”……', '2021年5月，福建和宁夏召开了闽宁协作第25次联席会议，签订合作项目49个，共同编制了《“十四五”闽宁协作规划》，推动闽宁协作进一步走深走实。', '明确闽宁镇打造东西部协作示范镇、移民致富提升示范镇、乡村振兴示范镇，推进10个闽宁产业园转型升级、提质增效，全面巩固提升100个左右闽宁示范村，“十四五”末在宁闽籍企业（商户）达到1万家左右……', '宁夏银川市永宁县闽宁镇闽宁禾美电商扶贫车间员工在直播带货（2020年11月11日摄）。新华社记者 冯开华 摄', '由政府主导向发挥市场主体作用转变、由单向援助向双向互动转变、由扶贫协作向全面合作转变——《“十四五”闽宁协作规划》紧扣协调发展、协同发展、共同发展的指导思想，提出闽宁协作于“十四五”期间在“东西部协作工作中继续走在前列、作出示范”。', '回望来路，面向未来，正如习近平总书记所说：“只要我们坚持党的领导、坚定走中国特色社会主义道路，就一定能够办成更多像脱贫攻坚这样的大事难事，不断从胜利走向新的胜利！”（记者 王永前、李钧德、齐中熙、孙奕、张亮）']</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A27" t="n">
+        <v>22</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>忻州市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>忻州市</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>忻州市政府召开太忻启动区基础设施规划专题会议</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>2022-07-12</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>http://www.sxxz.gov.cn/ztjj/txythjjqjs/202207/t20220712_3778288.shtml</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>['7月8日，市政府召开太忻启动区基础设施规划专题会议，副市长耿鹏鹏主持会议并讲话，省太忻经济一体化发展促进中心副主任、市政府党组成员、太忻经济一体化发展忻州区运营中心常务副主任王建峰出席会议。', '会议介绍了太原北部区域基础设施规划情况和忻州南部区域基础设施规划情况；与会人员分别提出意见建议。', '耿鹏鹏强调，各级各部门要深入落实太原市党政代表团赴忻州市学习考察对接座谈会精神，从省委建设中部城市群，打造融入京津冀、服务雄安新区重要走廊的战略高度和市委市政府“南融东进西引北联”开放战略出发，紧紧把握“三区三线”划定的历史机遇，强化沟通协作，高标准做好两市相向发展的规划设计。要高起点抓好牧马河全流域生态治理，建设人与自然有机结合的“太忻之肺”。要加强纵向沟通和横向对接，从为忻州人民负责、对忻州未来负责的高度，高标准、高起点谋划一批项目。要加强太忻一体化经济区忻州片区与太原片区的联动，加密忻东新城与大盂新城的基础设施互联互通和产业发展互补，为我市建设开放发展前沿城市奠定坚实基础。']</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A28" t="n">
+        <v>22</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>忻州市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>忻州市</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>郑连生率忻州市考察团莅临吕梁市考察调研</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>2020-07-06</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>http://www.sxxz.gov.cn/zwyw/xzyw/202007/t20200706_3539549.shtml</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>['7月3日，在参加完全省巩固脱贫攻坚成果现场推进会之后，忻州市委书记郑连生率考察团专程来到吕梁市汾阳贾家庄村、汾酒集团等地，就转型发展、文旅融合等进行考察调研。吕梁市长王立伟陪同考察。', '日，在参加完全省巩固脱贫攻坚成果现场推进会之后，忻州市委书记郑连生率考察团专程来到吕梁市汾阳贾家庄村、汾酒集团等地，就转型发展、文旅融合等进行考察调研。吕梁市长王立伟陪同考察。', '“杏花村外贾家庄，红旗高举在汾阳”。解放以来，贾家庄一直是全国农业战线的典型，走出了一条发展壮大集体经济、实现共同富裕的道路，先后荣获“全国先进基层党组织”“全国文明村”“中国最美生态旅游村镇”等国家级荣誉。在贾家庄村，郑连生一行参观了村史展览馆，详细了解了贾家庄人艰苦奋斗、改革创新，七十多年矢志不渝，从一个贫穷落后的盐碱滩变为富裕文明小康村的奋斗历程；与全国人大代表、贾家庄村原党支部书记邢利民深入交流，就文旅融合多业发展、持续壮大集体经济、实现乡村振兴生活富裕进行了探讨，对贾家庄几代共产党人不忘初心、牢记使命、持续奋斗的精神表示肯定。', '近年来，贾家庄美丽乡村魅力凸显，乡村旅游蓬勃发展，形成了集乡村民俗旅游、工业文化创意、农耕文化体验、红色经典教育、康体养老休闲、影视文学教育于一体的文化生态旅游区，年接待游客200多万人次。郑连生一行先后考察了马烽纪念馆、贾樟柯艺术中心种子影院、文澜苑作家村、恒鼎工业文化创意园、18·18展览馆、三晋民俗文化体验地贾街等地，与贾樟柯导演进行了交流，听取了吕梁文学季活动开展、作家村建设发展、电影文化周品牌打造等情况汇报，对贾家庄村狠抓文旅产业融合发展，助推乡村振兴、实现产业升级的转型之路给予高度赞扬。大家表示，要深入贯彻习近平总书记视察山西重要讲话重要指示，全面落实省委十一届十次全会部署，学习借鉴贾家庄先进经验做法，高质量打造忻州古城等城市新名片，奋力蹚出文旅融合的转型发展新路。', '近年来，贾家庄美丽乡村魅力凸显，乡村旅游蓬勃发展，形成了集乡村民俗旅游、工业文化创意、农耕文化体验、红色经典教育、康体养老休闲、影视文学教育于一体的文化生态旅游区，年接待游客', '多万人次。郑连生一行先后考察了马烽纪念馆、贾樟柯艺术中心种子影院、文澜苑作家村、恒鼎工业文化创意园、', '展览馆、三晋民俗文化体验地贾街等地，与贾樟柯导演进行了交流，听取了吕梁文学季活动开展、作家村建设发展、电影文化周品牌打造等情况汇报，对贾家庄村狠抓文旅产业融合发展，助推乡村振兴、实现产业升级的转型之路给予高度赞扬。大家表示，要深入贯彻习近平总书记视察山西重要讲话重要指示，全面落实省委十一届十次全会部署，学习借鉴贾家庄先进经验做法，高质量打造忻州古城等城市新名片，奋力蹚出文旅融合的转型发展新路。', '白酒是吕梁市重要支柱产业，年产值占到全市工业增加值的11%。郑连生一行深入汾酒集团，详细考察了吕梁市白酒产业发展状况，听取了吕梁市连续举办世界酒文化博览会等活动，持续做大白酒产业、推动酒与文旅融合发展等情况介绍。“国酒之源、文化之根”的魅力，“清香之祖、中国酒城”的宏大，给考察团留下了深刻印象。大家对吕梁全方位推动酒与文化旅游产业形态融合、业态协同、互促互赢的转型路径给予充分肯定。', '。郑连生一行深入汾酒集团，详细考察了吕梁市白酒产业发展状况，听取了吕梁市连续举办世界酒文化博览会等活动，持续做大白酒产业、推动酒与文旅融合发展等情况介绍。“国酒之源、文化之根”的魅力，“清香之祖、中国酒城”的宏大，给考察团留下了深刻印象。大家对吕梁全方位推动酒与文化旅游产业形态融合、业态协同、互促互赢的转型路径给予充分肯定。', '考察中，王立伟代表吕梁市委市政府对忻州市考察团的到来表示热烈欢迎，并简要介绍了吕梁市经济社会发展情况。他说，忻州和吕梁同为革命老区、贫困地区，同是快速发展的新区，人缘相亲、文化相通。近年来，忻州市在市政建设、城市创卫、开发区发展、脱贫攻坚等许多方面走在了全省前列，吕梁多次组织考察学习忻州的诸多好经验、好做法，为推动高质量发展提供了有益借鉴。双方表示，吕梁和忻州两市在经济社会文化各方面有着深厚的合作基础和广阔的合作空间，希望以此次考察为契机，进一步增进两市友谊，深化交流合作，聚焦“六新”率先突破，携手在转型发展上率先蹚出一条新路来。', '考察中，王立伟代表吕梁市委市政府对忻州市考察团的到来表示热烈欢迎，并简要介绍了吕梁市经济社会发展情况。他说，忻州和吕梁同为革命老区、贫困地区，同是快速发展的新区，人缘相亲、文化相通。近年来，忻州市在市政建设、城市创卫、开发区发展、脱贫攻坚等许多方面走在了全省前列，吕梁多次组织考察学习忻州的诸多好经验、好做法，为推动高质量发展提供了有益借鉴。双方表示，吕梁和忻州两市在经济社会文化各方面有着深厚的合作基础和广阔的合作空间，希望以此次考察为契机，进一步增进两市友谊，深化交流合作，聚焦']</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A29" t="n">
+        <v>22</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>忻州市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>忻州市</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>学经验抓招商推动转型在蹚出新路上奋发有为市长朱晓东率团赴上海广东学习考察我市和上海市松江区签订合作框架协议</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>2020-07-12</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>http://www.0350tv.cn/demand/2020-07/12/cms75685article.shtml</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>['2020年07月11日忻州新闻——学经验抓招商推动转型 在蹚出新路上奋发有为 市长朱晓东率团赴上海 广东学习考察 我市和上海市松江区签订合作框架协议']</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A30" t="n">
+        <v>22</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>忻州市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>忻州市</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>吕梁市考察团来我市考察老旧片区改造工作</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>2020-05-18</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>http://www.sxxz.gov.cn/zwyw/xzyw/202005/t20200518_3523462.shtml</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>['5月12日，由吕梁市副市长刘晋萍带队的吕梁市考察团来我市考察老旧片区改造工作，市委常委、组织部长秦书义，副市长武宪堂出席座谈会，市住建、城管、规划和自然资源等相关部门负责人参加会议。', '，由吕梁市副市长刘晋萍带队的吕梁市考察团来我市考察老旧片区改造工作，市委常委、组织部长秦书义，副市长武宪堂出席座谈会，市住建、城管、规划和自然资源等相关部门负责人参加会议。', '考察团一行先后来到忻州古城、云中河景区等地，就我市老旧片区改造等工作进行考察学习。', '在随后召开的座谈会上，秦书义对吕梁市政府考察团一行的到来表示欢迎。他指出，近年来，忻州市委、市政府以改善城市形象和创优人居环境为出发点，持续加强城市基础设施建设，不断提升城市管理水平，坚持建设宜居、宜业、宜游创新型田园城市，忻州城市面貌发生了很大变化，人民生活环境得到大幅改善。希望忻州、吕梁两市今后不断增进友谊，在繁荣文化、发展经济等方面进行全方位的合作与交流。', '刘晋萍表示，通过实地考察、听取情况介绍，考察团受到很大启发，我们找到了不足，理清了思路，也明确了努力方向，同时也收获了友谊，学到了经验，希望吕梁、忻州不断加深交流与互动，在互促互学中共同进步。']</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A31" t="n">
+        <v>22</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>忻州市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>忻州市</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>代县五个强化凝聚帮扶合力</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>2020-05-08</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>http://www.sxxz.gov.cn/zwyw/qxdt/202005/t20200508_3520164.shtml</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>['近年来，代县紧紧围绕干部驻村帮扶各项安排部署，结合实际，坚持“五个强化”，进一步压实干部驻村帮扶责任，健全完善体制机制，确保驻村帮扶工作责任到位、措施到位、工作到位，凝心聚力打好收官之战。', '一是强化服务意识。将热情服务意识贯穿于驻村干部管理工作始终，从生活上、学习上、工作上给予最大的支持和帮助；积极协调乡镇党委改善驻村干部生活条件，解决驻村干部冬季取暖问题，办理驻村干部任职期间的人身意外伤害保险。组织人员经常深入驻村干部所在地，帮助他们解决生活和工作中遇到的困难、困惑、困扰。', '二是强化教育培训。依托省委党校、市委党校、县委党校和乡镇组织各类培训。采取“走出去培训、请进来学习”的办法，对驻村干部进行全方位、跟踪式的教育培训。组织他们到县外特色产业乡村学习考察，通过“专业课堂”切实提升驻村干部扶贫开发和种植养殖等方面的知识水平。', '三是强化督促督查。建立干部驻村巡查工作制度，县纪委、县委组织部、县扶贫办组成联合督查组，重点对驻村干部在岗情况、履职情况、工作成效进行跟踪督查、测评打分。对不在岗、不履职、不尽责的人员及时进行约谈、查处，全面提高工作效率，促进责任落实。', '四是强化考核考评。制定脱贫工作成效考核办法，对全县包村领导、驻村工作队成员、农村第一书记、结对帮扶的党员干部进行科学考核测评，采取日常考核与年度考核、民意测评相结合的办法，根据考评结果，按优秀、称职、基本称职、不称职四个等次进行评定，对评定为不称职的及时召回。', '五是强化分析研判。对全县干部驻村帮扶工作和驻村干部履职情况进行跟踪分析研判，根据结果运用机制，对考核评定为优秀等次的，县委、县政府通报表彰并给予奖励，同等条件下优先提拔使用、晋升职级、评先评优；考核评定为不称职等次的，要求其限期整改。情节特别严重、影响比较恶劣，甚至有违纪违法行为的，按照党纪政纪和相关法律严格追究相关单位人员责任。']</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A32" t="n">
+        <v>22</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>忻州市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>忻州市</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>定襄县现代农业产业发展项目</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>2020-02-07</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>http://www.sxxz.gov.cn/tzxz/zsxm/202002/t20200207_3493145.shtml</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>['定襄县位于忻定盆地，地势平坦，交通便利，区位条件优越，农业资源丰富，产业特色明显，基础设施较好，发展潜力较大，具备了快速发展现代农业产业的基础和条件。近年来，定襄县委、县政府认证贯彻落实党中央、国务院一系列加强农业、加快农村经济发展的方针政策，坚持把农业和农村经济放在整个经济工作的首位来抓，以优化农业产业结构为目标、以实施乡村振兴战略为统揽，以农业供给侧结构性改革为主线，提高农业供给体系质量。', '近年以来，在对农业先进省市进行学习考察，并聘请省内外农业专家对定襄县农业进行了分析把脉的基础上，定襄县委、县政府决定采取规划先行的办法，对全县的农业进行顶层设计，出台了符合国家要求和定襄实际的高标准现代农业发展规划，对农业、农村工作进行全面部署，更加科学地指导定襄县现代农业未来一段时期的发展。', '项目建设面积500亩，总投资10000万元，主要包括建设技术改进型日光温室，种苗、盆栽容器、基质、肥料等生产资料投入，建设地点为季庄乡。项目建成后，可实现销售收入30000万元，实现利润3000万元。']</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A33" t="n">
+        <v>22</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>忻州市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>忻州市</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>忻州市市容环境卫生管理处多措并举扮靓城市</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>2020-10-14</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>http://www.sxxz.gov.cn/zwyw/bmdt/202010/t20201014_3566510.shtml</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>['环境卫生是彰显城市文明的窗口。今年以来，忻州市市容环境卫生管理处全体干部职工积极投身创建全国文明城市等一系列活动中，科学管理，开拓创新，用实际行动为创建文明城市增光添彩。', '一是注重环卫队伍建设，提升环卫整体形象。为做好环卫安全作业工作，忻州市市容环境卫生管理处专门成立安全生产领导组，严格落实环卫作业安全生产责任制和安全作业规范，重点做好一线作业人员的安全保障工作，及时消除各类安全隐患，提高环卫作业安全系数。在环卫作业风险保障工作中，除为环卫工人缴纳养老、医疗、工伤、失业、生育等保险外，还为从事一线作业的环卫工人办理意外伤害保险，做到集体参保、应保尽保。为切实解决环卫工人的生活难题，提高环卫工人的福利待遇，市委、市政府拨付专项经费为环卫工人免费供应“爱心早餐”，出台环卫工人免费乘坐市区内公交车的优惠举措，并且在每年的6月到8月的高温天气中给环卫工人发放高温补助。这些举措极大激发了广大环卫工人不断进取的工作热情，使得环卫工人的队伍日趋稳定，从而推动我市环卫事业健康持续发展。', '一是注重环卫队伍建设，提升环卫整体形象。为做好环卫安全作业工作，忻州市市容环境卫生管理处专门成立安全生产领导组，严格落实环卫作业安全生产责任制和安全作业规范，重点做好一线作业人员的安全保障工作，及时消除各类安全隐患，提高环卫作业安全系数。在环卫作业风险保障工作中，除为环卫工人缴纳养老、医疗、工伤、失业、生育等保险外，还为从事一线作业的环卫工人办理意外伤害保险，做到集体参保、应保尽保。为切实解决环卫工人的生活难题，提高环卫工人的福利待遇，市委、市政府拨付专项经费为环卫工人免费供应', '月的高温天气中给环卫工人发放高温补助。这些举措极大激发了广大环卫工人不断进取的工作热情，使得环卫工人的队伍日趋稳定，从而推动我市环卫事业健康持续发展。', '二是建章立制，长效管理，推进环境卫生管理工作取得新突破。为实现规范化、制度化、长效化建设稳步推进，忻州市市容环境卫生管理处结合自身实际制定了《环卫职工工作手册》和《忻州市区环卫工人管理实施办法》等规章制度，对环卫工人录用、作业范围、作业标准、工资福利待遇、考核奖惩等方面作了详细的规定，做到管理工作方向明确、标准具体、有章可循。忻州市市容环境卫生管理处从实际出发，创新管理机制，将责任区按照清扫保洁、垃圾清运、环卫监察、生活垃圾处理费征收等不同的职能划分为不同的区域，由各部门分别负责，确立责、权、利相协调，职责与任务相衔接的职能，完善环卫管理网络，逐步建立起科学、高效、特色的环境卫生管理运作体系，将环境卫生工作逐步向城中村、社区、城乡接合部、城市出入口等薄弱区域延伸，整体提升市区环境卫生水平。同时在多次调研的基础上，积极探索建立城区建筑垃圾收运处置体系，实行环卫管理全天候，变被动清理为主动服务，组织环卫收集车辆和环卫工人主动与沿街门店建立联系，定时上门收集垃圾，力争做到垃圾不落地、不过夜，不造成二次污染。各项措施的落实大大减轻了环卫工人的负担，有效调动了环卫职工的积极性，从根本上解决了城区建筑垃圾偷倒、乱倒的问题。', '三是发挥协会作用，多方面保障职工权益。为促进我市环卫事业的健康发展，环卫协会积极发挥上联下达的桥梁纽带作用，组织人员学习考察，了解行业动态，学习先进管理经验和工作模式,环卫骨干素质得到进一步提升，环卫工作得到更好开展。同时忻州市市容环境卫生管理处工会也积极组织开展职工趣味项目比赛，不仅丰富了职工的业余生活，还增强了身体素质，提升了团队凝聚力。管理处妇委会在市妇联的帮助和指导下全面开展妇女工作，通过组织女职工进行家庭敬老尊老教育和五好家庭创建宣讲活动，逐步提高妇女在家庭中的地位和作用。', '三是发挥协会作用，多方面保障职工权益。为促进我市环卫事业的健康发展，环卫协会积极发挥上联下达的桥梁纽带作用，组织人员学习考察，了解行业动态，学习先进管理经验和工作模式', '环卫骨干素质得到进一步提升，环卫工作得到更好开展。同时忻州市市容环境卫生管理处工会也积极组织开展职工趣味项目比赛，不仅丰富了职工的业余生活，还增强了身体素质，提升了团队凝聚力。管理处妇委会在市妇联的帮助和指导下全面开展妇女工作，通过组织女职工进行家庭敬老尊老教育和五好家庭创建宣讲活动，逐步提高妇女在家庭中的地位和作用。', '四是扎实推进精准扶贫工作。持续在全处开展“每车每天节约一升油，每人每天节约一毛钱”的活动，为扶贫工作提供资金支持。驻村工作队积极发挥驻村优势，在走访贫困户的实际调查中，不断摸索脱贫致富的新方法和新路径，进一步精细组织，强化责任，集中智慧力量，统筹政策资源，探索符合实际、增加村民收入的脱贫奔小康之路，全力以赴抓好精准扶贫各项任务落实,让贫困户看到脱贫希望，增强脱贫信心，激发脱贫干劲。', '铺就文明之路，撒满文明之花，忻州市市容环境卫生管理处通过一揽子实际举措提升了城市整体风貌，既擦亮了“面子”，又充实了“里子”，让文明之风吹向了忻州市的每个角落。', '铺就文明之路，撒满文明之花，忻州市市容环境卫生管理处通过一揽子实际举措提升了城市整体风貌，既擦亮了']</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A34" t="n">
+        <v>22</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>忻州市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>忻州市</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>代县强化四个意识破解脱贫攻坚干部干村干看问题</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>2020-08-10</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>http://www.sxxz.gov.cn/zwyw/qxdt/202008/t20200810_3550442.shtml</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>['近年来，代县全面贯彻决战全面脱贫、决胜全面小康的新要求，不断强化“四个意识”，全力破解脱贫攻坚“干部干，村干看”的问题，着力加强驻村干部队伍建设，强化村干部管理教育工作，有力促进村干部履职作为，发挥作用。', '一是强化责任意识，主动谋划。针对脱贫攻坚中，有些村干部存在的“到站”“守摊子”“等靠要”思想以及村级基础差、贫困程度深、脱贫难度大，村级事务过多、村情复杂、不会去想等问题，坚持把压实责任作为促进村干部主动思考、主动谋划的有力抓手，紧紧围绕加强农村基层组织建设、推动脱贫攻坚等农村重点工作，进一步细化规范考评管理机制，推行村党组织书记县级备案管理和村“两委”干部联审，落实村党组织书记“双述双评”和村干部岗位目标管理等制度，做到人人身上有任务、人人肩上有责任，促使村干部多谋事多动脑。', '二是强化服务意识，担当作为。针对有些村干部安于现状、得过且过、害怕创新、缺乏担当、文化水平低、接受能力差、综合素质低、工作无起色等问题，坚持把村干部纳入考核范围，通过深化推进“农村干部学历提升”工程，引导村干部立足村组情况、工作实际和群众需求，把走访入户的过程当成是发现问题、寻找办法的过程，走进农户家中，深入群众意见多的地方，加强与群众交流沟通，多渠道了解群众所需所盼所想，发现和解决问题，切实推进精准扶贫、服务农村发展、维护社会稳定。', '三是强化学习意识，提升素能。针对有些村干部会说而不愿去说、敢说而能力低下、工作不熟，不会去说，干了的工作说不出来，好的经验做法总结不出来等问题，坚持把培训教育作为提升能力素质的重要举措，按照长期受教育、大规模轮训干部的要求，围绕方针政策、法律法规和开展农村工作所需的实用技能，采取集中与分散相结合的方式进行培训，县级层面每年举办多次村干部轮训班，各乡镇、相关部门通过以会代训、专题培训、专题辅导等形式，每年不定期举办各类村干部培训班。同时，在各类调研、督查、检查或学习考察中，加大村干部汇报解说频次，通过县级层面和乡镇内部召开现场会的形式，多渠道让村干部常学、勤练、多说，整体素质得到有效提升。', '四是强化培养意识，选派干部到村任职。针对基层领导班子干部老化、结构不优现状，防止和解决平时重视不够、培养不够、揠苗助长、降格以求的问题，积极选派机关事业单位干部到村担任党组织书记。同时，给下派干部定责任、压担子，制定工作“四有”标准，即有思路、有措施、有目标、有行动，督促下派干部深入农村，真抓实干。']</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A35" t="n">
+        <v>22</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>忻州市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>忻州市</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>忻州市卫健委组团赴吕梁考察学习医养结合工作经验</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>2020-09-15</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>http://www.sxxz.gov.cn/zwyw/bmdt/202009/t20200915_3559719.shtml</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>['近日，市卫生健康委员会组织14个县（市、区）卫健体局和五台山风景名胜区医疗卫生服务中心负责人共计42人赴吕梁市汾阳、孝义考察学习医养结合先进工作经验。吕梁市是我省5个国家级医养结合试点市之一，近年来，吕梁市在各级党委、政府的高度重视和大力支持下，医养结合工作发展迅速，形成了县县有典型、一院一特色的医养结合服务体系，走在了全省的前列。', '个国家级医养结合试点市之一，近年来，吕梁市在各级党委、政府的高度重视和大力支持下，医养结合工作发展迅速，形成了县县有典型、一院一特色的医养结合服务体系，走在了全省的前列。', '本次的考察学习点是汾阳市西苑托老院、汾阳市人民医院老年病科、孝义市中阳楼社区卫生服务中心、孝义市医疗集团梧桐分院四个医养结合单位。', '为使考察学习活动收到预期效果，市卫生健康委员会采用实地考察与经验分享相结合的方式对四个单位进行了实地考察，亲身感受到了他们的工作热情、工作理念、工作方式及实行医养结合后给老年人生活带来的方便与实惠。在由吕梁市卫健委、孝义市卫健委及医养结合单位负责人、我市考察人员参加的座谈会上，吕梁市卫健委负责人对全市的医养结合工作进行了全面介绍，忻州市卫健委负责人进行了总结讲话，希望考察人员主动作为，敢于担当，勇于创新，进一步提高服务意识，开动脑筋，结合本地实际，借鉴吕梁经验，因地制宜谋划和推动当地医养结合工作，打造富有忻州特色的医养结合亮点，为造福老年人作出应有的贡献。']</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A36" t="n">
+        <v>22</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>忻州市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>忻州市</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
           <t>朱晓东率团赴上海广东学习考察</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>2020-07-13</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>http://www.sxxz.gov.cn/zwyw/xzyw/202007/t20200713_3541333.shtml</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>['为深入贯彻落实习近平总书记视察山西重要讲话重要指示，落实好省委十一届十次全会精神，努力在转型发展上率先蹚出一条新路，近日，市委副书记、市长朱晓东率团赴上海、广东考察，学习借鉴发达地区在深化改革、扩大开放、优化营商环境等方面的先进经验和成功做法，广泛推介忻州，开展招商引资活动。副市长范建民一同考察。', '7月6日至7日，朱晓东率团在上海进行学习考察，参观了长三角G60科创走廊规划展示馆和上海新阳半导体材料有限公司、上海燕归来健康科技集团有限公司、上海电气临港重装备制造基地、紫光展锐等企业。每到一处，考察团都了解了企业的发展历程、科技创新、产品研发、成果应用、市场前景等情况，同企业高管、研发团队以及山西籍在沪人士代表广泛接触、深入交流，并介绍忻州发展现状、营商环境、产业政策等情况，听取上海企业家和专家对助推忻州更好发展的意见建议。', '科创走廊规划展示馆和上海新阳半导体材料有限公司、上海燕归来健康科技集团有限公司、上海电气临港重装备制造基地、紫光展锐等企业。每到一处，考察团都了解了企业的发展历程、科技创新、产品研发、成果应用、市场前景等情况，同企业高管、研发团队以及山西籍在沪人士代表广泛接触、深入交流，并介绍忻州发展现状、营商环境、产业政策等情况，听取上海企业家和专家对助推忻州更好发展的意见建议。', '朱晓东在考察中表示，忻州市发展基础薄弱，但区位、环境、空间、容量方面有着较为明显的优势，特别是随着产业结构调整，煤炭、电力、焦化、铁矿、氧化铝等传统产业正在全面升级，5G基建、大数据、风电设备、装备制造等新产业加速崛起，蹚出转型发展新路的动能正在不断聚集。欢迎各界有识之士多关注忻州、支持忻州，多来忻州走走看看，考察投资环境，提出宝贵意见，把好的项目带到忻州，实现合作共赢。忻州一定千方百计创造条件，打造近者悦远者来的优良营商环境，从政策、资金、人才等方面提供全方位的优质服务。特别是在临港新片区考察时，朱晓东叮嘱我市商务部门和开发区负责同志一定要学习发达地区先进经验和成功做法，着眼长远发展，结合自身特点，发挥比较优势，及早搞好规划，强化要素保障，做精做细工作。', '朱晓东在考察中表示，忻州市发展基础薄弱，但区位、环境、空间、容量方面有着较为明显的优势，特别是随着产业结构调整，煤炭、电力、焦化、铁矿、氧化铝等传统产业正在全面升级，', '基建、大数据、风电设备、装备制造等新产业加速崛起，蹚出转型发展新路的动能正在不断聚集。欢迎各界有识之士多关注忻州、支持忻州，多来忻州走走看看，考察投资环境，提出宝贵意见，把好的项目带到忻州，实现合作共赢。忻州一定千方百计创造条件，打造近者悦远者来的优良营商环境，从政策、资金、人才等方面提供全方位的优质服务。特别是在临港新片区考察时，朱晓东叮嘱我市商务部门和开发区负责同志一定要学习发达地区先进经验和成功做法，着眼长远发展，结合自身特点，发挥比较优势，及早搞好规划，强化要素保障，做精做细工作。', '在上海考察期间，我市和上海市松江区政府签订了合作框架协议。朱晓东在签约仪式上介绍了我市发展情况，他说，现在的忻州具有高颜值、大胸怀的特点，区位优越，环境优美，城市靓丽，公民素能不断提升，目前正按照习近平总书记视察山西时提出的“六新”发展要求，围绕省委“四为四高两同步”总体思路和要求，重点培育八大标志性引领性产业集群和六大农产品精深加工产业集群。坚持一张蓝图绘到底，发挥开发区转型升级的主战场、主阵地、主引擎作用，推进“七个一批”项目建设，不断提升政府的执行力、战斗力、创新力，打造最优营商环境。朱晓东表示，松江如火如荼的发展场景和良好的发展势头给考察团留下了深刻印象，我们要向松江学习改革创新的先进经验，加强沟通交流，开展深入合作，给忻州的发展带来新活力。合作框架协议的签订打开了忻州和松江两地的合作大门，相信在双方的共同努力下必将开花结果，实现双方更好发展。', '在上海考察期间，我市和上海市松江区政府签订了合作框架协议。朱晓东在签约仪式上介绍了我市发展情况，他说，现在的忻州具有高颜值、大胸怀的特点，区位优越，环境优美，城市靓丽，公民素能不断提升，目前正按照习近平总书记视察山西时提出的', '松江区区长李谦在签约仪式上表示，立足于双方的基础、优势和未来发展，聚焦两地的产业优势互补、产业价值链分工协作、乡村振兴和脱贫攻坚资源化相互借鉴、旅游资源共享合作开发和人才培训交流等重点领域强化合作。通过政府间交流合作、信息互通，用市场化方式进行两地特色园区共建共享、干部交流学习、专项领域规划协作，在服从服务国家战略中实现区域经济的高质量发展。', '副市长范建民、松江区副区长陈晓军分别代表两地政府签字。忻州经济开发区与上海临港松江科技城投资发展有限公司、上海燕归来健康科技集团有限公司、国广健康科技（苏州）有限公司、协鑫集团有限公司签订了合作协议。', '7月8日至9日，朱晓东率团来到广东进行学习考察。在广州市，考察团参观了广汽丰田总装车间、明珠湾规划展览馆，听取了南沙新区规划建设情况介绍，并赴南沙区品唯仓储有限公司考察跨境电商企业运营情况。在东莞市，考察团实地考察了国家重大科学工程中国散裂中子源项目，参观了华为终端总部，并与华为公司数字政府副总裁吕莹就成立华为忻州联合创新中心，开展智慧城市、智慧旅游等方面合作进行交流，希望双方充分发挥各自优势，开展深度对接，取得实质进展。在珠海市，考察团参观了丽珠医药集团股份有限公司，双方就黄芪等药材种植合作等交换了意见。', '日，朱晓东率团来到广东进行学习考察。在广州市，考察团参观了广汽丰田总装车间、明珠湾规划展览馆，听取了南沙新区规划建设情况介绍，并赴南沙区品唯仓储有限公司考察跨境电商企业运营情况。在东莞市，考察团实地考察了国家重大科学工程中国散裂中子源项目，参观了华为终端总部，并与华为公司数字政府副总裁吕莹就成立华为忻州联合创新中心，开展智慧城市、智慧旅游等方面合作进行交流，希望双方充分发挥各自优势，开展深度对接，取得实质进展。在珠海市，考察团参观了丽珠医药集团股份有限公司，双方就黄芪等药材种植合作等交换了意见。', '学习考察期间，忻州经济开发区与上海新阳半导体、上海燕归来、紫光展锐、上海电气、临港集团就人才引进、园区建设、大健康管理、标准化厂房、人才公寓等方面达成合作共建意向。特别是紫光展锐，对忻州经济开发区建设半导体产业园意向浓厚，表示近期将来忻州考察，进一步达成深度合作意向。燕归来公司董事长孙江燕情系家乡，准备依托忻州丰富的自然资源优势，投资家乡发展大健康产业。']</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A37" t="n">
+        <v>22</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>忻州市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>忻州市</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t>浙江省兰溪市考察团在忻州市学习考察</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>2019-06-17</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>http://www.sxxz.gov.cn/zwyw/xzyw/201906/t20190617_2964567.shtml</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>['6月14日，浙江省兰溪市市长王新峰带领考察团来到我市，就我市秀容古城改造活化开发工作进行学习考察。市委副书记、市长郑连生，副市长武宪堂及忻府区主要负责人一同考察。', '日，浙江省兰溪市市长王新峰带领考察团来到我市，就我市秀容古城改造活化开发工作进行学习考察。市委副书记、市长郑连生，副市长武宪堂及忻府区主要负责人一同考察。', '考察团一行先后来到秀容古城东城墙、秀容古城改造活化建设工地、秀容书院等地，认真了解我市古城改造活化在项目建设中的经验和做法。考察过程中，大家兴致盎然，边走边看边记边议，对我市秀容古城改造活化项目高起点规划、高标准设计、高质量建设的先进理念和做法十分赞许，纷纷表示不虚此行。', '武宪堂表示，兰溪市政府此次专程来我市考察，既是对我市搞好古城活化的鼓舞，也为我市学习借鉴兰溪市城市建设管理、古城保护开发等方面先进经验提供了难得机会，兰溪市在经济建设方面更有许多值得我市学习借鉴的地方。兰溪素有“浙中水乡、七省通衢”之称，物华天宝、人杰地灵，兰溪古城活化开发起点高、起步早，走在了全国前列。忻州、兰溪虽远隔千里，但两市共同的目标和追求拉近了两市的距离，希望通过这次考察交流，两市能够互相学习、取长补短，共同提升古城活化开发水平，不断增进友谊，在更宽广的领域实现优势互补，合作共赢。', '武宪堂表示，兰溪市政府此次专程来我市考察，既是对我市搞好古城活化的鼓舞，也为我市学习借鉴兰溪市城市建设管理、古城保护开发等方面先进经验提供了难得机会，兰溪市在经济建设方面更有许多值得我市学习借鉴的地方。兰溪素有']</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A38" t="n">
+        <v>22</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>忻州市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>忻州市</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
           <t>佛山市南海区政协在忻府区考察</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>2019-07-03</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>http://www.sxxz.gov.cn/zwyw/qxdt/201907/t20190704_2973922.shtml</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>['6月20日，广东省佛山市南海区政协党组成员、副主席区志星带领南海区政协考察团赴忻府区考察投资项目。区政府副区长孙晓磊、区政协副主席秦丽会见考察团并召开座谈会。忻州顿村度假村管理处及区发改、区能源、区招商服务中心等相关单位负责人参加。', '座谈会上，孙晓磊、秦丽对南海区政协考察团一行来忻考察表示欢迎。孙晓磊向考察团介绍了忻府区自然资源、历史人文、城市建设等方面的基本情况。他表示，忻府区自然生态良好、历史文化悠久、旅游资源丰富，发展潜力巨大。希望双方以此次考察交流为契机，互通往来，加强两地在各个层面、各个领域的互利合作，让南海的资金、企业、技术、人才优势在忻府区这片投资热土、创业热土上结出丰硕果实。秦丽希望两地政协组织充分发挥政协特色优势，在产业建设、旅游发展、生态环保、人才培训等方面加强合作，努力实现互利共赢。同时，组织开展多样化的联谊交流活动，加深两地政协情谊，努力实现合作共赢。', '区志星表示，来忻学习考察，是加强两区交流学习、增进互相了解，实现合作共贏的良好机遇。南海区政协将加倍珍惜此次机会，努力发挥自身优势，抢抓发展机遇，坚持优', '考察团一行先后在禹王煤气化有限公司、广宇煤电、秀容书院、云中河景区进行了实地考察，并听取了情况汇报，对园区、景区的区位优势、发展、投资环境等表示赞赏。']</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A39" t="n">
+        <v>22</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>忻州市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>忻州市</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
           <t>电子商务已成山西新的经济增长点</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>2019-12-16</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>http://www.sxxz.gov.cn/zwyw/szfyw/201912/t20191216_3474214.shtml</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>['近日，省市场监管局举行的新闻发布会上传来消息，近年来，我省电子商务发展迅速，截至今年6月，网络市场主体总数达14.3万户，2018年全省电子商务交易额达396.3亿元，同比增长40.5%。', '目前，电子商务已成为我省新的经济增长点，但也存在销售假冒伪劣商品、虚假违法广告宣传等问题。该局积极摸底调查全省电子商务经营主体数据，先后深入182家网站开展网监业务指导，纠正证照不符、无许可资质经营、信息公示不实等违法违规行为121起。赴浙江、江苏省市场监管局考察学习，推动我省18家县区局与浙江余杭区局建立网络监管跨区域办案协作平台，实现网络违法案件移交移送、经营主体信息比对等信用信息共享。今年对全省27家电商平台经营者开展“双随机、一公开”抽检工作，抽检比例达到50%；并在组织开展的2019网剑专项行动中，查处网络经营违法案件191件，移送公安机关案件2件，罚没款113.86万元。', '2020年，该局将重点抓好四网建设，即“依法管网”；发挥我省网络市场监管厅际联席会议作用，与相关部门联合，继续深入推进2020网剑专项行动，在平台治理、知识产权保护、信息披露和维护消费者权益等方面，严格落实主体责任。（郝薇）']</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A40" t="n">
+        <v>22</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>忻州市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>忻州市</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>大项目建设撑起忻州转型发展脊梁</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>2019-05-21</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>http://www.sxxz.gov.cn/zwyw/xzyw/201905/t20190521_2950114.shtml</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>['去年以来，我市以“三大目标”为牵引，以“深化转型项目建设年”为契机，紧紧围绕提升招商引资质量这一中心，统筹全市招商服务系统、市直有关部门、异地商协会等多方力量，积极有序开展工作，重点抓创新方式、搭建平台、区域协同、建立机制、优化环境五项工作，取得了阶段性成果。同时，大力升级招商改革，优化营商软环境，着力构建亲商、安商、富商和兴商的投资环境。2018年全市招商引资签约项目243个，签约项目投资额1332.33亿元，签约项目当年开工161个，招商引资到位资金85.7亿元，引进世界500强企业投资项目2个，中国500强企业投资项目9个，10-30亿元投资项目30个，省外投资30亿元以上大项目7个，外资企业投资项目3个。今年1至4月，全市招商引资签约项目63个，总投资264.71亿元，新开工项目34个，总投资133.38亿元。一批项目建成运营，一批项目签约开工，我市招商引资工作迎来“收获季”。', '为契机，紧紧围绕提升招商引资质量这一中心，统筹全市招商服务系统、市直有关部门、异地商协会等多方力量，积极有序开展工作，重点抓创新方式、搭建平台、区域协同、建立机制、优化环境五项工作，取得了阶段性成果。同时，大力升级招商改革，优化营商软环境，着力构建亲商、安商、富商和兴商的投资环境。', '为更好地将项目“引进来”，2018年市商务局按照省委、省政府和市委、市政府的决策部署，紧盯“示范区”“排头兵”“新高地”三大目标，深化转型项目建设年，以提升招商引资质量、加快招商项目落地为中心，围绕高端装备制造、新能源、新材料、现代农业、文化旅游5大主导产业，在更新观念、项目储备、信息搜集、成果转化、引资重点、以企招商、园区招商、项目落地8大措施上再发力，集中精力推动面向晋陕蒙经济圈、太原都市圈、京津冀经济圈“三大门户”的打造，继续深度对接环渤海、长三角、粤港澳大湾区三大重点区域，形成“15833”的招商引资方略，以奋斗的姿态、创新的举措、务实的作风，“用脑”“用心”“用力”“用时”，推动全市招商引资工作取得新突破，迈上新台阶。', '招商引资，不仅要“引进来”，更要“走出去”。为此，我市在组织开展长三角区域（上海）转型项目招商推介会、忻州“黄河、长城、太行”三大板块旅游招商推介会的基础上，建立“四库一图”（招商引资活动数据库、特色展品数据库、招商引资项目库、目标企业库、招商地图），创新性地将地图招商与产业链招商相结合、委托招商与以商招商相结合、重点宣介与小分队招商相结合，实现精准招商。以忻州籍在外人才为重点，聘请招商大使，以招才促招商，加强招商技能培训，取得了明显效果。今年4月21日至23日，市委、市政府主要领导带队赴天津重点对接泰达集团，并举办了忻州市融入山西与京津冀地区联动发展（天津）恳谈会暨项目签约仪式，共签订13个项目合作协议，总投资120亿元。 4月16日至20日，组织市直相关部门和14个县（市、区）赴广东惠州、东莞、深圳进行了考察学习、招商推介和煤化工产业链招商。原平、繁峙、岢岚等市县也结合自身实际开展了一系列招商活动，宁武、保德等县举行了项目集中签约。 4月7日至10日，组织部分县和企业参加了河南投洽会； 4月18日到22日，组织3县4企参加了津洽会，各参展企业展销情况良好。', '假日组织人员走访慰问了多家异地商会人员及其家属，通过微信和电邮向商会发送慰问信，通过公众平台通报家乡发展情况，让商会、外地企业家感受到家乡的温暖。建立了商会日常诉求反馈机制，准确了解诉求，帮助协调解决。强化系统联动，完善招商引资体系。构建了市、县和开发区招商引资系统平台共载、信息共享、资源共用的“一盘棋”工作体系。帮助各县（市、区）、开发区（园区）搭建活动平台、促进达成投资意向；帮助解决实际问题、促进项目快速落地；帮助整合有效资源，推动形成各县（市、区）特色鲜明的招商格局。积极协调服务，建立招商引资机制。改变以往重“签约”轻“落地”的观念，项目一签约即开始实行跟踪调度。组织制定了《招商引资工作通报机制》、《招商引资重大项目包联机制》和《招商引资重大项目两级协调机制》，为招商引资入驻企业提供全程协调服务，实行招商引资项目签约、投资建设、投产达产全流程精细管理、精准服务。实现信息共享，搭建招商引资平台。参与建立了省、市、县联网的“投资山西”招商引资数据库，开发“投资山西”网上对接平台，实现网上项目对接，探索网络招商新模式。通过信息化综合平台实现了投资信息在全市范围内的互联互通和共享利用。提升服务水平，创优招商引资环境。强化全市招商系统“投资忻州第一站、跟踪服务全过程”理念，牢固树立“人人都是忻州形象”“事事体现营商环境”的意识，营造全系统“敬商、亲商”氛围。建立了重大招商项目跟踪台账，实行统一接待、洽谈跟进、专人跟踪落实制，对来访客商提供项目对接、洽谈、推介、落地等“店小二”式跟踪服务，全面提升招商系统服务水平和质量。加强业务培训，提升招商人员专业素质。组织市县两级招商服务中心人员参加了四期“投资山西大讲堂”培训班，系统学习了政企合作战略、招商引资项目包装及策划、产业链招商实务及项目评价等知识。通过理论教学和实地考察对工作人员进行培训，全面提升了全市招商系统干部职工的专业素质和业务能力。', '采访中，市商务局局长罗志宏说，今年我市将以各类展会、招商引资活动为平台，有针对性地带领相关优秀企业外出招商。通过推介我市特色企业，吸引更多外地企业前来合作，实现以商招商。', '——校友招商模式。招商引资与招商引智密不可分。充分发挥忻州校友资源的“特殊作用”，通过引进一个高端人才，带来一个创新团队，催生一个新兴产业，培育一个新的经济增长点。让引智招商同频共振，让人才与智慧成为新的经济增长点，构筑创新人才资源高地，实现资本回忻、智力回忻。', '校友招商模式。招商引资与招商引智密不可分。充分发挥忻州校友资源的“特殊作用”，通过引进一个高端人才，带来一个创新团队，催生一个新兴产业，培育一个新的经济增长点。让引智招商同频共振，让人才与智慧成为新的经济增长点，构筑创新人才资源高地，实现资本回忻、智力回忻。', '——跨区域联合招商模式。跨区域联合招商一般是两个独立行政区的经济体通过整合现有优势资源，以共同推介的形式优势互补，形成规模效应，借此加强对外商的吸引力，提高招商引资、引智、引技的效率。我市在地理位置上与朔州、大同、吕梁、太原、阳泉相邻，加大与这些地市的联合招商力度，实现招商资源互补。同时，鼓励我市各县（市、区）之间开展联合招商。', '跨区域联合招商模式。跨区域联合招商一般是两个独立行政区的经济体通过整合现有优势资源，以共同推介的形式优势互补，形成规模效应，借此加强对外商的吸引力，提高招商引资、引智、引技的效率。我市在地理位置上与朔州、大同、吕梁、太原、阳泉相邻，加大与这些地市的联合招商力度，实现招商资源互补。同时，鼓励我市各县（市、区）之间开展联合招商。', '——靶向招商模式。主动承接环渤海、长三角、粤港澳大湾区等区域产业转移。抓紧项目策划包装，聘请专业机构对项目进行策划、包装，提升项目的吸引力，增强客商对项目投资的信心。设立招商引资项目目标库，根据产业发展需求，梳理出央企、国企500强、民营企业500强、上市公司等相关企业信息，通过邮递、电子邮件等方式，有针对性地发出《投资邀请函》，邀请其上门考察或前去积极洽谈。', '靶向招商模式。主动承接环渤海、长三角、粤港澳大湾区等区域产业转移。抓紧项目策划包装，聘请专业机构对项目进行策划、包装，提升项目的吸引力，增强客商对项目投资的信心。设立招商引资项目目标库，根据产业发展需求，梳理出央企、国企500强、民营企业500强、上市公司等相关企业信息，通过邮递、电子邮件等方式，有针对性地发出《投资邀请函》，邀请其上门考察或前去积极洽谈。']</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A41" t="n">
+        <v>22</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>忻州市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>忻州市</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
           <t>晋中市组团在繁峙县考察学习脱贫攻坚工作</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>2018-07-17</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>http://www.sxxz.gov.cn/zwyw/xzyw/201807/t20180717_1014247.shtml</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>['7月13日，晋中市委副书记尹乃明带领晋中市9个县（市、区）的县（市、区）委副书记、分管副县（市、区）长、扶贫办主任等来到繁峙县，就脱贫攻坚工作进行考察学习。市委副书记、政法委书记朱晓东，副市长裴峰，繁峙县相关领导参加。', '，晋中市委副书记尹乃明带领晋中市9个县（市、区）的县（市、区）委副书记、分管副县（市、区）长、扶贫办主任等来到繁峙县，就脱贫攻坚工作进行考察学习。市委副书记、政法委书记朱晓东，副市长裴峰，繁峙县相关领导参加。', '考察团一行先后实地考察了繁峙县杏园乡移民小区易地搬迁、分房到户及后续产业帮扶工作，金山铺乡农发村党建引领促整村提升、健康扶贫、木耳种植、箱包加工等一系列帮扶模式，东山乡马家岔村旧村拆除、复垦，东山乡伯强沟土地复垦交易和整沟治理项目。每到一处，考察团成员都详细询问，仔细了解各项工作的基本情况和落实细节，并认真记录。繁峙县盘活农村土地资源，用活城乡建设用地增减挂钩政策，积极探索出一条土地集约利用、用地指标增加、贫困群众增收的新途径，全省城乡建设用地增减挂钩现场会在繁峙召开。考察团一行在马家岔村和伯强沟听取汇报、实地察看土地复垦，对土地增减挂钩脱贫模式表示肯定。', '在随后召开的座谈会上，忻州、晋中两市市、县负责人首先观看了中央电视台《朝闻天下》栏目关于岢岚县攻坚深度贫困的报道及《繁峙县实施土地增减挂钩助推脱贫攻坚纪实片》，之后开始积极互动，通过一对一提问回答的方式，交流工作经验，对工作中遇到的问题进行分析探讨交流，气氛热烈。', '尹乃明表示，忻州市和繁峙县在脱贫攻坚工作的很多方面探索出了一系列创新的模式和经验，为各地做好精准扶贫工作创造了好经验、好借鉴。考察团将把忻州市在脱贫攻坚工作中的好方法、好经验带回去，结合本地实际，因地制宜，进一步推进晋中市脱贫攻坚工作再上新台阶。', '朱晓东对考察团一行来忻州繁峙考察学习表示欢迎。他指出，在忻州市委、市政府的强力推动和各级各部门的共同努力下，全市在精准扶贫工作中不断探索，取得了一些成绩。同样，晋中市在脱贫攻坚工作中也有许多做法值得忻州市学习借鉴。希望通过此次考察，与晋中市进一步加强学习交流，努力推动两市加强区域互动，共同促进脱贫攻坚工作。']</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A42" t="n">
+        <v>22</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>忻州市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>忻州市</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
           <t>忻州市电子商务进农村工作试点走在全省前列</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>2018-08-20</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>http://www.sxxz.gov.cn/zwyw/bmdt/201808/t20180820_2067713.shtml</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>['在全市上下尽锐出战、脱贫攻坚激战正酣的关键时刻，日前从市商务部门传来重大喜讯：我市宁武、偏关、繁峙、神池、五寨、河曲、保德7 个县被列入2018 年商务部电子商务进农村综合示范县，占到今年全省18 个入选县的40%。至此，加上前3 年已经入选的静乐、五台、代县、岢岚4 县，我市的11 个国家级贫困县经过全市上下前后4 年的积极争取，已经全部列入了商务部电子商务进农村综合示范县范畴，占全省43 个县的四分之一强。入选的示范县，每县将获得中央财政专项补助2000 万元，全市合计将取得专项补助款2.2 亿元，用于支持电商进农村、建网络、活流通、助增收。这必将为我市打赢脱贫攻坚战增添重要的支撑和砝码。', '目前，全市的脱贫攻坚进入关键时期。伴随着各项扶贫政策措施的落实，一村一户的产品如何走出去、一县一域的小市场如何与全国的大市场连接起来，使产品转变成为商品，使商品转变成为货币，使各项扶贫举措真正落地生根开花结果，这是涉及贫困地区农村长远发展、农民稳定增收、贫困连根拔除的关键。近年来，市委市政府认真贯彻落实中央和省委、省政府有关精神，瞄准国家级电子商务进农村综合示范试点申报这个契机，把发展普及农村电商作为全市脱贫攻坚的重要抓手，建设和完善农村电商公共服务体系，培育农村电商供应链，完善农村电子商务配送体系及综合服务网络，促进产销衔接，带动贫困人口稳定脱贫，使电商进农村成为脱贫攻坚和“三农”建设的新动能、新引擎。', '我市电子商务进农村示范县工作之所以取得如此瞩目成绩，得益于市委市政府主要领导高度重视，亲自部署，全力推进；得益于市县两级对电商进农村助力脱贫攻坚重大作用认识的高度统一。2015 年我市静乐县成功申报成为我市第一个商务部农村电子商务进农村综合示范县。通过两年来的实践探索，该县依托电商服务中心，建立了14 个乡级服务站点和86 个村级服务网点和100 个益农信息社，年实现下行网络销售额5000 万元、上行网络销售额6500 万元，直接带动2142 户建卡贫困户户均增收近1500 元，真正打通了工业品下乡和农副产品进城的“最后一公里”通道，农村电商网络流通体系初步形成，静乐县电商进农村试点也成为了全省的样板，全省现场会在静乐县召开。继静乐县之后，2017 年我市五台、岢岚、代县3 县又成功申报成为第二批商务部批准的农村电子商务进农村综合示范县。五台县投资120 万元，建成1600 平方米的集大学生创业园和电商孵化中心为一体的电子商务产业园和70 多个村级服务网点。岢岚县引进第三方公司，创新电子商务进农村模式，塑造品牌、延伸产业，助力脱贫风生水起。代县农村电子商务运营中心也已进入最后装修冲刺阶段，正式运营指日可待。今年在第三批7 个县申报成功之际，市商务部门又及时组织11个试点县的县长和商务主管部门领导及工程技术人员参加全省电子商务进农村综合示范工作培训座谈会并外出到陕西紫阳县、河北行唐县实地考察学习，推动试点工作在高标准上起步、高水平上运作。三年来，市县两级共举办各类电商普及运用培训班达百余期，累计参训人员达到2万余人。目前有京东、乐村淘、农芯乐等知名电商平台落户我市，在我市建设网络结点，大力拓展农村电商市场。全市11 个贫困县共建立16 个电商运营中心，开发特色馆8 个，开发和完善村级体验店1200 多家，发展游商推广员670 人，全市共注册电商企业338 户，全市在国内主要平台开设网店4896 家。去年，全市通过电商平台销售农产品2.5 亿元。我市的特色农副产品甜糯玉米、白水大杏、甜瓜、月饼、黄酒、花椒、核桃、小杂粮等经过电商人员的精心包装策划成为网上销售的抢手货，农民增收的靓品牌。']</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A43" t="n">
+        <v>22</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>忻州市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>忻州市</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
           <t>李俊明郑连生率队赴山东考察对接项目</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>2018-07-16</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>http://www.sxxz.gov.cn/zwyw/xzyw/201807/t20180716_993606.shtml</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>['7 月11 日到13 日，省人大常委会副主任、市委书记李俊明，市委副书记、市长郑连生率领我市党政代表团，赴山东信发集团、东阿阿胶股份有限公司进行考察学习、对接项目。这是我市深入贯彻落实习近平总书记视察山西重要讲话精神，加快煤电铝材一体化发展、深化转型项目建设年、推进同德氧化铝项目实质性复工建设的务实举措，是我市全面打赢区域经济转型升级翻身仗的具体行动。市委常委、秘书长崔建新，市国土资源局、保德县、繁峙县负责人，同德氧化铝项目参与方阳煤集团负责人参加项目对接。', '信发集团成立于1972 年，是一家集发电、供热、氧化铝、电解铝及铝深加工等产业于一体的现代化大型企业集团。目前所属及控股企业72 家，总资产1860 亿元，职工60000 余人。2017 年，信发集团实现销售收入2000多亿元，完成利税260 亿元，是2015年、2016 年中国铝工业百强评选第一名。同德氧化铝项目是我市立足保德县铝土矿等铝产业发展要素齐备的资源优势，建立以氧化铝、电解铝生产为中心，发展铝型材加工、铝镁合金加工，与能源、建材等相关行业形成循环产业链条，突破经济结构单一、一煤独大产业结构的重大转型升级项目。项目于2012 年开工建设，从2017 年10 月起，在省市合力推动下，项目所涉国有股权转让进展顺利。在茌平县信发集团总部，我市代表团实地考察信发华兴电厂、华宇氧化铝电解铝车间、碳素项目、氧化铝粉转运站、铁路专线、信源卸煤系统，以及煤灰、炉渣和脱硫石膏综合利用等新型环保建材项目。双方就推进同德氧化铝项目早日复工相关事宜进行了深入交流对接。', '李俊明表示，通过实地考察，看到了信发集团一流设计、一流设备、一流管理取得的成绩，特别是企业勇于创新的发展理念和极强的环保意识，给我们留下了深刻的印象，进一步坚定了加快煤电铝材一体化发展的信心和决心。忻州煤电铝资源富足，正在把铝产业建成我市工业强基的新支柱，推动经济转型升级，推进创新发展、协调发展、绿色发展。当前正是同德氧化铝项目复工的难得机遇，去年6 月习近平总书记视察山西、亲临忻州，强调要加快推动经济转型发展，真正走出一条产业优、质量高、效益好、可持续的发展新路，同时主持召开深度贫困地区脱贫攻坚座谈会并发表重要讲话，之后，国务院专门出台支持山西发展的国办发42 号文件，其中很重要的一项内容就是加快煤电铝材一体化发展，这为推进同德氧化铝项目复工提供了极大的政策机遇。在省市党委政府的合力推动下，目前项目复工推进蓄势待发，已处在天时地利人和的大好时机，忻州全市上下将创造最优发展环境，全力推进实施。希望双方发挥各自优势，通过强强合作，真正实现互利双赢。', '郑连生表示，要认真学习借鉴信发集团敢为人先的胆略和追求卓越的品质，着力破解同德铝业复工推进中的瓶颈环节，理顺法律手续，落实配套资源，全面做好复工保障工作；要认真搞好规划，以同德铝业为依托，实现信发集团在忻州全产业链介入，促进同德铝业在忻州做大做强；要认真落实互利共赢、共同发展的目标追求，全力维护企业合法权益，市县积极为企业发展搭建平台，创造有利条件。就推进中的具体事项，郑连生现场进行了安排部署。', '东阿阿胶股份有限公司系全国最大的阿胶系列产品生产企业，作为行业龙头企业，经过十余年的发展，探索出“政企农结合养驴扶贫模式”，该模式已被国务院扶贫办选定为产业精准脱贫试点模式并推广。毛驴养殖具有耐粗饲、病害少、饲料来源广泛等有利因素，正在成为我市产业扶贫的重要途径，特别是繁峙县成为国务院扶贫办确定的金驴产业扶贫示范县。考察期间，我市代表团赴东阿县实地考察东阿阿胶国际良种驴繁育中心，参观了标准化养殖基地，就推动毛驴产业与精准扶贫联结，加快驴产业标准化、规模化、基地化建设，实现毛驴繁育、养殖、驴肉深加工等一二三产业融合发展，推进全方位长期合作进行了深入交流。']</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A44" t="n">
+        <v>22</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>忻州市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
+          <t>忻州市</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
           <t>代县刘桂珍荣获山西最美村干部称号</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>2018-12-03</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>http://www.sxxz.gov.cn/zwyw/qxdt/201812/t20181203_2585100.shtml</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>['用青春演绎造福百姓的感人故事，用生命谱写基层干部无私奉献的动人乐章。11月30日上午，由山西省委组织部、宣传部和省民政厅指导，山西晚报社主办的2018“山西最美村干部”颁奖会在省城太原举行，“全国脱贫攻坚模范”、代县峪口乡段家湾村党支部书记、村委主任刘桂珍获得“山西最美村干部”称号。省委常委、组织部长吴汉圣为获奖者颁奖并讲话，要求全省党员干部特别是广大农村基层干部，以“最美村干部”为榜样，带头发展致富奔小康，带头服务群众聚民心，带头弘扬正气促和谐，做知百姓事、解百姓忧、带百姓富、暖百姓心的好干部。', '11月30日上午，由山西省委组织部、宣传部和省民政厅指导，山西晚报社主办的2018“山西最美村干部”颁奖会在省城太原举行，“全国脱贫攻坚模范”、代县峪口乡段家湾村党支部书记、村委主任刘桂珍获得“山西最美村干部”称号。省委常委、组织部长吴汉圣为获奖者颁奖并讲话，要求全省党员干部特别是广大农村基层干部，以“最美村干部”为榜样，带头发展致富奔小康，带头服务群众聚民心，带头弘扬正气促和谐，做知百姓事、解百姓忧、带百姓富、暖百姓心的好干部。', '今年4月24日下午，代县以“全国脱贫攻坚模范”刘桂珍四副担子一肩挑，带领山民拔穷根为素材，新编的晋剧现代戏《大山的女儿——刘桂珍》在新高大剧院首演，观看演出的各级党员领导干部600余人，旨在广泛宣传刘桂珍的先进事迹，让更多的党员干部群众学习她勇于担当、无私奉献的精神，为决战脱贫、决胜小康贡献力量，将全县开展的“学桂珍、问初心、担使命、见行动”活动掀起高潮、引向深入。', '4月24日下午，代县以“全国脱贫攻坚模范”刘桂珍四副担子一肩挑，带领山民拔穷根为素材，新编的晋剧现代戏《大山的女儿——刘桂珍》在新高大剧院首演，观看演出的各级党员领导干部600余人，旨在广泛宣传刘桂珍的先进事迹，让更多的党员干部群众学习她勇于担当、无私奉献的精神，为决战脱贫、决胜小康贡献力量，将全县开展的“学桂珍、问初心、担使命、见行动”活动掀起高潮、引向深入。', '5月1日，中央电视台《新闻联播》又以《刘桂珍：我是一名共产党员，被需要就是我的幸福》为题，报道了担任40年乡村医生、30年乡村教师、22年村党支部书记和15年村委主任刘桂珍的先进事迹。报道称，这四副担子的工龄加起来，足够别人干两辈子。每天，刘桂珍都要不停地变换着自己的角色，被乡亲们称作“拼命三娘”，她是一位集四个平凡岗位于一身的不平凡的劳动者。', '40年前，父亲一句“全村就你一个高中生，你不干谁干”，刘桂珍便成了乡村医生。从父亲当时让她当村医生的不理解，背着他报考大学，到后来为乡亲们义务看病，她觉得这40年过得很充实，也很欣慰。穷地方人一旦得了大病就是个大麻烦，可能导致家庭破裂，脱贫就更难了，自己也算是为乡亲们做了点贡献。1988年，村小学唯一的老师不干了，也没有新老师愿意来，乡亲们觉得刘桂珍在村里算个文化高的人，就让她暂时兼起了代课教师，这一干就干了30年。为了上课、看病两不误，刘桂珍利用课余时间给患者看病，有时还把办公室当成医务室给患者打针输液。1996年，父亲因身体原因不再担任村支书，当时村里的年轻人宁愿外出打工也不愿干这个“芝麻官”，刘桂珍也想出去打工，见见世面，毕竟家里还不宽裕。经过乡领导谈心和乡亲们多次挽留，刘桂珍从父亲肩上接过了这副担子，被乡亲们推选为村里的支书，2003年又兼任了村委主任，成了段家湾村历史上唯一的女干部。刘桂珍始终坚定认为，“共产党员是块砖，哪里需要哪里搬”。一名共产党员就要像一颗螺丝钉那样，组织把你安排在任何岗位上都必须永不生锈，闪闪发光。从40年前父亲那一句话起，刘桂珍先后挑起了村支部书记、村委主任、乡村医生、代课教师四副担子。', '村医生。从父亲当时让她当村医生的不理解，背着他报考大学，到后来为乡亲们义务看病，她觉得这', '年过得很充实，也很欣慰。穷地方人一旦得了大病就是个大麻烦，可能导致家庭破裂，脱贫就更难了，自己也算是为乡亲们做了点贡献。1988年，村小学唯一的老师不干了，也没有新老师愿意来，乡亲们觉得刘桂珍在村里算个文化高的人，就让她暂时兼起了代课教师，这一干就干了', '打针输液。1996年，父亲因身体原因不再担任村支书，当时村里的年轻人宁愿外出打工也不愿干这个“芝麻官”，刘桂珍也想出去打工，见见世面，毕竟家里还不宽裕。经过乡领导谈心和乡亲们多次挽留，刘桂珍从父亲肩上接过了这副担子，被乡亲们推选为村里的支书，2003年又兼任了村委主任，成了段家湾村历史上唯一的女干部。刘桂珍始终坚定认为，“共产党员是块砖，哪里需要哪里搬”。一名共产党员就要像一颗', '年前父亲那一句话起，刘桂珍先后挑起了村支部书记、村委主任、乡村医生、代课教师四副担子。', '段家湾村，是一个背靠大山、土壤贫瘠的小山村。全村69户118人，自然条件非常差，村里基础设施不配套，传统的生产生活方式在这里依稀可见，是全县比较典型的贫困村。村里年轻人或因孩子上学，或外出打工不在村里居住，常年在村里的人多数为老弱病残。面对一直以种田为生、收入微薄的段家湾村老百姓，面对村里年轻人因为家庭贫困，讨个老婆都成奢望的现状，刘桂珍看在眼里，急在心上。她始终坚定认为，为群众办实事、办好事必须要有一种归零的心态，也就是说从零开始到圆满结束，做一件算一件、做一件成一件。', '党的十八大之后，中央出台了精准扶贫的重大举措，国家加大了对贫困地区的扶持和帮扶力度，这让刘桂珍看到了段家湾村实现脱贫致富的希望。在县乡党委政府的大力支持下，从没有出过远门的刘桂珍，第一次组织村里的党员干部去内蒙、太原等地考察学习，引进了油松，在河滩地里搞育苗。为了打消乡亲们的顾虑，她动员丈夫先进行试种，拿出压箱底的钱，在自家最好的三分河滩地里搞起了育苗试验。由于不懂技术，前两年没少走弯路，第三年终于见到了成效，三分地的树苗一下子卖了7.5万元。消息很快传遍全村，让村民们看到了希望，趁着乡亲们的这份热情，刘桂珍挨门逐户落实育苗面积，统一调购种子、肥料，并进行育苗培训。当时有个村民叫邓润才，积极性很高，隔三差五往桂珍家跑，询问了一大堆问题，可就是不见行动。了解到他因没有本钱买不起树苗的原因后，她就私自作主，拿出2000元钱帮他筹措了育苗资金。后来，全村有19户搞起了育苗，面积发展到了80多亩。仅杨锁文一户就种了6亩，成为了村里的育苗大户，育苗收入达到近30万元。', '党的十八大之后，中央出台了精准扶贫的重大举措，国家加大了对贫困地区的扶持和帮扶力度，这让刘桂珍看到了段家湾村实现脱贫致富的希望。在县乡党委政府的大力支持下，从没有出过远门的刘桂珍，第一次组织村里的党员干部去内蒙、太原等地考察学习，引进了油松，在河滩地里搞育苗。为了打消乡亲们的顾虑，她动员丈夫先进行试种，拿出压箱底的钱，在自家最好的三分河滩地里搞起了育苗试验。由于不懂技术，前两年没少走弯路，第三年终于见到了成效，三分地的树苗一下子卖了7.5万元。消息很快传遍', '村，让村民们看到了希望，趁着乡亲们的这份热情，刘桂珍挨门逐户落实育苗面积，统一调购种子、肥料，并进行育苗培训。当时有个村民叫邓润才，积极性很高，隔三差五往桂珍家跑，询问了一大堆问题，可就是不见行动。了解到他因没有本钱买不起树苗的原因后，她就私自作主，拿出2000元钱帮他筹措了育苗资金。后来，全村有19户搞起了育苗，面积发展到了80多亩。仅杨锁文一户就种了6亩，成为了村里的育苗大户，育苗收入达到近30万元。', '为了带动更多的乡亲们发家致富，在和大伙一块发展育苗的同时，刘桂珍又发动全村男女老少利用农闲上山刨药材，农民一年下来也能收入三五千元。随着县里矿山企业的发展，刘桂珍和县劳动就业部门咨询联系，推荐村里的青壮年外出打工挣钱。有铁矿企业上班的，也有开挖掘机和装载机的。45岁的曹青梅，孩子在县城上学，也没个收入来源，她就联系县城环卫部门，给她寻了一个打扫卫生的营生，每月也有1400元的稳定收入，既能养家又能照顾孩子。刘桂珍看到村民们每天吃水还是靠肩挑人抬，开始让丈夫每天给这些行动不便的老人担水，后来通过跑乡里走县城，争取回了一些资金和项目，解决了乡亲们的喝水问题。这些年，刘桂珍和大伙一起种树苗、挖药材、修水渠、造田地，村里的生产生活条件好了，老百姓的腰包也逐渐鼓了起来，脱贫道路越走越宽，越走越有信心。', '刘桂珍回想自己走过的这些年，无论是在为村里办实事上，还是在生活中，自己都坚守一个信念，那就是只有“大家”发展了，“小家”才能幸福安康；只有得到“小家”的理解支持，“大家”才能挑担前行。前年夏天，一场大雨引发山洪，村里很多老人被困在家里。这对依山而建的段家湾村来说，是最危险的事情。当时路上水特别大，到处是滚下来的大石头和木头，外出特别危险。为了乡亲们的安全，刘桂珍冒着大雨挨门逐户指挥村民们全部安全撤离。虽然自己家中也被洪水围困，但想到乡亲们都安全了，刘桂珍还是感到十分欣慰。与丈夫结婚这么些年来，丈夫怨言很少，始终默默地将家里的重担挑起来，还当起了村里的义务修理工、办事员、通讯员。刘桂珍心里始终有一个坚定的信念，身上有一份沉甸甸的责任。她虽然没当过兵，但觉得村干部应该有个“阵地意识”，这个阵地就是村庄，既然上了阵地，再苦再难也要守住它、守好它。', '刘桂珍回想自己走过的这些年，无论是在为村里办实事上，还是在生活中，自己都坚守一个信念，那就是只有“大家”发展了，“小家”才能幸福安康；只有得到“小家”的理解支持，“大家”才能挑担前行。', '年夏天，一场大雨引发山洪，村里很多老人被困在家里。这对依山而建的段家湾村来说，是最危险的事情。当时路上水特别大，到处是滚下来的大石头和木头，外出特别危险。为了乡亲们的安全，刘桂珍冒着大雨挨门逐户指挥村民们全部', '撤离。虽然自己家中也被洪水围困，但想到乡亲们都安全了，刘桂珍还是感到十分欣慰。与丈夫结婚这么些年来，丈夫怨言很少，始终默默地将家里的重担挑起来，还当起了村里的义务修理工、办事员、通讯员。刘桂珍心里始终有一个坚定的信念，身上有一份沉甸甸的责任。她虽然没当过兵，但觉得村干部应该有个“阵地意识”，这个阵地就是村庄，既然上了阵地，再苦再难也要守住它、守好它。', '作为一名大山养育的女儿，刘桂珍深知一名共产党员最根本的品格就是坚守梦想，用自己的点滴言行，影响带动乡亲们与贫穷作斗争，自己最大的梦想就是让乡亲们早日过上美好生活。', '习近平总书记在党的十九大报告中提出，要全面实施乡村振兴战略，建设美丽乡村。更令人振奋的是，要让贫困人口和贫困地区同全国一道进入全面小康社会，一个都不能少，一个都不能掉队。而且再过三十年，国家变得更加富裕强大。今年已经55岁的刘桂珍觉得更有信心、更有决心、更有干劲为这个振奋人心的宏伟目标继续努力。现在段家湾村的各种基础条件还比较差，村民思想还很保守，与外界的信息联络也不畅通，特别是农民脱贫增收致富的渠道还不宽，这些问题都需要在今后努力解决。', '习近平总书记在党的十九大报告中提出，要全面实施乡村振兴战略，建设美丽乡村。更令人振奋的是，要让贫困人口和贫困地区同全国一道进入全面小康社会，一个都不能少，一个都不能掉队。而且再过三十年，国家变得更加富裕强大。今年已经', '岁的刘桂珍觉得更有信心、更有决心、更有干劲为这个振奋人心的宏伟目标继续努力。现在段家湾村的各种基础条件还比较差，村民思想还很保守，与外界的信息联络也不畅通，特别是农民脱贫增收致富的渠道还不宽，这些问题都需要在今后努力解决。', '在段家湾村未来的发展道路上，刘桂珍和乡亲们都有一个共同的愿望，就是在习近平新时代中国特色社会主义思想和党的十九大精神指引下，在上级的大力支持和帮助下，尽快让乡亲们奔上小康路。眼下，首要的任务就是要改变村民的落后思想，做好乡亲们的思想工作，切实把大家团结起来，心往一处想，劲往一处使。只有全村干部群众拧成一股绳，才能干出新天地。在统一大家思想的基础上，刘桂珍有这么几个初步的想法：一是积极发展产业项目，让村民尽快富起来。打算在继续发展育苗的基础上，在山坡林地上发展猪苓等中药材。同时，为了使这两个产业项目能够持续带动乡亲们增收致富，计划成立畜牧养殖和中药材种植专业合作社，并不断扩大种植规模，更多增加农民收入。另外，还打算依托政府的支持和周边企业的带动，发展乡村旅游；依托泉水资源丰富的优势，与一家企业谋求合作，搞矿泉水开发，进一步拓宽老百姓的增收渠道；二是改善基础设施条件，让家乡尽快美起来。段家湾村虽然经过多年的努力，村容村貌有所改善，但各种基础配套设施还比较差，距离群众的期盼还有较大差距。刘桂珍计划充分利用国家实施脱贫攻坚和乡村振兴战略的大好机遇，争取资金建设人畜饮水工程，接通互联网，让乡亲们坐在家里就能喝上自来水，了解外面的世界，早日让段家湾村人过上幸福美好的新生活。', '支持和帮助下，尽快让乡亲们奔上小康路。眼下，首要的任务就是要改变村民的落后思想，做好乡亲们的思想工作，切实把大家团结起来，心往一处想，劲往一处使。只有全村干部群众拧成一股绳，才能干出新天地。在统一大家思想的基础上，刘桂珍有这么几个初步的想法：一是积极发展产业项目，让村民尽快富起来。打算在继续发展育苗的基础上，在山坡林地上发展猪苓等中药材。同时，为了使这两个产业', '能够持续带动乡亲们增收致富，计划成立畜牧养殖和中药材种植专业合作社，并不断扩大种植规模，更多增加农民收入。另外，还打算依托政府的支持和周边企业的带动，发展乡村旅游；依托泉水资源丰富的优势，与一家企业谋求合作，搞矿泉水开发，进一步拓宽老百姓的增收渠道', '二是改善基础设施条件，让家乡尽快美起来。段家湾村虽然经过多年的努力，村容村貌有所改善，但各种基础配套设施还比较差，距离群众的期盼还有较大差距。刘桂珍计划充分利用国家实施脱贫攻坚和乡村', '，争取资金建设人畜饮水工程，接通互联网，让乡亲们坐在家里就能喝上自来水，了解外面的世界，早日让段家湾村人过上幸福美好的新生活。']</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A45" t="n">
+        <v>22</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>忻州市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>忻州市</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
           <t>代县县委书记田永清在电子商务公共服务中心调研</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>2018-08-10</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>http://www.sxxz.gov.cn/zwyw/qxdt/201808/t20180810_1903301.shtml</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>['8月9日上午，代县县委书记田永清与县委常委施福喜带领县委办、经信局、人社局、农委、文旅委、市场局、团县委、供销社、科协的主要负责同志，深入到新城区电子商务公共服务中心调研，并提出指导性意见。', '田永清现场参观了电子商务公共服务中心的电子商务运行、农产品布展和办公场所建设情况，并听取中标承担电子商务公共服务项目的上海太德励拓网络科技有限公司负责人崔玉建的有关情况介绍。', '去年8月23日，代县正式被财政部、商务部列为电子商务进农村综合示范县，中央财政对每个示范县给予2000万元的财政资金支持，旨在有效推动示范地区农村电子商务应用，健全农村电子商务综合服务体系，培育农村网络消费市场，推进农产品商品化、品牌化、标准化，推动线上工业品下乡和农产品进城以及扶贫开发，对于改善农村消费环境，提升农村流通发展水平具有极大的促进作用。获批示范县以来，代县以“政府引导、市场运作、创优环境、创新特色”为发展思路，以特色产业特色产品为基础，以电商扶贫为主题，整合社会资源，形成广泛合力，普及推广电商知识，建立健全支撑体系，着力打造电商发展“生态闭环”，示范县建设起步良好，使电子商务发展步入快车道。目前，全县干部群众触网触电兴趣浓厚，多类知名平台和本土电商融合发展，农村商业模式逐渐创新，电子商务交易规模不断扩大。今年上半年，全县网络产品交易额800多万元，杂粮、黄酒、杏干、土鸡蛋等农特产品成为网上抢手货，上行农产品的价格大幅提升，有力地助推了全县的脱贫攻坚工作。', '在随后召开的调研座谈会上，田永清听取了县经信局负责同志有关电子商务进农村工作情况汇报。田永清指出，作为县级电子商务公共服务中心，一定要发挥好展示、培训、孵化、仓储、服务等功能作用，参与服务工作的大都是年轻人，无论布展设计、外观色调、内部色彩，还是团队活力调动，都要适应年轻人的生活和思维方式。要组织大家前去电子商务搞得好的宁武、岢岚、静乐三县考察学习，借鉴先进做法和经验为我所用，把我县的电子商务进农村工作搞得更好。电子商务进农村作为脱贫攻坚的一大措施，要充分加以体现，大张旗鼓营造浓厚舆论氛围，让全县企业家和干部群众家喻户晓，人人皆知。电子商务进农村作为新生事物，在实施过程中遇到困难和问题是正常的，在当前电子商务激烈竞争的大潮中，只有竞争才会倒逼企业家、干部和农民群众主动融入新环境，将特色产业和农产品做强做大，取得可观经济效益，助推脱贫攻坚。有关职能部门要主动对接电子商务工作，作为义不容辞的职责，做到有目标、有任务、有计划、有量化指标，遇到困难和问题共同研究解决。我们就是要把电子商务进农村作为代县人转变理念、推动创新的发展路径，将它的作用发挥得越来越大，推动全县经济社会转型跨越发展。（石俊文）']</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A46" t="n">
+        <v>22</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>忻州市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
+          <t>忻州市</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
           <t>改革创新奋发有为大讨论全省各市自我加压谋发展</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>2019-04-10</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>http://www.sxxz.gov.cn/zwyw/szfyw/201904/t20190410_2798255.shtml</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>['“改革创新、奋发有为”大讨论启动以来，全省各市主动对标、积极超标、敢于立标，树一流标准、练一流本领、创一流业绩，力求在提升工作标杆和质量上取得新突破。各市通过走出去学先进，摆问题找差距，自我加压、开拓奋进，全面拓展各项工作新局面。', '太原市高质量开好全市对标一流述职评议会，10县（市、区）委书记和部分市直部门述职发言，并组织了民主测评。市委常委和副市长按5个块面听取了其余57个市直单位述职汇报，实现对标一流述职全覆盖。同时，太原市对标合肥创新转型、浙江创优环境、深圳激励双创、长沙解决房屋产权办证历史遗留问题的做法，全面提升工作和发展水平。对标新时代好干部标准，出台《党员干部不作为慢作为问题监督问责工作办法》，以干部队伍的进取精神和实干作风推动各项工作再上新台阶。', '大同市委市政府主要领导率团分别赴京津冀、广东等地学习考察、对接项目，对标一流。通过抓重点改革、抓重大项目台账，实施百项“折子工程”，定时定人定目标、一项一项盯进、一项一项落实，奋力夺取一季度“开门红”。全市2019“深化转型项目建设年”百亿项目集中开工，新开工项目58个，总投资355亿元，大同正以一流状态、一流业绩全面拓展全市改革发展新局面。', '朔州市党政考察团先后在深圳、台州等地考察学习，对标一流，主动作为，大力实施创新驱动战略。考察团先后考察学习深圳湾创业广场、前海蛇口自贸片区、华为公司、台州湾循环经济产业集聚区、亚欧汽车制造台州有限公司、新桥镇金良社区、黄岩智能模具小镇、黄岩区屿头乡沙滩村、浙江怡和卫浴有限公司等。目前，朔州市正加快先进经验落地，全面深化改革。', '忻州市10个市直部门主要负责人坚持问题导向，围绕对标一流进行了述职，21个市直部门进行书面述职，市领导分别进行点评。该市政法、宣传、统战等部门在分管市领导组织下，相继召开了分组述职评议会。忻州市委指出，做好忻州工作，要在领导干部，难在自我革命，贵在对标一流，成在务实行动。特别是一把手，要当好“明白人”“实干家”，进一步团结带领干部群众全面对标，在改革创新、奋发有为上作出新贡献。', '晋中市围绕深度融入太原都市区建设、决战决胜全面挺进全省第一方阵，制定了对标一流的行动方案。对标福建晋江、上海张江高新区、深圳前海自贸区等经验，确保再有一批改革进入全省全国第一方阵。对标陕西西安、河南郑州，加大世界500强、国内500强企业招商引资力度。对标湖北黄石，加大底特律电动跑车等项目建设力度，打造能源革命排头兵。对标北京“街乡吹哨、部门报到”模式、浙江金华“党建活力指数”经验，提高“两新”组织党建工作质量。', '阳泉市主要领导赴上海考察对接新一代信息技术、文旅康养产业等转型重点项目。阳泉紧抓国发42号文赋予阳泉开展智能物联网应用基地试点建设的重大政策机遇，以百度云计算中心、百度AI CITY与无人驾驶车路协同示范区落户阳泉为契机，积极与科技前沿企业合作，进一步探索车路协同发展新路径。同时，把文旅康养产业作为转型发展主攻方向强力推进，带动乡村振兴和农村人居环境改善，推动地方经济转型发展。', '吕梁市党政代表团赴江西省吉安市、抚州市、上饶市学习考察后提出，要认真学习借鉴三市发展和脱贫攻坚中的好经验好做法，坚持加强党的建设与激发群众内生动力结合，坚持脱贫攻坚与乡村振兴结合，坚持产业发展短期见效与长远发展结合，坚持区域经济发展与文化振兴结合，坚持改革创新与对外开放结合，坚持城市发展与乡村发展结合，坚持弘扬革命精神与重视物质利益结合，实事求是闯新路，真正把学习考察的成效转化为推动吕梁发展的实效。', '长治市委召开了对标一流述职评议会。会议指出，全市各县区各部门各行业要对标一流谋划推进工作，坚持高点定位，找到全省全国一流标准，找到工作差距，明确追赶超越的具体措施。工作基础好的要全面对标，使更多工作进入全省第一方阵，力争创出一流业绩。工作基础薄弱的，要主动学习借鉴，在强弱项、补短板上狠下功夫，力争实现重点突破，在全市上下形成你追我赶、争先进位的浓厚氛围。', '晋城市党政代表团赴河南四市进行考察学习后提出，要紧密联系实际，在全国大坐标、中原城市群、全省范围三个维度下找准自身所处位置，用好“拿来主义”，推动全市的各项政策更加成熟、更加符合晋城市发展实际。坚决解决干部不想干的问题，让不想干的干部让位，以敢为人先、担当进取的精神状态，主动对标一流，不断推动各项工作取得新突破，让群众有切实的获得感。', '临汾市通过对标一流述职承诺评议活动，引导广大干部结合岗位实际把一流标准树立起来，做到干有压力、学有榜样、追有目标。临汾市提出，广大干部要进一步拓宽视野、放宽思路，在全市上下树立起奋勇争先、对标一流的姿态，营造出求真务实、动真较劲的氛围。要扎扎实实选标杆、定坐标，明确近期追赶的目标和长期奋斗的方向，按照确定的对标对象和领域，列出时间表、路线图、任务书，分步推进。', '运城市提出，要进一步从全球视野、全国格局中审视本地本部门本系统的发展，立足自身优势，在更宽领域、更高层次谋划工作，切实找准在运城建设全局中的定位；以大讨论为契机，进一步思考职责，确立新标杆，把班子队伍的思维理念带出来、能力素质带出来、作风状态带出来；主动对标、积极超标、敢于立标，做到自我加压、开拓奋进，确保更多工作进入全省第一方阵、全国先进行列。']</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A47" t="n">
+        <v>22</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>忻州市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>忻州市</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>李俊明郑连生带领忻州市党政代表团赴天津考察学习招商</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>2019-04-24</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>http://www.sxxz.gov.cn/zwyw/xzyw/201904/t20190424_2850239.shtml</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>['好风凭借力，开放赢未来。4月22日，省人大常委会副主任、市委书记李俊明，市委副书记、市长郑连生带领我市党政代表团赴天津进行考察学习，并举办忻州市与京津冀地区联动发展（天津）恳谈会暨项目集中签约仪式。这是今年我市首场集中对外招商活动，也是以实际行动转化“改革创新、奋发有为”大讨论阶段成果的具体举措。天津泰达投资控股有限公司董事长张秉军，省政府驻天津办事处党组书记、主任魏成生，天津山西商会党委书记、终身名誉会长张世伦等，天津、北京、河北的几十家企业负责人出席恳谈签约会。市领导崔建新、王继明、范建民，市县有关职能部门负责人和企业家参加考察恳谈活动，范建民主持恳谈会并作主旨推介。', '日，省人大常委会副主任、市委书记李俊明，市委副书记、市长郑连生带领我市党政代表团赴天津进行考察学习，并举办忻州市与京津冀地区联动发展（天津）恳谈会暨项目集中签约仪式。这是今年我市首场集中对外招商活动，也是以实际行动转化“改革创新、奋发有为”大讨论阶段成果的具体举措。天津泰达投资控股有限公司董事长张秉军，省政府驻天津办事处党组书记、主任魏成生，天津山西商会党委书记、终身名誉会长张世伦等，天津、北京、河北的几十家企业负责人出席恳谈签约会。市领导崔建新、王继明、范建民，市县有关职能部门负责人和企业家参加考察恳谈活动，范建民主持恳谈会并作主旨推介。', '恳谈会上，李俊明代表忻州市委、市政府对京津冀各界长期以来对忻州的关心支持表示衷心感谢。他说，忻州是大山大水大生态，横跨燕山太行山和吕梁山，黄河过境，汾河发源，桑干河流入北京，滹沱河进入海河流进天津，砂河清洋河大清河汇入河北白洋淀，忻州与京津冀不仅一衣带水，更是京津冀的水源地。忻州能源结构最优，电力总装机已达1200万千瓦，特别是水电、风电、光伏发电等新能源装机超过火电装机数，正成为重要的清洁能源保障地。忻州承东启西，与省内和河北、陕西、内蒙古的十市接壤，是环渤海、黄河几字湾、晋陕蒙金三角、丝绸之路上的重要交通中转地，更是西气东输、西电东送、西煤东运的大通道和能源保障基地。忻州县县通高速、通铁路，高速公路里程全省第一，高速铁路大西线向南已经运营，向北至怀仁“五一”即将通车，与大同有望年内通车，向东的雄忻线力争年内开工，五台山机场口岸全面开放进一步提速，全市以高铁为核心的“铁公机”“岸港网”现代综合立体交通体系、对外开放格局正在形成，内陆地区对外开放“新高地”目标逐渐接近。忻州具备充足的环境空间容量，为承接京津冀产业转移创造了条件。忻州全面建设六大发展环境，全面打造“六最”营商环境，为来忻企业家提供了完备的保障要素和扎实的基础平台。我们为忻州籍在外发展的企业家感到自豪，真诚期盼老乡回家、情感回归、人才回乡、资金回流，真诚欢迎在外的忻州籍、山西籍企业家回到家乡、建设故乡、回馈桑梓，真诚欢迎外地籍企业家到忻州投资兴业。开放的忻州欢迎你，好客淳朴的忻州人期待各方企业家来忻观光考察、投资洽谈、共同兴业。忻州是美丽的“心灵之舟”，去了不会耽搁多少时间，不去就可能后悔一辈子，投资兴业选择忻州适逢其时，正当其时。', '恳谈会上，李俊明代表忻州市委、市政府对京津冀各界长期以来对忻州的关心支持表示衷心感谢。他说，忻州是大山大水大生态，横跨燕山太行山和吕梁山，黄河过境，汾河发源，桑干河流入北京，滹沱河进入海河流进天津，砂河清洋河大清河汇入河北白洋淀，忻州与京津冀不仅一衣带水，更是京津冀的水源地。忻州能源结构最优，电力总装机已达', '万千瓦，特别是水电、风电、光伏发电等新能源装机超过火电装机数，正成为重要的清洁能源保障地。忻州承东启西，与省内和河北、陕西、内蒙古的十市接壤，是环渤海、黄河几字湾、晋陕蒙金三角、丝绸之路上的重要交通中转地，更是西气东输、西电东送、西煤东运的大通道和能源保障基地。忻州县县通高速、通铁路，高速公路里程全省第一，高速铁路大西线向南已经运营，向北至怀仁“五一”即将通车，与大同有望年内通车，向东的雄忻线力争年内开工，五台山机场口岸全面开放进一步提速，全市以高铁为核心的“铁公机”“岸港网”现代综合立体交通体系、对外开放格局正在形成，内陆地区对外开放“新高地”目标逐渐接近。忻州具备充足的环境空间容量，为承接京津冀产业转移创造了条件。忻州全面建设六大发展环境，全面打造“六最”营商环境，为来忻企业家提供了完备的保障要素和扎实的基础平台。我们为忻州籍在外发展的企业家感到自豪，真诚期盼老乡回家、情感回归、人才回乡、资金回流，真诚欢迎在外的忻州籍、山西籍企业家回到家乡、建设故乡、回馈桑梓，真诚欢迎外地籍企业家到忻州投资兴业。开放的忻州欢迎你，好客淳朴的忻州人期待各方企业家来忻观光考察、投资洽谈、共同兴业。忻州是美丽的“心灵之舟”，去了不会耽搁多少时间，不去就可能后悔一辈子，投资兴业选择忻州适逢其时，正当其时。', '范建民从忻州作为革命老区、贫困地区、资源富区、人文大区、旅游热区和发展新区等方面所具有的区位、交通、土地、能源、环境、产业等优势作了主旨推介。五台、定襄、保德、偏关4县和忻州经济开发区主要负责人分别进行县（区）推介发言。省政府驻天津办事处党组成员、副主任曲志鹏代表驻津办和省环渤海招商局向活动的成功举办表示祝贺。张秉军表示，忻州是一块发展的热土和创业的宝地，发展潜力无限。张世伦表示，忻州人诚信、实在，希望企业家们快到忻州去投资。天津市铸锻行业协会会长胡继宝交流了行业发展动态和与定襄县的互动情况。企业家们纷纷赞赏忻州融入环渤海、融入京津冀的意识和改革开放的水平，表示将不断拓展与忻州的合作领域，共创忻州高质量发展的美好未来。', '范建民从忻州作为革命老区、贫困地区、资源富区、人文大区、旅游热区和发展新区等方面所具有的区位、交通、土地、能源、环境、产业等优势作了主旨推介。五台、定襄、保德、偏关', '县和忻州经济开发区主要负责人分别进行县（区）推介发言。省政府驻天津办事处党组成员、副主任曲志鹏代表驻津办和省环渤海招商局向活动的成功举办表示祝贺。张秉军表示，忻州是一块发展的热土和创业的宝地，发展潜力无限。张世伦表示，忻州人诚信、实在，希望企业家们快到忻州去投资。天津市铸锻行业协会会长胡继宝交流了行业发展动态和与定襄县的互动情况。企业家们纷纷赞赏忻州融入环渤海、融入京津冀的意识和改革开放的水平，表示将不断拓展与忻州的合作领域，共创忻州高质量发展的美好未来。', '在与会人员共同见证下，4县1区分别与涉及高端装备制造、生态环保、文化旅游等方面的8大类13个项目的企业进行签约，投资额120余亿元。定襄县与省驻津办、天津山西商会分别签署战略合作协议，授予驻津办招商引资联络处和定襄县经济联络部牌匾，为招商大使颁发聘书。', '余亿元。定襄县与省驻津办、天津山西商会分别签署战略合作协议，授予驻津办招商引资联络处和定襄县经济联络部牌匾，为招商大使颁发聘书。', '在津期间，我市党政代表团实地考察了泰达环保有限公司垃圾发电项目，天津光电集团有限公司研发中心、数据中心，梅江会展中心和泰达投资控股有限公司的文化产业项目，对全球思维、开放理念、先进工艺有了切身体会。']</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A48" t="n">
+        <v>22</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>忻州市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>忻州市</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
           <t>忻州市组团赴省转型综合改革示范区考察</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>2019-03-26</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>http://www.sxxz.gov.cn/zwyw/xzyw/201903/t20190326_2794539.shtml</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>['3月21日，副市长范建民带领市工信、商务和忻州、原平、繁峙三个省级开发区等单位负责人，来到山西省转型综合改革示范区进行学习考察。省政府副秘书长、省示范区党工委书记、管委会主任张金旺介绍情况并出席有关活动。', '日，副市长范建民带领市工信、商务和忻州、原平、繁峙三个省级开发区等单位负责人，来到山西省转型综合改革示范区进行学习考察。省政府副秘书长、省示范区党工委书记、管委会主任张金旺介绍情况并出席有关活动。', '考察组一行参观了省综改区政务大厅、省综改区展览室，听取工作人员情况介绍，观看视频，深入了解省示范区运行情况。', '张金旺抽出时间，专门接待了忻州考察组，并为大家作了认真、精彩的情况介绍。他表示，各地发展园区首先要搞好内部改革，练内功、强基础，其次要紧紧抓住各地特色资源禀赋，发挥特色，办出优势。', '范建民指出，山西转型综合改革示范区在短短两年时间迅速发展，成效显著，形成了一套可借鉴、可复制的成功经验，忻州有关部门要专项对接，认真学习好做法，深入研究，找出差距，努力为推进全市园区建设作出新的贡献。']</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A49" t="n">
+        <v>22</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>忻州市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
+          <t>忻州市</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
           <t>省人大常委会副主任市委书记李俊明市长郑连生带领我市党政代表团赴天津考察学习并招商京津冀地区联动发展天津恳谈会签约亿余元</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>2019-04-24</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>http://www.0350tv.cn/demand/2019-04/24/cms66841article.shtml</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>['2019年04月23日忻州新闻——省人大常委会副主任 市委书记李俊明 市长郑连生带领我市党政代表团赴天津考察学习并招商 京津冀地区联动发展(天津)恳谈会签约120亿余元']</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A50" t="n">
+        <v>22</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>忻州市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
+          <t>忻州市</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
           <t>晋城市政府考察组来忻考察建设用地公开出让经验</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>2018-06-05</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>http://www.sxxz.gov.cn/zwyw/bmdt/201806/t20180622_986696.shtml</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>['6月5日， 由晋城市市政府副秘书长李永和带队的考察组一行 7 人 ,来忻考察学习国有建设用地公开出让方面的经验做法。', '忻州市政府副秘书长刘云飞、市国土资源局局长王献明、副局长秦纲、以及市国土局、市规划局相关科室负责人参加了座谈会。', '座谈会上，双方围绕土地出让相关业务流程，进行了沟通和交流。王献明局长向客人介绍了忻州的区域状况和市国土局的基本情况，就土地出让的做法和取得的成果向客人作了介绍。', '考察组成员还有晋城市国土资源局党组书记 、 局长刘闯、晋城市土地收购储备中心主任 张怀慎 、晋城市国土资源局利用科科长 张军社 、晋城市规划局用地规划管理科科长王海霞 。']</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A51" t="n">
+        <v>22</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>忻州市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
+          <t>忻州市</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
           <t>忻府区万亩老果园改造工程全面铺开</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>2018-05-03</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>http://www.sxxz.gov.cn/zwyw/qxdt/201805/t20180503_656851.shtml</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>['今年，忻府区围绕提质增效，采取“奖补+ 服务”的有效措施，全面铺开万亩老果园改造工程。', '区财政继续拿出100 万元，对万亩老果园改造工程进行奖补扶持。新品种引进栽植1000 亩，50 亩以上规模的对树苗进行奖补。高接换优700 亩，50 亩以上规模的对接穗进行奖补。创建无公害、绿色果品品牌，今年认证5 个，每个基地除享受市级补贴外，区财政再给予奖补。贮藏设施，今年奖补3 座果品贮藏恒温库，每座15 万元。机械设备，对间伐减密、树形改造在100 亩以上、土壤有机质改良在300 亩以上、果园生草面积在50 亩以上、病虫害综合防治面积在100 亩以上，单项评比进入全区前5 名的实施单位，给予油锯、开沟机、电动式打草机、高压自动式喷雾器等设备奖励。这些措施，大大调动了果农实施万亩老果园改造工程的积极性。', '同时，去冬今春，该区还组织技术人员进村入户对果农开展技术培训，编印了《忻府区果园改造技术资料》，召开了500人参加的果园改造技术培训会，组织50 名果农、农技员赴吉县、隰县考察学习苹果、玉露香梨果园管理技术等。区蚕果站技术人员深入田间地头、农户家中，宣传果园改造政策，指导果园改造技术。各乡镇（办）、村积极响应，围绕新品种引进、高接换优、树形改造、果实套袋、土壤有机质提升、病虫害综合防治等，积极培育典型，全力推动老果园改造。']</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A52" t="n">
+        <v>22</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>忻州市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
+          <t>忻州市</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
           <t>定襄县用改革创新谋教育振兴</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>2018-03-28</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>http://www.sxxz.gov.cn/zwyw/qxdt/201803/t20180328_368862.shtml</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>['党的十九大明确提出“建设教育强国是中华民族伟大复兴的基础工程，必须把教育事业放在优先位置，深化教育改革，加快教育现代化，办好人民满意的教育。”近年来，定襄县委、县政府高度重视教育工作，全力实施“14661”教育改革思路，确立了党政重视、社会助力、部门主抓的良好工作机制，形成了全县人人热爱教育、人人关注教育、人人奉献教育的浓厚氛围。', '大调研形成改革思路。2016 年8 月，新一届县委、县政府高度重视教育，主要领导亲自带队，外出赴河北衡水、山西怀仁等教育发达地区考察学习先进经验，带头实地深入县城和农村学校调研摸底，向全社会征集对教育发展的意见和建议，在教育系统开展十个“怎么看”大讨论，让校长和教师寻找破题之策。在全面调研和广泛讨论的基础上，县委、县政府立足定襄县的区位、文化、传统和机遇四大优势，根据全县教育的实际情况，针对群众普遍反映的优质生源外流、布局结构不合理等问题，提出了“14661”的改革思路，以提高教育教学质量为出发点和落脚点，着力抓好教育行政主管部门、校长、班主任、教师四支队伍建设，全面落实好六项举措，真正体现忠诚干教育、担当干教育、智慧干教育、务实干教育、团结干教育、高效干教育，实现“重振定襄教育辉煌，办定襄人民满意的教育、办与定襄地位相称的教育”的目标。', '大整顿凝聚振兴合力。思路引领方向，是到达光辉彼岸的帆；问题关乎成败，是航船上的洞，必须全力以赴尽早解决。2016 年9 月，定襄县拉开教育教学大整顿帷幕，列出全县教育存在的4 大类43 个方面的问题，出台大整顿方案，由县委、县政府领导亲自挂帅，分阶段、分对象、分类别全方位开展大整顿，校长、教师、班主任全部参与，校容校貌、小商小贩全部列入整顿范围，并开展教研教学大演练、校园文化大展示、师德师风大讨论、管理能力大比武和教育质量大评比五大活动，与教学大整顿活动相互促进、相得益彰。在督促检查上严要求，在舆论宣传上造氛围，在健全机制上下功夫。大整顿取得阶段性成果，教育战线的合力已经形成，教育教学和管理秩序正在步入常态化、正规化的良性发展轨道。', '大调整优化资源配置。三年来，定襄县教育累计投资60287 万元，对全县中小学校的软硬件设施进行改造提升，学校办学条件有了质的飞跃，去年高标准通过了国家义务教育均衡发展的验收。验收仅是开始，不是目的。如何能满足孩子们就近到条件更好的学校上学，享受到更优质的教育，始终是定襄县委、县政府追求的目标。在充分调研和专家论证的基础上，定襄县提出了“实事求是、分步实施，分类推进、科学布局”的教学点优化调整工作思路。分三步走，用三年时间，通过改扩建、租赁、PPP 等多种模式，全面完成全县中小学校布局优化调整工作。新建第二实验小学联盟校、扩建一波中学、扩建蒋村学校、建设东力学校综合楼等建设项目纳入第一批布局点的学校已经动工；北关幼儿园和河边中心幼儿园主体已经完工，室内装饰、室外附属工程、设备购置及师资配备等各项工作是项目上半年的重点，秋季开学前建成投用。定襄二中迁建和职教中心新建项目、南关学校迁建、西大街棚户区改造幼儿园和小学等项目纳入第二批布局点的学校，已动工的正在加快建设进度，未动工的正在进入程序，力争早日开工建设，2019 年建成投用。其余学校布局点放在2020 年完成，逐步形成“布局合理、硬件达标、管理规范、质量合格”的义务教育均衡发展新局面。特别是吸收定襄名师、学科带头人参加的县教研室和县进修校已经成为教育教学质量提升的总牵引，成为定襄教育振兴的动力源。', '大动作赢得社会支持。从大调研，到大整顿，再到大调整，定襄县委、县政府一系列的教育举措被社会广泛关注。特别在财政极其困难的情况下，每年拿出80 余万元为全县所有教师进行免费体检；三年拿出360 多万元，奖励教育系统的先进集体和个人。今年年初，该县县委、县政府发出捐资助教倡议，从企业到农村、从机关干部到乡村群众，云集响应，立即行动，截至3 月21 日晚，捐款已达680.59 万元，充分表明了县委、县政府大抓教育、特抓教育赢得了企业、农村等社会各界的广泛支持。3 月23 日，定襄县召开的2018 年教育工作会隆重表彰了“十佳校长”、首届“定襄名师”、“捐资助教楷模”“义务教育均衡发展先进集体和个人”和“体育工作先进集体”，更加激发了全县校长、教师和教育工作者爱岗敬业、激情奉献的干劲和活力。', '教育捐资还在继续，热心定襄教育的爱心企业和人士还有很多，捐款的数量将会随着时间的推移不断刷新。不变的是定襄县委、县政府重视教育、发展教育、振兴教育坚如磐石的决心，不变的是定襄教育系统工作者敬业奉献、持之以恒的韧劲，不变的是定襄人民对教育振兴的热切期盼。']</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A53" t="n">
+        <v>22</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>忻州市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
+          <t>忻州市</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
           <t>河曲组织扶贫干部到南也村互动交流摘帽经验</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>2018-05-18</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>http://www.sxxz.gov.cn/zwyw/qxdt/201805/t20180518_773580.shtml</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>['典型示范，交流经验，取长补短，鼓劲加油。5月17日上午，河曲县委组织部、县扶贫办组织省直单位包村队长、驻村工作队长、第一书记，以及我县未脱贫村驻村工作队长、第一书记赴前川乡南也村进行实地参观学习。省社科院副院长、省驻县大队长、县委副书记候广章带队参观学习。', '省住建厅干部冯毅在南也村工作的这三年多来，以坚定的信心和饱满的热情，全身心投入到新的岗位工作中，在村级工作岗位上洒下了辛勤的汗水，留下了进取的身影，刻下了奋斗的印迹，不负重托，不辱使命，充分体现了一个下派干部厚德善谋、笃行为民的本色，以严谨务实的工作态度赢得了县、乡党委、政府和当地广大干部群众的一致好评。在南也村委会，冯毅从基础建设、产业发展以及精神文明建设作了简要的说明。候广章一行先后参观了前川乡南也村文化墙、支部及村委活动室、日间照料中心、光伏发电扶贫项目、南也一家亲种植专业合作社。参观学习中，省市县驻村干部就脱贫摘帽与冯毅及村领导进行了深入的交流，大家详细了解了南也村精准扶贫运行模式、项目投资发展、市场前景以及经济效益情况，大家认为南也村精准扶贫运行模式值得学习借鉴。', '三年来，河曲县前川乡南也村在省政协、省住建厅、县委县政府和乡党委政府的关心和支持下，相继完成六项基础设施建设，即自来水入户工程、维修南也大戏台、修建南也村村标、建设文化墙、修建日间照料中心和修缮支部及村委会活动室。实施了七项产业扶贫项目，购买了乌珠穆青羊、建设锁功能加工房、建设饲料加工房、推进渗水地膜种植技术、退耕还林、土豆订单种植和光伏发电。积极推进文化、科技、教育、金融和健康扶贫，成功举办各类下基层助力脱贫活动。南也人民精神面貌有了较大提升，村容村貌有了显著变化，生活质量也有了明显改善，在今后的发展中，南也村将一如既往的落实县委县政府的安排部署，在乡党委政府的带领下，苦干实干、全力以赴，为南也村脱贫摘帽和迈向小康贡献力量。', '通过实地考察学习、互相交流，驻村干部们更加开阔了视野、明确了要求，他们表示，要向冯毅学习，要结合这次县委组织部新任驻村干部培训和南也经验，联系实际，理清思路，为打赢脱贫摘帽攻坚战作出积极贡献。']</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A54" t="n">
+        <v>22</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>忻州市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
+          <t>忻州市</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
           <t>扎实开展万名干部大调研</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>2017-12-04</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>http://www.sxxz.gov.cn/zwyw/szfyw/201712/t20171212_107671.shtml</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>['开展省市县万名干部大调研是贯彻落实党的十九大精神的重大举措，也是贯彻落实习近平总书记大兴调查研究之风指示精神。省市县三级领导干部都要积极行动起来，大兴调查研究之风，围绕贯彻落实党的十九大提出的目标任务，扑下身子、沉到一线，一方面深入宣讲党的十九大精神，一方面总结基层新鲜经验，把情况摸透、把问题找准、把举措搞实，进而推进当前工作、谋划明年思路，转变干部作风、提高工作本领。', '调研什么？万名干部要紧紧围绕贯彻落实党的十九大精神和习近平总书记视察山西重要讲话精神，结合自身职责和正在做的事情，对全省经济社会发展中的重大问题开展调研。要按照党的十九大提出的新要求，继续完善思路，推出一批新的政策举措，不断增强工作的原则性、系统性、预见性、创造性。要坚持长短结合、坚持目标导向和问题导向，确保拿出一批高质量的调研成果，为开好省委经济工作会议和明年元月开好省“两会”做好准备。', '如何调研？要坚持从群众中来、到群众中去，扑下身子、沉到一线，尽可能多听一听基层和一线的声音，尽可能多接触第一手材料。你给群众说空的，群众就给你来虚的。领导干部调研要放下架子、俯下身子、抛开面子，与群众坐在一条板凳上拉家常、问冷暖，多让群众说话，多请不同群众说话。调研可结合各自工作实际，采取到基层宣讲党的十九大精神、召开座谈会、走访联系点、现场办公、驻村蹲点、赴外地学习考察等灵活多样的方式进行。要善于运用大数据分析、问卷调查、专家咨询等现代调研方式，提高调查研究的质量和效率。要统筹处理好调查研究与日常工作的关系，力戒形式主义、浅尝辄止，做到“两不误”。调研人员要严格遵守中央八项规定精神，廉洁自律，轻车简从，不搞迎来送往，不搞层层陪同，切实减轻基层负担。', '山西已经翻开新的一页，迈上新的征程。各级领导干部要迈出适应新时代节拍的铿锵步伐，创造无愧于新时代的业绩，以习近平新时代中国特色社会主义思想为指引，围绕党的十九大提出的新目标新任务新要求，明确调研课题，聚焦调研重点，采取多种方式，切实把情况搞透、把思路搞准、把举措搞实，全面落实省委作出的部署，以实际成效赢得人民群众的信赖，推动党的十九大精神在山西生根开花结果。']</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A55" t="n">
+        <v>22</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>忻州市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
+          <t>忻州市</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
           <t>山西招商引资活力四射</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>2018-01-05</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>http://www.sxxz.gov.cn/zwyw/szfyw/201801/t20180105_155799.shtml</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>['筑巢引凤，满园春色，一派生机，三晋大地建设热潮在涌动，2017年的山西招商引资活力四射。', '这一年，奋力转型综改的山西人，一次次踏上招商引资的征程，全面展示开放新形象，推介发展新优势，引进转型新动能。', '我省为了加强招商引资考核力度，制订并印发了《山西省招商引资考核办法》（试行）。新考核办法彻底改变过去仅仅注重项目签约数量和金额，对签约项目的落地、开工、建设等后续工作重视不够的考核理念，重点强调开工率和开工数，把开工率的考核权重加大到70%，签约项目完成率占5%，资金到位率占5%，引进重大项目情况占15%，引导各级各有关部门在招商工作中更加注重项目落地，更加注重招商质量，更加注重招商实效。', '过去，招商项目仅仅注重项目签约数量和金额，如今，更加注重项目落地，更加注重招商质量，更加注重招商实效，加强了招商引资顶层设计。', '为保证签约项目落地，我省全面开展项目落地专项督查。派出6个督查组对全省11市和省发改委、省经信委、省国土厅、省环保厅、省住建厅、省商务厅等6家省直有关厅局开展了招商引资签约项目落地情况专项督查，摸清了我省招商引资签约项目底数，理清了存在的问题，为推进项目落地奠定了坚实的基础。', '改革创新招商引资是我省商务部门去年的重点工作。据了解，上半年，山西组织多场系列重大招商引资活动。省委、省政府先后组织举办了党政代表团赴天津学习考察签约仪式、晋商晋才回乡创业创新工程启动大会、山西省战略性新兴产业重点项目推介会、央企助力山西转型综改会议、山西招商引资（珠三角）推介会等重大招商引资活动。5场活动共签约131个项目和协议。其中，投资类项目共93个，总投资额1066.85亿元；协议与股权类项目38个。', '2017年我省招商引资好戏连台，掌声阵阵，喝彩如潮……晋中市、吕梁市、长治市、临汾市不断优化营商环境，助力签约项目落地，在建立招商引资机制、创新招商引资方式，实行无审批管理、服务投资商、强化责任制、开展招商活动等形成了一些典型经验和做法。', '晋中市对全市范围内的市投资促进局牵头，发改、经信、住建、规划、环保、国土、科技助力，一个重大招商项目评审制度的建立，前期评审论证、第三方机构认证、专家全面论证，项目台账一目了然。项目好不好，先过道道评审关，大浪淘沙始见“金”。', '吕梁市主要领导亲自带队精准招商、叩门招商，“走出去，请进来”全力进行大推介、大对接，足迹遍布全国30多个城市。主动邀请国内一流策划机构麦肯锡公司进行了九大产业链及招商路径进行规划设计，引来中国有色金属研究院、华为集团等一大批领军企业和科研院所纷纷“落户”吕梁。', '“3个24小时”微信群，360度环绕立体无死角，“3个24小时”微信群无所不能。吕梁市招商引资创造性地把项目建设、经济运行问题，做到24小时内部门领导责任到人，随时随地“定时”报告，24小时内做出明确批示，24小时内提出解决办法。', '长治市不断突破传统招商模式，持续创新探索招商工作新路径，创新提出“火柴盒”式招展+招商模式，优选“长治制造”产品精华，自行组织或搭借各级各类招商平台，先后在北京、合肥等地举办了“长治制造北京行”专场招商项目推介对接会。', '100名“招商大使”为临汾招商引资吆喝，50支招商小分队以商招商、分队招商、代理招商，每月一场、一县主唱、月月“约”会、县县好戏、市县联动，临汾市生龙活虎的省外招商活动，大江南北“晋味”飘香，引来全国大商好商竞相前来品尝尧都“饕餮”招商大餐。']</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A56" t="n">
+        <v>22</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>忻州市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
+          <t>忻州市</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
           <t>河曲县组团赴繁峙学习创卫经验</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>2014-08-22</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>http://www.sxxz.gov.cn/zwyw/qxdt/201408/t20140822_92488.shtml</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>['8月18日，河曲县政府县长李旭清率领有关部门一行 22人，就“创卫”保洁工作到繁峙县“问道取经”，学习考察创建国家级卫生县城工作。', '早在四年前，繁峙县委、县政府把创建国家卫生县城作为全方位、多层次、各领域经营城市的重要工作，作为提高城市品位、营造优美人居环境、促进招商引资、推动全县跨越发展的重大举措，先后投资4亿多元，开展了 46 大项、210 小项“创卫”工程，经过艰辛努力，扎实工作，一举获得“国家卫生县城”称号。', '一座城市，三分建设，七分管理。繁峙县采取一系列措施巩固保持提升“创卫”成果，始终坚持高标准、严要求，不断改善县城基础设施，打造优美人居环境，用全新的理念来经营城市，时刻以高度的责任感和使命感保持好来之不易的“创卫”成果，创造了一流的城市环境。四年多来，山西省内及河北省兄弟县市多次来繁峙参观学习，优良的环境已经成为繁峙发展的一张靓丽的名片。', '河曲县考察团一行先后实地考察了秀美的滨河公园、占地万亩的碧秀森林公园、繁城镇笔锋村文化广场、配套完善的县城污水处理厂、干净整洁的县城蔬菜市场、繁峙火车站及县城的大街小巷“创卫”工作亮点等，认真观看了繁峙县创建国家级卫生县城专题片，听取了繁峙县“创卫”工作责任单位对各项工作具体做法、操作细节和推进措施等经验介绍，考察团人员就“创卫”工作在组织领导、硬件基础设施建设、县城改造、城乡卫生保洁、集贸市场整治、生活区达标、经费投入等方面与繁峙县有关部门进行了深入交流探讨。参观人员对干净的街道、整洁的店面、有序的管理赞叹不已。座谈会上，副县长孔国红介绍了繁峙县“创卫”概况，倾囊相授“三位一体”长效管理机制，以及“创卫”保洁“四个一样”的要求标准。', '河曲县政府县长李旭清要求随行的有关部门领导，要把繁峙县“创卫”作为学习和追赶的目标，进一步开阔视野、打开思路，增强做好创建工作的紧迫感，一定要借鉴学习繁峙“创卫”的先进工作经验，从点滴做起，积极研究河曲县创建国家级卫生县城的方法和措施，明确标准要求，加大工作力度，强化督促检查，抓细节求突破，抓亮点出精品，全面推进“创卫”工作，一鼓作气，一抓到底，确保一次过关，一举成功。']</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A57" t="n">
+        <v>22</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>忻州市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
+          <t>忻州市</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
           <t>定襄县推进设施农业发展亮点突出</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>2015-01-07</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>http://www.sxxz.gov.cn/zwyw/qxdt/201501/t20150107_92924.shtml</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>['2014 年，定襄县以发展设施农业为重点，高度重视现代农业发展，全县设施农业总面积达到5800 亩，以甜瓜、蔬菜为主的设施农业亩均收入达到5 万元，最高达10 万元，在一定程度上实现了有限耕地资源的利益最大化，不仅拓宽了农业结构调整空间，加快了露天农业向设施农业、传统作物向精细作物调整的步伐，而且助推了传统农业向现代高效农业转变的进程，极大地改善了局部生产条件和生产环境，并带动了生产方式的进一步转变，实现了一季生产向多季生产、一季增收向四季创收的跨越。', '政策与资金双向扶持，促进设施农业向规模化发展。早在2008 年，定襄县就在部分乡镇试验性推广了大棚种植技术，但几年发展下来，仍未形成较大规模和较为稳定的生产基地。针对设施农业小而全、乱而杂、自我发展等特点，当地政府在制定相关政策上，一方面出台了致力打造健康养生之都，加快发展现代生态农业的优惠政策，引导企业、农户和投资商积极投入到设施农业建设上；另一方面通过走出去学习考察、请进来技术指导、典型引领示范、招商引资推动等多种措施，使全县设施农业得以迅猛发展，逐步形成了受禄、季庄、宏道三乡镇设施瓜菜高产栽培和河边镇食用菌高产栽培等特色产业带。', '以甜瓜项目带动其他设施农业发展。定襄县十分注重对优秀品种与品牌的发掘和培育，县委书记亲自主持瓜农座谈会，政府组织召开定襄甜瓜品牌建设促进会，考察瓜情，听取意见，确立方向，鼓励农户启用闲置大棚，积极帮助瓜农申请农产品地理标志认证，进一步扩大了甜瓜的市场品牌效应。同时加快对甜瓜营销品牌策划的进度，前瞻性地成立了蔬菜甜瓜办公室，利用社会高素质人才，专门对甜瓜进行统一的品牌宣传与包装，最终实现产品与市场的无缝对接。2014 年，全县甜瓜种植面积8000 多亩，从事甜瓜种植的合作社13 家，甜瓜产业逐步呈现出规模化、产业化的发展格局，甜瓜也成为当地农民增收致富的主导产业，由此带动了全县设施农业的大发展。截至目前，定襄县已形成赵村、高村、北庄周边四个村、原种场等成规模的设施农业园区，全县仅温室建筑面积就高达2254 亩。', '企业换血转型向设施农业发展。近年来，由于经济与营销环境的变化，作为中国锻造之乡的定襄县300 多家法兰企业处于停产半停产状况，从而倒逼企业自发进行产业转型发展，民营企业银河镀锌法兰公司投资1000 万元，在受禄乡高村成立了大马种植合作社，以种植油菜、茄子、黄瓜、甜瓜等瓜菜为主，充分借鉴企业化管理模式，建立了农技培训中心、种苗试验室、技术化验室、农产品堆放周转场地等设施，并通过与超市联营，开展亲子联谊活动、户外团队假日采摘、农作物领养等多种方式，使销售额有了大幅提升，2014 年销售额达270 万元，预计在五年内建设成当地一流的瓜菜种植基地。']</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A58" t="n">
+        <v>22</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>忻州市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
+          <t>忻州市</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
           <t>柳州市委老干部局考察学习组来忻参观考察</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>2018-03-23</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>http://www.sxxz.gov.cn/zwyw/xzyw/201803/t20180323_367638.shtml</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>['3 月21 日，柳州市委老干部局考察学习组一行7 人来到我市调研考察老干部工作，并就如何做好下一步工作与我市进行了座谈交流，市委常委、组织部长王建廷一同考察并出席座谈会。', '考察组一行先后考察了市老干部大学建设情况、市老干部网宣员党支部建设及运行情况、市委老干局机关文化建设，实地走访参观了偏关县驻忻离退休干部党支部、原平市中国助学网老干部智库党支部、原平市公安局老干部党支部。', '王建廷热忱欢迎柳州市委老干部局考察组来我市传经送宝、缔结友情，表示今后两市要加强沟通联系，相互学习，共同提高进步，共同积极探索老干部转型发展、科学发展之路，进一步提升服务老干部的工作能力和水平，共同做好新时期老干部工作。', '柳州市委老干部局负责人表示，忻州市的老干部工作在全国有特色、有影响，很多的创新之处值得我们学习和借鉴，此次参观收获颇丰，回去后要认真消化吸收。', '近年来，忻州市老干部工作坚持“快乐老干部、汇集正能量”主基调，不忘初心、恪尽职守，深怀感情、奋发有为，持续发力推进以老干部“人生设计”“精神富养”等工作品牌建设，积极探索实践贫困地区做好老干部工作的方法和路子，形成了学有课堂、思有论坛、行有舞台、创有品牌的良好局面。']</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A59" t="n">
+        <v>22</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>忻州市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
+          <t>忻州市</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
           <t>岢岚县召开赴浙江乌镇考察学习旅游扶贫汇报会</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>2018-03-05</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>http://www.sxxz.gov.cn/zwyw/qxdt/201803/t20180307_290849.shtml</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>['3月1日下午，我县召开赴浙江乌镇考察学习旅游扶贫汇报会，为推进我县旅游扶贫工作集智献策。市委常委、县委书记王志东主持会议并讲话。县委副书记、县长侯俊生出席会议并提出具体要求。副县长岳保和及赴浙江考察学习的县政协副主席高常青，县政协副主席、宋家沟乡党委书记刘鹏德，王家岔乡负责同志、中国乡建院设计团队成员等参加会议。旅游策划与营销专家郭敬、李晓华受邀参加会议并提出意见。', '会上，专家郭敬、李晓华、任卓伟和设计团队负责人彭涛结合多年的工作经验以及对我县旅游资源的认识，就我县旅游扶贫项目的策划方向、规划路径、计划节奏进行深入分析，为我县旅游扶贫工作提出了有前瞻性、实操性的指导意见，也为我县未来的规划建设发展点燃了激情与希望。各参会人员分别结合自己的工作职能和旅游扶贫实际就此次考察学习的经验和感受，以及对未来旅游扶贫的想法和建议进行交流。', '会议强调，要始终牢记我县旅游开发的出发点是做好扶贫工作，要通过抢抓乡村振兴和脱贫攻坚机遇，用足用活各项政策，深度挖掘我县区域、环境、气候、地理、人文优势，强化产业支撑，按照打基础、虑长远的思路，开发好乡村旅游扶贫项目，实现群众稳定可持续增收致富的目标。', '会议要求，我县旅游开发既要脚踏实地又要登高望远，分清轻重缓急，把握好起步工作与高起点、高标准策划内容，在现行标准下，坚持“创新+融合”的工作方法，一要把脱贫达标作为重中之重，从基本开始，从基础做起；二要把项目、扶贫和旅游相结合，边策划边实施，稳步推进旅游扶贫项目建设步伐；三要深度思考并谋划解决好“为谁干、谁来干、谁可能来”等一系列问题，借鉴外出考察学习的经验，找准我县乡村旅游的发展定位、发展方向、发展的源动力和生命力，在乡村振兴和脱贫攻坚道路上趟出岢岚旅游扶贫特色路子。（郭丽红 石磊）']</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A60" t="n">
+        <v>22</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>忻州市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
+          <t>忻州市</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
           <t>忻州市党政代表团在京津考察学习</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>2017-12-25</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>http://www.sxxz.gov.cn/lssj/zzjtzsj/201802/t20180207_277005.shtml</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>['12月18日至21日，我市党政代表团赴京津地区考察学习，市委书记李俊明带队，市委副书记朱晓东，市委常委、常务副市长赵志坚，市委常委、秘书长崔建新，忻州经济开发区、市发改委等单位负责人参加。', '京昆高铁忻（州）—雄（安）段是国家京津冀、环渤海经济区大发展的骨干工程，也是连接我国东北和西南的大通道，可拉动忻州纳入雄安新区“1小时经济圈”，对于构建我市高铁十字型枢纽具有重大意义，是带动忻州开放发展的重点工程。目前该项目已列入《铁路“十三五”发展规划》，并正式列入雄安新区高铁规划范围，线路初步规划已基本完成。为进一步加快项目进度，助力忻州转型发展，李俊明一行分别与中国铁路总公司、铁三院就高铁项目的功能定位、设站选址、线路规划、道岔接入等事项进行了对接沟通，对前期工作达成了共识，争取早日确定方案、开工建设。同时，对大西高铁太原—原平段建设进行了工作对接，确保明年8月通车。', '推动五台山机场口岸开放是我市打造文旅战略性支柱产业的重要抓手，是打造内陆地区对外开放新高地的重大举措，对提高全市对外开放水平具有重要意义。代表团一行分别赴海关总署、口岸办，争取工作指导和支持，加大相关工作推进力度，争取2018年7月1日实现临时开放。赴国家质检总局，就五台山机场检验检疫功能设置及业务开展进行工作对接，争取技术、政策支持，争取早日通过国家质检总局验收。', '定襄法兰产业是我市的外贸支柱产业，出口创汇占全市80%以上，为持续推动定襄法兰由世界产业中心向创新中心转变，建设行业引领者和标准制定者，代表团一行与国家质检总局有关司局，就加大定襄法兰质量检验中心投入力度、检测能力水平建设和标准研制工作进行沟通交流，争取技术和专家方面的指导和支持，争取定襄县中国出口法兰锻件产品质量技术促进委员会挂牌成立，确保国家法兰锻件产品质量监督检验中心明年通过国家验收。', '我市农业资源独具特色，是“中国杂粮之都”，辖内的岢岚县是中华红芸豆之乡、神池县是中国亚麻籽之乡、五寨县是中国甜糯玉米之乡、静乐县是中国藜麦之乡。做大做强特色农产品是加快经济转型升级，推进农业供给侧结构性改革的客观需要。为进一步提升我市农产品竞争优势，代表团一行与国家质检总局进出口食品安全局，就我市建设国家出口食品农产品质量安全示范区进行对接交流，进一步梳理我市特色优势农产品，加快申报国家出口食品农产品质量安全示范区，推动农产品标准化、安全化工程建设。', '在学习考察期间，代表团一行还就忻州杂粮交易中心建设等工作与国家粮食总局进行了工作沟通和对接，对后续工作推进达成了初步共识。']</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A61" t="n">
+        <v>22</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>忻州市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
+          <t>忻州市</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
           <t>繁峙大力发展手工业开辟脱贫新路径</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>2018-01-18</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>http://www.sxxz.gov.cn/zwyw/qxdt/201801/t20180118_215927.shtml</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>['决战决胜脱贫攻坚，离不开产业支撑。繁峙县坚持“政府扶持、企业运营、贫困户参与”的模式，与河北白沟、容城、雄县等地深度对接合作，引进发展以箱包加工、服装、插花等为重点的手工业，助力脱贫攻坚。目前，全县已建成10个加工点，贫困户增收效益明显。预计2018年底，全县引进的手工业企业至少带动5000人就业，人均年收入达1.2万元，可保证1500个贫困家庭稳定增收脱贫。', '为找准精准脱贫发力点，繁峙县一直对脱贫攻坚路径进行着积极的探索实践。2016年，该县横涧乡白坡头村率先走出一条办箱包加工企业带动贫困户就业增收的新路子，脱贫成效明显。在进一步考察论证后，该县认识到手工业对当前全县的脱贫攻坚工作有着补短板、强弱项的重要作用。为此，繁峙县主要领导两次率团赴河北白沟、雄县、荣城、阜平等地对箱包加工、毛绒玩具、服装等手工业发展情况和发展经验进行了深度考察学习，同时，县委县政府从多方面入手，通过政策优惠、组织建构等手段，积极招商引资，着力搭建手工业发展稳定平台。', '一是科学谋划决策，加大扶持奖励。繁峙县委、县政府瞄准“随着京津冀一体化的发展和雄安新区规划的实施，箱包、毛绒玩具、插花等劳动密集型产业已准备外迁”这一机遇，在征求多方意见的基础上，研究出台《繁峙县推进手工业发展奖励补贴政策》，积极破解厂房、机器、培训等方面的瓶颈，并给予大量优惠奖励补贴，推动全县手工业发展步入快车道。在各种优惠政策吸引下，白沟、荣城、雄县等地客商纷纷前来考察投资。目前，6家企业成功落地，8家企业达成投资意向。', '二是加强组织领导，凝聚推动合力。手工业的健康快速发展，需要切实可行的机制组织保障。为此，该县成立了以县长为组长，相关部门、乡镇负责人为成员的手工业协调推进领导组，并设立常设工作机构繁峙县手工业办公室，统一组织实施全县手工业扶贫工作，在全县形成了“政府重视、部门配合、乡村主动、群众积极”的手工业发展浓厚氛围。', '三是优化营商环境，解决后顾之忧。按照优化营商环境“六最”要求，建立了手工业项目审批绿色通道，协调各金融机构为相关企业拓宽融资渠道，落实贷款贴息和中小微企业的税收优惠政策，并聘请高级技师，在技术、管理、服务等方面进行跟踪帮扶，为手工业发展营造良好的营商环境，全力促进手工业做大做强，带动贫困群众脱贫致富奔小康。']</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A62" t="n">
+        <v>22</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>忻州市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
+          <t>忻州市</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
           <t>保德荣膺省级园林县城</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>2015-01-15</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>http://www.sxxz.gov.cn/zwyw/qxdt/201501/t20150115_92971.shtml</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>['2011年，该县提出创建省级园林县城以来，始终坚持“高起点规划、高质量建设、高效益经营、高水平管理”的工作要求，扎实推进创建工作。一是完善规划。高质量完成了《保德县城区绿地系统规划》，邀请省市园林绿化专家实地指导工作，并组织相关部门到外地考察学习，开阔创建思路。二是财政引导。确定了财政引导、市场运作、社会参与等多渠道融资机制，内部挖潜和外部借力，解决资金难题，三年来累计投入财政性资金4033余万元，有力地推动了各项工程的顺利开展。三是加强管护。制定出台《保德县城市园林绿化管理办法》，实施绿色图章制度，不断完善和创新绿化管护机制，强化执法管理，有效防止了非法侵占绿地、破坏绿化成果事件的发生。四是全民动员。通过对创建工作进行全方位、立体式的宣传报道，营造了全民参与、共同绿化的氛围。全县逐步形成了以公园绿地为“点”、道路绿化为“线”、居住区以及单位庭院绿化为“面”，多层次、多样化的园林绿化新格局。']</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A63" t="n">
+        <v>22</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>忻州市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
+          <t>忻州市</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
           <t>五寨县组团来岢考察学习脱贫攻坚工作法</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>2016-07-29</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>http://www.sxxz.gov.cn/zwyw/qxdt/201607/t20160729_96184.shtml</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>['7月27日，五寨县委副书记武革慧率领该县乡（镇）党委书记、扶贫工作站站长及其相关工作人员来到岢岚，就', '考察团一行先后赴岚漪镇镇政府、省总工会扶贫工作站、宋家沟乡政府、宋家沟村等地，就岢岚县建档立卡、脱贫攻坚挂图作战运行情况、扶贫项目安排、脱贫攻坚建档立卡资料以及精准扶贫工作具体做法、措施等内容进行参观、交流、学习，通过实地查看、听取介绍、查看资料等形式详细了解岢岚县在精准扶贫和脱贫攻坚建档立卡工作中的好做法和好经验。', '考察团对岢岚县开展精准扶贫和脱贫攻坚建档立卡工作采取的“4433”工作法和取得的成效给予充分肯定，认为岢岚县精准扶贫工作思路清晰，措施明确，效果明显，并在充分结合县情实际的基础上，创新了脱贫攻坚建档立卡工作的模式和方法，真正使帮扶工作与精准扶贫深度融合，推动脱贫攻坚各项任务全面落实。', '工作法和取得的成效给予充分肯定，认为岢岚县精准扶贫工作思路清晰，措施明确，效果明显，并在充分结合县情实际的基础上，创新了脱贫攻坚建档立卡工作的模式和方法，真正使帮扶工作与精准扶贫深度融合，推动脱贫攻坚各项任务全面落实。', '考察团表示，要认真学习借鉴本次考察学习的先进经验和做法，仔细梳理学习考察的内容，并结合五寨县情，因地制宜，理清工作思路，明确目标任务，加快实施推进，深入开展好全县脱贫攻坚工作，让贫困群众早日脱贫。']</t>
         </is>
